--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A01245EC-3740-7349-A221-2EAFFB54C050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7723BCEF-3833-0A47-9F89-3D782D38845F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="395">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -875,6 +875,336 @@
   </si>
   <si>
     <t>3. 봉투 가격 인상은 인건비 상승에 따른 것이다.</t>
+  </si>
+  <si>
+    <t>yerang0917@naver.com</t>
+  </si>
+  <si>
+    <t>최예랑</t>
+  </si>
+  <si>
+    <t>csj450422@gmail.com</t>
+  </si>
+  <si>
+    <t>바이오메디컬학과</t>
+  </si>
+  <si>
+    <t>장승진</t>
+  </si>
+  <si>
+    <t>baeksa01@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>서휘도</t>
+  </si>
+  <si>
+    <t>choag0830@naver.com</t>
+  </si>
+  <si>
+    <t>긴호학과</t>
+  </si>
+  <si>
+    <t>박초은</t>
+  </si>
+  <si>
+    <t>huiju4684@naver.com</t>
+  </si>
+  <si>
+    <t>강희주</t>
+  </si>
+  <si>
+    <t>kimminseon2102@naver.com</t>
+  </si>
+  <si>
+    <t>김민선</t>
+  </si>
+  <si>
+    <t>sochi1108@naver.com</t>
+  </si>
+  <si>
+    <t>이소정</t>
+  </si>
+  <si>
+    <t>for1369@gmail.com</t>
+  </si>
+  <si>
+    <t>성동진</t>
+  </si>
+  <si>
+    <t>lion5166@naver.com</t>
+  </si>
+  <si>
+    <t>김정연</t>
+  </si>
+  <si>
+    <t>hug60600@gmail.com</t>
+  </si>
+  <si>
+    <t>황의건</t>
+  </si>
+  <si>
+    <t>jcskej0@hanmail.net</t>
+  </si>
+  <si>
+    <t>김은주</t>
+  </si>
+  <si>
+    <t>20242528@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>석진영</t>
+  </si>
+  <si>
+    <t>leesamchi0511@gmail.com</t>
+  </si>
+  <si>
+    <t>홍지민</t>
+  </si>
+  <si>
+    <t>cgim2421@gmail.com</t>
+  </si>
+  <si>
+    <t>중국학과</t>
+  </si>
+  <si>
+    <t>김채윤</t>
+  </si>
+  <si>
+    <t>kimseyoung0130@gmail.com</t>
+  </si>
+  <si>
+    <t>김세영</t>
+  </si>
+  <si>
+    <t>jiteh9491@gmail.com</t>
+  </si>
+  <si>
+    <t>한지예</t>
+  </si>
+  <si>
+    <t>4. 6630번 버스를 타면 한마음예식장에 갈 수 있다.</t>
+  </si>
+  <si>
+    <t>pinkyeon7@gmail.com</t>
+  </si>
+  <si>
+    <t>박채연</t>
+  </si>
+  <si>
+    <t>blake4102@naver.com</t>
+  </si>
+  <si>
+    <t>바이오메디컬</t>
+  </si>
+  <si>
+    <t>김원래</t>
+  </si>
+  <si>
+    <t>1. 방이 세 개, 욕실이 두 개인 아파트이다.</t>
+  </si>
+  <si>
+    <t>jinsugyeom49@gmail.com</t>
+  </si>
+  <si>
+    <t>진수겸</t>
+  </si>
+  <si>
+    <t>hizero0223@naver.com</t>
+  </si>
+  <si>
+    <t>조하영</t>
+  </si>
+  <si>
+    <t>mjys9155@gmail.com</t>
+  </si>
+  <si>
+    <t>서민지</t>
+  </si>
+  <si>
+    <t>gisung5864@naver.com</t>
+  </si>
+  <si>
+    <t>ai의료융합전공</t>
+  </si>
+  <si>
+    <t>조기성</t>
+  </si>
+  <si>
+    <t>youjin9387@naver.com</t>
+  </si>
+  <si>
+    <t>러시아학과</t>
+  </si>
+  <si>
+    <t>김유진</t>
+  </si>
+  <si>
+    <t>ksfu03@naver.com</t>
+  </si>
+  <si>
+    <t>영어영문학과</t>
+  </si>
+  <si>
+    <t>이규성</t>
+  </si>
+  <si>
+    <t>hje10314@naver.com</t>
+  </si>
+  <si>
+    <t>한지은</t>
+  </si>
+  <si>
+    <t>reasonbeans@naver.com</t>
+  </si>
+  <si>
+    <t>이유빈</t>
+  </si>
+  <si>
+    <t>kangdmscks@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">융합과학수사학과 </t>
+  </si>
+  <si>
+    <t>강은찬</t>
+  </si>
+  <si>
+    <t>4. 이불 빨래를 한다.</t>
+  </si>
+  <si>
+    <t>erang051216@naver.com</t>
+  </si>
+  <si>
+    <t>박이랑</t>
+  </si>
+  <si>
+    <t>pumo22@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터학과</t>
+  </si>
+  <si>
+    <t>김태희</t>
+  </si>
+  <si>
+    <t>a68055637@gmail.com</t>
+  </si>
+  <si>
+    <t>이효민</t>
+  </si>
+  <si>
+    <t>a52154309@gmail.com</t>
+  </si>
+  <si>
+    <t>황우진</t>
+  </si>
+  <si>
+    <t>sws62550100@gmail.com</t>
+  </si>
+  <si>
+    <t>서우성</t>
+  </si>
+  <si>
+    <t>eunllis6@gmail.com</t>
+  </si>
+  <si>
+    <t>박시은</t>
+  </si>
+  <si>
+    <t>lucas3767@naver.com</t>
+  </si>
+  <si>
+    <t>권민재</t>
+  </si>
+  <si>
+    <t>ehgmldo2@naver.com</t>
+  </si>
+  <si>
+    <t>데이터테크</t>
+  </si>
+  <si>
+    <t>박도희</t>
+  </si>
+  <si>
+    <t>kingdom980201@gmail.com</t>
+  </si>
+  <si>
+    <t>언어청각학과</t>
+  </si>
+  <si>
+    <t>박성경</t>
+  </si>
+  <si>
+    <t>dabinchoe05@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합학부</t>
+  </si>
+  <si>
+    <t>최다빈</t>
+  </si>
+  <si>
+    <t>schoe357@gmail.com</t>
+  </si>
+  <si>
+    <t>최성민</t>
+  </si>
+  <si>
+    <t>kkkssshhh2005@naver.com</t>
+  </si>
+  <si>
+    <t>김서희</t>
+  </si>
+  <si>
+    <t>tomas313@naver.com</t>
+  </si>
+  <si>
+    <t>라태민</t>
+  </si>
+  <si>
+    <t>woonsuck0916@naver.com</t>
+  </si>
+  <si>
+    <t>스마트 IoT</t>
+  </si>
+  <si>
+    <t>운석현</t>
+  </si>
+  <si>
+    <t>slaim7888@gmail.com</t>
+  </si>
+  <si>
+    <t>정치행정학과</t>
+  </si>
+  <si>
+    <t>이준민</t>
+  </si>
+  <si>
+    <t>kimdonghyeon0869@naver.com</t>
+  </si>
+  <si>
+    <t>김동현</t>
+  </si>
+  <si>
+    <t>nayeone0306@naver.com</t>
+  </si>
+  <si>
+    <t>김나연</t>
+  </si>
+  <si>
+    <t>tjdrjs04@naver.com</t>
+  </si>
+  <si>
+    <t>장성건</t>
+  </si>
+  <si>
+    <t>7dhw010@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>동형원</t>
   </si>
 </sst>
 </file>
@@ -914,7 +1244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1102,11 +1432,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1142,6 +1511,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1193,7 +1571,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD111">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -1431,11 +1809,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD65"/>
+  <dimension ref="A1:AD111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7448,6 +7826,4238 @@
         <v>106</v>
       </c>
     </row>
+    <row r="66" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="4">
+        <v>45565.919059328706</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="5">
+        <v>20242356</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F66" s="5">
+        <v>3</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S66" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T66" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U66" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W66" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="X66" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y66" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z66" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA66" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB66" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC66" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD66" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="7">
+        <v>45565.919735474541</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D67" s="8">
+        <v>20233637</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F67" s="8">
+        <v>3</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O67" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P67" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q67" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R67" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S67" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T67" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U67" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V67" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W67" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X67" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y67" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z67" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA67" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB67" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC67" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD67" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="4">
+        <v>45565.946299768519</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="5">
+        <v>20205188</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F68" s="5">
+        <v>3</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S68" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T68" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U68" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V68" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W68" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X68" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y68" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z68" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA68" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB68" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC68" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD68" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="7">
+        <v>45565.955268113423</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D69" s="8">
+        <v>20246239</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="F69" s="8">
+        <v>3</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P69" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q69" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R69" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S69" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T69" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U69" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="V69" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W69" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="X69" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y69" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z69" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA69" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB69" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC69" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD69" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="4">
+        <v>45565.966855763894</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="5">
+        <v>20217097</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F70" s="5">
+        <v>3</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S70" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T70" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U70" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="V70" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W70" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X70" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y70" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z70" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA70" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB70" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC70" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD70" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="7">
+        <v>45565.970710775466</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="8">
+        <v>20242707</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F71" s="8">
+        <v>3</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P71" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q71" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="R71" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S71" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T71" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U71" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V71" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W71" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X71" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y71" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z71" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA71" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB71" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC71" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD71" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="4">
+        <v>45565.983055960649</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" s="5">
+        <v>20242551</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F72" s="5">
+        <v>3</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R72" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S72" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T72" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U72" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V72" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W72" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X72" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y72" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z72" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA72" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB72" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC72" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD72" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="7">
+        <v>45565.996889884264</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="8">
+        <v>20243921</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F73" s="8">
+        <v>3</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P73" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q73" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R73" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S73" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T73" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U73" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V73" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W73" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X73" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y73" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z73" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA73" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB73" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC73" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD73" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="4">
+        <v>45566.030168715282</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D74" s="5">
+        <v>20243612</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F74" s="5">
+        <v>3</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P74" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R74" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S74" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T74" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U74" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V74" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W74" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X74" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y74" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z74" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA74" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB74" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC74" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD74" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="7">
+        <v>45566.390009606483</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D75" s="8">
+        <v>20243065</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F75" s="8">
+        <v>3</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O75" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P75" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q75" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R75" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S75" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T75" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U75" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V75" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W75" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X75" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y75" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z75" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA75" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB75" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC75" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD75" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="4">
+        <v>45566.4253521875</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D76" s="5">
+        <v>20227024</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F76" s="5">
+        <v>3</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P76" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S76" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T76" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V76" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W76" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X76" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y76" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z76" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA76" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB76" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC76" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD76" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="7">
+        <v>45566.459360868059</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="8">
+        <v>20242528</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F77" s="8">
+        <v>3</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="O77" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="P77" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q77" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R77" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S77" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T77" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U77" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V77" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W77" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="X77" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y77" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z77" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA77" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB77" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC77" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD77" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="4">
+        <v>45566.465181932872</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D78" s="5">
+        <v>20243062</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F78" s="5">
+        <v>3</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P78" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q78" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R78" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="S78" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T78" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U78" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V78" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W78" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X78" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y78" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z78" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA78" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB78" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC78" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD78" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="7">
+        <v>45566.52790966435</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D79" s="8">
+        <v>20241517</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F79" s="8">
+        <v>3</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O79" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P79" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q79" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R79" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S79" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T79" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U79" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V79" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W79" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X79" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y79" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z79" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA79" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB79" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC79" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD79" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="4">
+        <v>45566.54203931713</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D80" s="5">
+        <v>20231506</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F80" s="5">
+        <v>3</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P80" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q80" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R80" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S80" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T80" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U80" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V80" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W80" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X80" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y80" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z80" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA80" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB80" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC80" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD80" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="7">
+        <v>45566.570762337964</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" s="8">
+        <v>20246302</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="F81" s="8">
+        <v>3</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O81" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P81" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q81" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R81" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S81" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T81" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U81" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="V81" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W81" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X81" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y81" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z81" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA81" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB81" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC81" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD81" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="4">
+        <v>45566.573840289348</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D82" s="5">
+        <v>20227141</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F82" s="5">
+        <v>3</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O82" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P82" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q82" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R82" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S82" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="T82" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U82" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V82" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W82" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X82" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y82" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z82" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA82" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB82" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC82" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD82" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="7">
+        <v>45566.575661377312</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D83" s="8">
+        <v>20213609</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F83" s="8">
+        <v>3</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O83" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P83" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q83" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R83" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S83" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T83" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U83" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="V83" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W83" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X83" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y83" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z83" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA83" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB83" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC83" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD83" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="4">
+        <v>45566.584984641202</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D84" s="5">
+        <v>20243040</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F84" s="5">
+        <v>3</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O84" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P84" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q84" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R84" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S84" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T84" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U84" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="V84" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W84" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="X84" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y84" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z84" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA84" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB84" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC84" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD84" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="7">
+        <v>45566.610456319446</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D85" s="8">
+        <v>20243038</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F85" s="8">
+        <v>3</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O85" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P85" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q85" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R85" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S85" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T85" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U85" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V85" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W85" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X85" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y85" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z85" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA85" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB85" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC85" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD85" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="4">
+        <v>45566.620142442131</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" s="5">
+        <v>20241044</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F86" s="5">
+        <v>3</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O86" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P86" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q86" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R86" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S86" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T86" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U86" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V86" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W86" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X86" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y86" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z86" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA86" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB86" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC86" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD86" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="7">
+        <v>45566.623357731485</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D87" s="8">
+        <v>20216526</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F87" s="8">
+        <v>3</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N87" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O87" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P87" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q87" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R87" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S87" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T87" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U87" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V87" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W87" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X87" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y87" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z87" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA87" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB87" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC87" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD87" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="4">
+        <v>45566.63508331019</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D88" s="5">
+        <v>20241709</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F88" s="5">
+        <v>3</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O88" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P88" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q88" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R88" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S88" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T88" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U88" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V88" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W88" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X88" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y88" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z88" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA88" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB88" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC88" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD88" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="13">
+        <v>45566.658734548611</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="D89" s="14">
+        <v>20201071</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="F89" s="14">
+        <v>3</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K89" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L89" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M89" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N89" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O89" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P89" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q89" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R89" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S89" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="T89" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U89" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V89" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="W89" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="X89" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y89" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z89" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA89" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB89" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC89" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD89" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="4">
+        <v>45566.665231076389</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D90" s="5">
+        <v>20222367</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F90" s="5">
+        <v>3</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P90" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q90" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R90" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S90" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T90" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V90" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W90" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X90" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y90" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z90" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA90" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB90" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC90" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD90" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="7">
+        <v>45566.683740960652</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D91" s="8">
+        <v>20242339</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F91" s="8">
+        <v>3</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N91" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O91" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P91" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q91" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R91" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S91" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T91" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U91" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V91" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W91" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X91" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y91" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z91" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA91" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB91" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC91" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD91" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="4">
+        <v>45566.690887083329</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D92" s="5">
+        <v>20246904</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F92" s="5">
+        <v>3</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N92" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O92" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P92" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q92" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R92" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="S92" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T92" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U92" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V92" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W92" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X92" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y92" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z92" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA92" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB92" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC92" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD92" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="7">
+        <v>45566.690909513884</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D93" s="8">
+        <v>20243223</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F93" s="8">
+        <v>3</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N93" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O93" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P93" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q93" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R93" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S93" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T93" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U93" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V93" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W93" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X93" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y93" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z93" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA93" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB93" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC93" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD93" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="4">
+        <v>45566.693879259255</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D94" s="5">
+        <v>20232527</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F94" s="5">
+        <v>3</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M94" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P94" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q94" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R94" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S94" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T94" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U94" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V94" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W94" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X94" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y94" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z94" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA94" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB94" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC94" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD94" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="7">
+        <v>45566.697363715277</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D95" s="8">
+        <v>20241077</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="F95" s="8">
+        <v>3</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O95" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P95" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q95" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R95" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S95" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T95" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U95" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V95" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W95" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X95" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y95" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z95" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA95" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB95" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC95" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD95" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="4">
+        <v>45566.699358124999</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="5">
+        <v>20243968</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F96" s="5">
+        <v>3</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N96" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O96" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P96" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q96" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R96" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S96" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T96" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U96" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V96" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W96" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X96" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y96" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z96" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA96" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB96" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC96" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD96" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="7">
+        <v>45566.701856689819</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" s="8">
+        <v>20227036</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="F97" s="8">
+        <v>3</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K97" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O97" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P97" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q97" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R97" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S97" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T97" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U97" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V97" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W97" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X97" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y97" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z97" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA97" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB97" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC97" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD97" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="4">
+        <v>45566.712096805553</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D98" s="5">
+        <v>20243618</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F98" s="5">
+        <v>3</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N98" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O98" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P98" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q98" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R98" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S98" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T98" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U98" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V98" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W98" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X98" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y98" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z98" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA98" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB98" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC98" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD98" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="7">
+        <v>45566.717813460651</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D99" s="8">
+        <v>20242702</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="F99" s="8">
+        <v>3</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M99" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N99" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O99" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P99" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q99" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R99" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S99" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T99" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U99" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V99" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W99" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X99" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y99" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z99" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA99" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB99" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC99" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD99" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="4">
+        <v>45566.72368466435</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D100" s="5">
+        <v>20213219</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F100" s="5">
+        <v>3</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M100" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O100" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="P100" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q100" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R100" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S100" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T100" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U100" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V100" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W100" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X100" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y100" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z100" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA100" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB100" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC100" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD100" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="7">
+        <v>45566.733727615741</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D101" s="8">
+        <v>20243917</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F101" s="8">
+        <v>3</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N101" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O101" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P101" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q101" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R101" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S101" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="T101" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U101" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="V101" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W101" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X101" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y101" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z101" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA101" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB101" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC101" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD101" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="4">
+        <v>45566.741558657406</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D102" s="5">
+        <v>20246780</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F102" s="5">
+        <v>3</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M102" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O102" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P102" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q102" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R102" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S102" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T102" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U102" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V102" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W102" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X102" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y102" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z102" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA102" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB102" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC102" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD102" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="7">
+        <v>45566.741686990739</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D103" s="8">
+        <v>20246782</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F103" s="8">
+        <v>3</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M103" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N103" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O103" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P103" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q103" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R103" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S103" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T103" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U103" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V103" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W103" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X103" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y103" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z103" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA103" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB103" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC103" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD103" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="4">
+        <v>45566.751311527776</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D104" s="5">
+        <v>20243210</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F104" s="5">
+        <v>3</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M104" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N104" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O104" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P104" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q104" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R104" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S104" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T104" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U104" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V104" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W104" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X104" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y104" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z104" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA104" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB104" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC104" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD104" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="7">
+        <v>45566.756506053236</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105" s="8">
+        <v>20214116</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="F105" s="8">
+        <v>3</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M105" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N105" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O105" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="P105" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q105" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R105" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S105" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="T105" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U105" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V105" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W105" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X105" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y105" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z105" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA105" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB105" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC105" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD105" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="4">
+        <v>45566.768795706019</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D106" s="5">
+        <v>20205206</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F106" s="5">
+        <v>3</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M106" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N106" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O106" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P106" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q106" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R106" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S106" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T106" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U106" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V106" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W106" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X106" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y106" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z106" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA106" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB106" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC106" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD106" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="7">
+        <v>45566.773433680559</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D107" s="8">
+        <v>20242428</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F107" s="8">
+        <v>3</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M107" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N107" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O107" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P107" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q107" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R107" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S107" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T107" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U107" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V107" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W107" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="X107" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y107" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z107" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA107" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB107" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC107" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD107" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="4">
+        <v>45566.77638653935</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D108" s="5">
+        <v>20212912</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F108" s="5">
+        <v>3</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M108" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N108" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O108" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P108" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q108" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R108" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S108" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T108" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U108" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V108" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W108" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X108" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y108" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z108" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA108" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB108" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC108" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD108" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="7">
+        <v>45566.778046250001</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D109" s="8">
+        <v>20246214</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="F109" s="8">
+        <v>3</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M109" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N109" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O109" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P109" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q109" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R109" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S109" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T109" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U109" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V109" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W109" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X109" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y109" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z109" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA109" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB109" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC109" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD109" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="4">
+        <v>45566.784060081016</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D110" s="5">
+        <v>20235248</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F110" s="5">
+        <v>3</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M110" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N110" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O110" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P110" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q110" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R110" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S110" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T110" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U110" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V110" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W110" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="X110" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y110" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z110" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA110" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB110" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC110" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD110" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="13">
+        <v>45566.795451307873</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="D111" s="14">
+        <v>20243314</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="F111" s="14">
+        <v>3</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H111" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I111" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J111" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K111" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L111" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M111" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N111" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O111" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P111" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q111" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R111" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S111" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="T111" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U111" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V111" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="W111" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="X111" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y111" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z111" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA111" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB111" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC111" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD111" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7723BCEF-3833-0A47-9F89-3D782D38845F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BACCAC6-3519-C24E-890B-D2D068674156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="450">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1205,6 +1205,171 @@
   </si>
   <si>
     <t>동형원</t>
+  </si>
+  <si>
+    <t>jungha051026@naver.com</t>
+  </si>
+  <si>
+    <t>윤정하</t>
+  </si>
+  <si>
+    <t>junsa215909@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>chlrkdus5@naver.com</t>
+  </si>
+  <si>
+    <t>최가연</t>
+  </si>
+  <si>
+    <t>csyoon1215@naver.com</t>
+  </si>
+  <si>
+    <t>천세윤</t>
+  </si>
+  <si>
+    <t>ye_ji_02@naver.com</t>
+  </si>
+  <si>
+    <t>전예지</t>
+  </si>
+  <si>
+    <t>dkaldmswl05@gmail.com</t>
+  </si>
+  <si>
+    <t>엄은지</t>
+  </si>
+  <si>
+    <t>zmgofk1591@gmail.com</t>
+  </si>
+  <si>
+    <t>AI로봇융합</t>
+  </si>
+  <si>
+    <t>박하늘</t>
+  </si>
+  <si>
+    <t>jh2600646@naver.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스</t>
+  </si>
+  <si>
+    <t>박지훈</t>
+  </si>
+  <si>
+    <t>ejsl5231@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠학과</t>
+  </si>
+  <si>
+    <t>이유찬</t>
+  </si>
+  <si>
+    <t>ji040414@naver.com</t>
+  </si>
+  <si>
+    <t>최윤지</t>
+  </si>
+  <si>
+    <t>herdy2154@naver.com</t>
+  </si>
+  <si>
+    <t>한녕균</t>
+  </si>
+  <si>
+    <t>oepdwrtyy@gmail.com</t>
+  </si>
+  <si>
+    <t>강종현</t>
+  </si>
+  <si>
+    <t>sin50407899@gmail.com</t>
+  </si>
+  <si>
+    <t>신재화</t>
+  </si>
+  <si>
+    <t>bin_1014@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠 전공</t>
+  </si>
+  <si>
+    <t>김명빈</t>
+  </si>
+  <si>
+    <t>detect5641@gmail.com</t>
+  </si>
+  <si>
+    <t>이주성</t>
+  </si>
+  <si>
+    <t>dpdlvldzmfkd1218@naver.com</t>
+  </si>
+  <si>
+    <t>이다혜</t>
+  </si>
+  <si>
+    <t>minseok1937@gmail.com</t>
+  </si>
+  <si>
+    <t>김민석</t>
+  </si>
+  <si>
+    <t>lucy1004486@naver.com</t>
+  </si>
+  <si>
+    <t>김소연</t>
+  </si>
+  <si>
+    <t>kkst1324@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학과</t>
+  </si>
+  <si>
+    <t>구민영</t>
+  </si>
+  <si>
+    <t>kang__bbo@naver.com</t>
+  </si>
+  <si>
+    <t>미래융합스쿨</t>
+  </si>
+  <si>
+    <t>강다은</t>
+  </si>
+  <si>
+    <t>gyucheol0503@naver.com</t>
+  </si>
+  <si>
+    <t>홍규철</t>
+  </si>
+  <si>
+    <t>pcw5766@naver.com</t>
+  </si>
+  <si>
+    <t>광고홍보학과</t>
+  </si>
+  <si>
+    <t>박찬웅</t>
+  </si>
+  <si>
+    <t>woosm050530@gmail.com</t>
+  </si>
+  <si>
+    <t>우수민</t>
+  </si>
+  <si>
+    <t>b020305@naver.com</t>
+  </si>
+  <si>
+    <t>배성진</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1736,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD135">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -1809,11 +1974,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD111"/>
+  <dimension ref="A1:AD135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E120" sqref="E120"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12058,6 +12223,2214 @@
         <v>56</v>
       </c>
     </row>
+    <row r="112" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="4">
+        <v>45566.832590497681</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D112" s="5">
+        <v>20245213</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F112" s="5">
+        <v>3</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="M112" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N112" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O112" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P112" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q112" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="R112" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S112" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T112" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U112" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V112" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W112" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="X112" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y112" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z112" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA112" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB112" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC112" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD112" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="7">
+        <v>45566.842430578705</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D113" s="8">
+        <v>20203006</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="F113" s="8">
+        <v>3</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J113" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K113" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N113" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O113" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P113" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q113" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R113" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="S113" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T113" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U113" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V113" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W113" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X113" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y113" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z113" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA113" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB113" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC113" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD113" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="4">
+        <v>45566.843356377314</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D114" s="5">
+        <v>20246294</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F114" s="5">
+        <v>3</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M114" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N114" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O114" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P114" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q114" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R114" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S114" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="T114" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U114" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V114" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W114" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X114" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y114" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z114" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA114" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB114" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC114" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD114" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="7">
+        <v>45566.851832187502</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D115" s="8">
+        <v>20246292</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="F115" s="8">
+        <v>3</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J115" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K115" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M115" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N115" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O115" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P115" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q115" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R115" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S115" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T115" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U115" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V115" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W115" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X115" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y115" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z115" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA115" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB115" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC115" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD115" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="4">
+        <v>45566.859180520834</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D116" s="5">
+        <v>20213839</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F116" s="5">
+        <v>3</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M116" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N116" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O116" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P116" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q116" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R116" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S116" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T116" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U116" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V116" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W116" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X116" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y116" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z116" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA116" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB116" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC116" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD116" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="7">
+        <v>45566.863790138887</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D117" s="8">
+        <v>20221059</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="F117" s="8">
+        <v>3</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J117" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K117" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M117" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N117" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O117" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P117" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q117" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R117" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S117" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T117" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U117" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V117" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W117" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X117" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y117" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z117" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA117" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB117" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC117" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD117" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="4">
+        <v>45566.872440381943</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D118" s="5">
+        <v>20216731</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F118" s="5">
+        <v>3</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N118" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O118" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P118" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q118" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R118" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S118" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T118" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U118" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V118" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W118" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X118" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y118" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z118" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA118" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB118" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC118" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD118" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="7">
+        <v>45566.875019340281</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D119" s="8">
+        <v>20213224</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="F119" s="8">
+        <v>3</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K119" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M119" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N119" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O119" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P119" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q119" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R119" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S119" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T119" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U119" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V119" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W119" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X119" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y119" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z119" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA119" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB119" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC119" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD119" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="4">
+        <v>45566.880075335648</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D120" s="5">
+        <v>20225223</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F120" s="5">
+        <v>3</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M120" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N120" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O120" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P120" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q120" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R120" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S120" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T120" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U120" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V120" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W120" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X120" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y120" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z120" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA120" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB120" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC120" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD120" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="7">
+        <v>45566.892236006941</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D121" s="8">
+        <v>20233055</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="F121" s="8">
+        <v>3</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J121" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K121" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M121" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N121" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O121" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P121" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q121" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R121" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S121" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T121" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U121" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V121" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W121" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X121" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y121" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z121" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA121" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB121" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC121" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD121" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="4">
+        <v>45566.892452442131</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D122" s="5">
+        <v>20193010</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F122" s="5">
+        <v>3</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M122" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N122" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O122" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P122" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q122" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R122" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S122" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T122" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U122" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V122" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W122" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X122" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y122" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z122" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA122" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB122" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC122" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD122" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="7">
+        <v>45566.901903819446</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D123" s="8">
+        <v>20241003</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="F123" s="8">
+        <v>3</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K123" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L123" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M123" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N123" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O123" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P123" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q123" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R123" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S123" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T123" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U123" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V123" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W123" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X123" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y123" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z123" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA123" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB123" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC123" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD123" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="4">
+        <v>45566.943431331019</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D124" s="5">
+        <v>20202538</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F124" s="5">
+        <v>3</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N124" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O124" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P124" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q124" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R124" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S124" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T124" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U124" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V124" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W124" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X124" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y124" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z124" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA124" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB124" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC124" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD124" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="7">
+        <v>45566.955206990737</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D125" s="8">
+        <v>20202706</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="F125" s="8">
+        <v>3</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K125" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L125" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M125" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N125" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O125" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P125" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q125" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R125" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S125" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T125" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U125" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V125" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W125" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X125" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y125" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z125" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA125" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB125" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC125" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD125" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="4">
+        <v>45566.972859745365</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D126" s="5">
+        <v>20245230</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F126" s="5">
+        <v>3</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L126" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M126" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N126" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O126" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P126" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q126" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R126" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S126" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="T126" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U126" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V126" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W126" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X126" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y126" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z126" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA126" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB126" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC126" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD126" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="7">
+        <v>45566.975056597221</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D127" s="8">
+        <v>20243933</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="F127" s="8">
+        <v>3</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K127" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M127" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N127" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O127" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P127" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q127" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R127" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S127" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T127" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U127" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V127" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W127" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X127" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y127" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z127" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA127" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB127" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC127" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD127" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="4">
+        <v>45566.986494050929</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D128" s="5">
+        <v>20202915</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="F128" s="5">
+        <v>3</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N128" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O128" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P128" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q128" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R128" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S128" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T128" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U128" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V128" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W128" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X128" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y128" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z128" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA128" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB128" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC128" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD128" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="7">
+        <v>45566.989290590282</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D129" s="8">
+        <v>20232512</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="F129" s="8">
+        <v>3</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K129" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M129" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N129" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O129" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P129" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q129" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R129" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S129" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T129" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U129" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V129" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W129" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X129" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y129" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z129" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA129" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB129" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC129" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD129" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="4">
+        <v>45566.992675023153</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D130" s="5">
+        <v>20201004</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F130" s="5">
+        <v>3</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M130" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N130" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O130" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P130" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q130" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R130" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S130" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T130" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U130" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V130" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W130" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X130" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y130" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z130" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA130" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB130" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC130" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD130" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="7">
+        <v>45567.006227013888</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D131" s="8">
+        <v>20246601</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="F131" s="8">
+        <v>3</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K131" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L131" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M131" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N131" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O131" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P131" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q131" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R131" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S131" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T131" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U131" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V131" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W131" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X131" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y131" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z131" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA131" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB131" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC131" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD131" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="4">
+        <v>45567.013628032408</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D132" s="5">
+        <v>20236650</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F132" s="5">
+        <v>3</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L132" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M132" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N132" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O132" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P132" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q132" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R132" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S132" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T132" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U132" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V132" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W132" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X132" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y132" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z132" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA132" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB132" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC132" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD132" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="7">
+        <v>45567.024706759257</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D133" s="8">
+        <v>20192616</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F133" s="8">
+        <v>1</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J133" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K133" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L133" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M133" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N133" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O133" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="P133" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q133" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="R133" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S133" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T133" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U133" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="V133" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="W133" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X133" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y133" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z133" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA133" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB133" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC133" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD133" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="4">
+        <v>45567.028664050929</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D134" s="5">
+        <v>20243630</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F134" s="5">
+        <v>3</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J134" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K134" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L134" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M134" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N134" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O134" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P134" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q134" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R134" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S134" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T134" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U134" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V134" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W134" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X134" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y134" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z134" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA134" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB134" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC134" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD134" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="13">
+        <v>45567.06748946759</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="D135" s="14">
+        <v>20212418</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="F135" s="14">
+        <v>3</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H135" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I135" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J135" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K135" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L135" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M135" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N135" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O135" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P135" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q135" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R135" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S135" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="T135" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U135" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V135" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="W135" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="X135" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y135" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z135" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA135" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB135" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC135" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD135" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BACCAC6-3519-C24E-890B-D2D068674156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE045A40-FA14-134A-AD74-FEC8907C7394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5079" uniqueCount="562">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1370,6 +1370,342 @@
   </si>
   <si>
     <t>배성진</t>
+  </si>
+  <si>
+    <t>4262cyj@naver.com</t>
+  </si>
+  <si>
+    <t>최윤진</t>
+  </si>
+  <si>
+    <t>qudcksl1216@gmail.com</t>
+  </si>
+  <si>
+    <t>윤병찬</t>
+  </si>
+  <si>
+    <t>dlrua105@naver.com</t>
+  </si>
+  <si>
+    <t>이겸</t>
+  </si>
+  <si>
+    <t>chjames2005@naver.com</t>
+  </si>
+  <si>
+    <t>최재현</t>
+  </si>
+  <si>
+    <t>ertyhx3@gmail.com</t>
+  </si>
+  <si>
+    <t>김미소</t>
+  </si>
+  <si>
+    <t>minnjae119@gmail.com</t>
+  </si>
+  <si>
+    <t>최민재</t>
+  </si>
+  <si>
+    <t>seeun1012123@naver.com</t>
+  </si>
+  <si>
+    <t>이세은</t>
+  </si>
+  <si>
+    <t>withhowon@gmail.com</t>
+  </si>
+  <si>
+    <t>서호원</t>
+  </si>
+  <si>
+    <t>sengyu0805@gmail.com</t>
+  </si>
+  <si>
+    <t>나선아</t>
+  </si>
+  <si>
+    <t>gurybong@naver.com</t>
+  </si>
+  <si>
+    <t>최다원</t>
+  </si>
+  <si>
+    <t>kimteawan347@gmail.com</t>
+  </si>
+  <si>
+    <t>김태완</t>
+  </si>
+  <si>
+    <t>johs0105@naver.com</t>
+  </si>
+  <si>
+    <t>조한신</t>
+  </si>
+  <si>
+    <t>liz030404@naver.com</t>
+  </si>
+  <si>
+    <t>ju0_park@naver.com</t>
+  </si>
+  <si>
+    <t>박주영</t>
+  </si>
+  <si>
+    <t>Sinyewon921@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">식품영양학과 </t>
+  </si>
+  <si>
+    <t>lhw2565@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜원</t>
+  </si>
+  <si>
+    <t>kth4159@gmail.com</t>
+  </si>
+  <si>
+    <t>minheart7844@gmail.com</t>
+  </si>
+  <si>
+    <t>권민</t>
+  </si>
+  <si>
+    <t>donghunea@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터</t>
+  </si>
+  <si>
+    <t>한동훈</t>
+  </si>
+  <si>
+    <t>qkhkasin17@naver.com</t>
+  </si>
+  <si>
+    <t>박가현</t>
+  </si>
+  <si>
+    <t>wjsgkdms4@naver.com</t>
+  </si>
+  <si>
+    <t>전하은</t>
+  </si>
+  <si>
+    <t>kokoung12@naver.com</t>
+  </si>
+  <si>
+    <t>권호영</t>
+  </si>
+  <si>
+    <t>cjc0623@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학부 콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>최현민</t>
+  </si>
+  <si>
+    <t>minkyoung961@naver.com</t>
+  </si>
+  <si>
+    <t>융합과학수사학과</t>
+  </si>
+  <si>
+    <t>김민경</t>
+  </si>
+  <si>
+    <t>changho0216@gmail.com</t>
+  </si>
+  <si>
+    <t>이창호</t>
+  </si>
+  <si>
+    <t>ggamy3637@naver.com</t>
+  </si>
+  <si>
+    <t>최효윤</t>
+  </si>
+  <si>
+    <t>whalsrl124@naver.com</t>
+  </si>
+  <si>
+    <t>조민기</t>
+  </si>
+  <si>
+    <t>sehyeon0330@naver.com</t>
+  </si>
+  <si>
+    <t>김세현</t>
+  </si>
+  <si>
+    <t>hsjenny99@gmail.com</t>
+  </si>
+  <si>
+    <t>전소현,</t>
+  </si>
+  <si>
+    <t>yxnjxn0331@gmail.com</t>
+  </si>
+  <si>
+    <t>배윤진</t>
+  </si>
+  <si>
+    <t>khi031127@naver.com</t>
+  </si>
+  <si>
+    <t>김현일</t>
+  </si>
+  <si>
+    <t>leeyelim0320@gmail.com</t>
+  </si>
+  <si>
+    <t>이예림</t>
+  </si>
+  <si>
+    <t>k1j40405@naver.com</t>
+  </si>
+  <si>
+    <t>화학과</t>
+  </si>
+  <si>
+    <t>김진아</t>
+  </si>
+  <si>
+    <t>minjeongkim329@gmail.com</t>
+  </si>
+  <si>
+    <t>간호</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>eung4077@gmail.com</t>
+  </si>
+  <si>
+    <t>강은결</t>
+  </si>
+  <si>
+    <t>mingtto0920@gmail.com</t>
+  </si>
+  <si>
+    <t>유민서</t>
+  </si>
+  <si>
+    <t>houng5325@gmail.com</t>
+  </si>
+  <si>
+    <t>홍성원</t>
+  </si>
+  <si>
+    <t>rlarkfka2255@naver.com</t>
+  </si>
+  <si>
+    <t>김가람</t>
+  </si>
+  <si>
+    <t>smainas20@naver.com</t>
+  </si>
+  <si>
+    <t>정민서</t>
+  </si>
+  <si>
+    <t>xogns3043@naver.com</t>
+  </si>
+  <si>
+    <t>김태훈</t>
+  </si>
+  <si>
+    <t>jyj111212@naver.com</t>
+  </si>
+  <si>
+    <t>장예지</t>
+  </si>
+  <si>
+    <t>bgm5082@gmail.com</t>
+  </si>
+  <si>
+    <t>배경민</t>
+  </si>
+  <si>
+    <t>eunse051013@naver.com</t>
+  </si>
+  <si>
+    <t>김은세</t>
+  </si>
+  <si>
+    <t>a01028349689@gmail.com</t>
+  </si>
+  <si>
+    <t>최다인</t>
+  </si>
+  <si>
+    <t>kdhmonkeyking@gmail.com</t>
+  </si>
+  <si>
+    <t>jklucky09@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회학과 </t>
+  </si>
+  <si>
+    <t>최준근</t>
+  </si>
+  <si>
+    <t>jmkkom@naver.com</t>
+  </si>
+  <si>
+    <t>전민균</t>
+  </si>
+  <si>
+    <t>qufdldlrn@gmail.com</t>
+  </si>
+  <si>
+    <t>윤샛별</t>
+  </si>
+  <si>
+    <t>dkhong2003@gmail.com</t>
+  </si>
+  <si>
+    <t>홍다경</t>
+  </si>
+  <si>
+    <t>yeongjus6552@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경영학과 </t>
+  </si>
+  <si>
+    <t>서영주</t>
+  </si>
+  <si>
+    <t>captaingogo@naver.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>김진안</t>
+  </si>
+  <si>
+    <t>wtbaa33@naver.com</t>
+  </si>
+  <si>
+    <t>김민교</t>
+  </si>
+  <si>
+    <t>sunshade132@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">디지털미디어콘텐츠 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">박기택 </t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1745,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1636,11 +1972,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1685,6 +2060,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1736,7 +2120,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD188">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -1974,11 +2358,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD135"/>
+  <dimension ref="A1:AD188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14431,6 +14815,4882 @@
         <v>56</v>
       </c>
     </row>
+    <row r="136" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="4">
+        <v>45567.373089780092</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D136" s="5">
+        <v>20243048</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F136" s="5">
+        <v>3</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J136" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L136" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M136" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N136" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O136" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P136" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q136" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R136" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S136" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T136" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U136" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="V136" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W136" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="X136" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y136" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z136" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA136" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB136" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC136" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD136" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="7">
+        <v>45567.440332407408</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D137" s="8">
+        <v>20192926</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="F137" s="8">
+        <v>3</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J137" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K137" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L137" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M137" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N137" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O137" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P137" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q137" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R137" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S137" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T137" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U137" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V137" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W137" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X137" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y137" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z137" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA137" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB137" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC137" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD137" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="4">
+        <v>45567.463817708332</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D138" s="5">
+        <v>202043236</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F138" s="5">
+        <v>3</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J138" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L138" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M138" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N138" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O138" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P138" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q138" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R138" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S138" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T138" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U138" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V138" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W138" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X138" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y138" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z138" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA138" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB138" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC138" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD138" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="7">
+        <v>45567.46473684028</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D139" s="8">
+        <v>20243259</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="F139" s="8">
+        <v>3</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J139" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K139" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L139" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M139" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N139" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O139" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P139" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q139" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R139" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S139" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T139" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U139" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V139" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W139" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X139" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y139" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z139" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA139" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB139" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC139" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD139" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="4">
+        <v>45567.465621180556</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D140" s="5">
+        <v>20242607</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F140" s="5">
+        <v>3</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J140" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N140" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O140" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P140" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q140" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R140" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S140" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T140" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U140" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V140" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W140" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X140" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y140" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z140" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA140" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB140" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC140" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD140" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="7">
+        <v>45567.47087208333</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D141" s="8">
+        <v>20243247</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="F141" s="8">
+        <v>3</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K141" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L141" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M141" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N141" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O141" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P141" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q141" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R141" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S141" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T141" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U141" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V141" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W141" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X141" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y141" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z141" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA141" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB141" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC141" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD141" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="4">
+        <v>45567.472311666672</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D142" s="5">
+        <v>20241068</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="F142" s="5">
+        <v>3</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J142" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M142" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N142" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O142" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P142" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q142" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R142" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S142" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T142" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U142" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V142" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W142" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X142" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y142" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z142" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA142" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB142" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC142" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD142" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="7">
+        <v>45567.476057465276</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D143" s="8">
+        <v>20246245</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="F143" s="8">
+        <v>3</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K143" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L143" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M143" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N143" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O143" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P143" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q143" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R143" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S143" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T143" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U143" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="V143" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W143" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X143" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y143" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z143" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA143" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB143" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC143" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD143" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="4">
+        <v>45567.4902009375</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D144" s="5">
+        <v>20245152</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F144" s="5">
+        <v>3</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I144" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J144" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L144" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M144" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N144" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O144" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P144" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q144" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R144" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S144" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T144" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U144" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V144" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W144" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X144" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y144" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z144" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA144" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB144" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC144" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD144" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="7">
+        <v>45567.500417696763</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D145" s="8">
+        <v>20227136</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="F145" s="8">
+        <v>3</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J145" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K145" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L145" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M145" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N145" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O145" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P145" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q145" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R145" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S145" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T145" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U145" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V145" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W145" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X145" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y145" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z145" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA145" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB145" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC145" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD145" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="4">
+        <v>45567.508781979166</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D146" s="5">
+        <v>20212613</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="F146" s="5">
+        <v>3</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J146" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L146" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M146" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N146" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O146" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P146" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q146" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R146" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S146" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T146" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U146" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V146" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W146" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X146" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y146" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z146" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA146" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB146" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC146" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD146" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="7">
+        <v>45567.521246180557</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D147" s="8">
+        <v>20172435</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="F147" s="8">
+        <v>3</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H147" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I147" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J147" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K147" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L147" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M147" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N147" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O147" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P147" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q147" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R147" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S147" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T147" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U147" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V147" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W147" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X147" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y147" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z147" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA147" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB147" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC147" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD147" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="4">
+        <v>45567.529104722227</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D148" s="5">
+        <v>20243237</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F148" s="5">
+        <v>3</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J148" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L148" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M148" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N148" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O148" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P148" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q148" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R148" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S148" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T148" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U148" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V148" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W148" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X148" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y148" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z148" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA148" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB148" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC148" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD148" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="7">
+        <v>45567.543227511575</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D149" s="8">
+        <v>20195170</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="F149" s="8">
+        <v>3</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H149" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I149" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J149" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K149" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L149" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M149" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N149" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O149" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="P149" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q149" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R149" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S149" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T149" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U149" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="V149" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="W149" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X149" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y149" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z149" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA149" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB149" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC149" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD149" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="4">
+        <v>45567.554609155093</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D150" s="5">
+        <v>20243821</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F150" s="5">
+        <v>3</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J150" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K150" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L150" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M150" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N150" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O150" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P150" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q150" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R150" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S150" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T150" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U150" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V150" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W150" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X150" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y150" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z150" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA150" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB150" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC150" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD150" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="151" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="7">
+        <v>45567.560802499996</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D151" s="8">
+        <v>20242565</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="F151" s="8">
+        <v>3</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I151" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J151" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K151" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L151" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M151" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N151" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O151" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P151" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q151" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R151" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S151" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T151" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U151" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V151" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W151" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X151" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y151" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z151" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA151" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB151" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC151" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD151" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="4">
+        <v>45567.576893935184</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D152" s="5">
+        <v>20246230</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F152" s="5">
+        <v>3</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J152" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L152" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M152" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N152" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O152" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P152" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q152" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R152" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S152" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T152" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U152" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V152" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W152" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="X152" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y152" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z152" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA152" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB152" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC152" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD152" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="7">
+        <v>45567.580938449071</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D153" s="8">
+        <v>20242503</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="F153" s="8">
+        <v>3</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H153" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I153" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J153" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K153" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L153" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M153" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N153" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O153" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P153" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q153" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R153" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S153" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T153" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U153" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V153" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W153" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X153" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y153" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z153" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA153" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB153" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC153" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD153" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="4">
+        <v>45567.584735775468</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D154" s="5">
+        <v>20205267</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F154" s="5">
+        <v>3</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J154" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L154" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M154" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N154" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O154" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P154" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q154" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R154" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S154" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T154" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U154" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V154" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W154" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X154" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y154" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z154" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA154" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB154" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC154" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD154" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="7">
+        <v>45567.60967774305</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D155" s="8">
+        <v>20232953</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="F155" s="8">
+        <v>3</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H155" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I155" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J155" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K155" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L155" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M155" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N155" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O155" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P155" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q155" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R155" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S155" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T155" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U155" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V155" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W155" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X155" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y155" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z155" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA155" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB155" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC155" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD155" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="156" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="4">
+        <v>45567.615996770837</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D156" s="5">
+        <v>20202570</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="F156" s="5">
+        <v>3</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I156" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J156" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L156" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M156" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N156" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O156" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P156" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q156" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R156" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S156" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T156" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U156" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V156" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W156" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X156" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y156" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z156" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA156" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB156" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC156" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD156" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="157" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="7">
+        <v>45567.641722025466</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D157" s="8">
+        <v>20202911</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="F157" s="8">
+        <v>3</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H157" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I157" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J157" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K157" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L157" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M157" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N157" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O157" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P157" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q157" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R157" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S157" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="T157" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U157" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="V157" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W157" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X157" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y157" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z157" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA157" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB157" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC157" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD157" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="158" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="4">
+        <v>45567.655318090277</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D158" s="5">
+        <v>20215264</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F158" s="5">
+        <v>3</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I158" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J158" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K158" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L158" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M158" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N158" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O158" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P158" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q158" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R158" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S158" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T158" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U158" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V158" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W158" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X158" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y158" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z158" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA158" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB158" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC158" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD158" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="159" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="7">
+        <v>45567.663108460649</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D159" s="8">
+        <v>20231706</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F159" s="8">
+        <v>3</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J159" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K159" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L159" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="M159" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N159" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O159" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P159" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q159" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R159" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S159" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="T159" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U159" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V159" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W159" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="X159" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y159" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z159" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA159" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB159" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC159" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD159" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="160" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="4">
+        <v>45567.676450601852</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D160" s="5">
+        <v>20243941</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="F160" s="5">
+        <v>3</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I160" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J160" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L160" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M160" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N160" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O160" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P160" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q160" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R160" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S160" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T160" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U160" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V160" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W160" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X160" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y160" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z160" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA160" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB160" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC160" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD160" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="161" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="7">
+        <v>45567.687150914353</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D161" s="8">
+        <v>20201733</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="F161" s="8">
+        <v>3</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H161" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I161" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J161" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K161" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L161" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M161" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N161" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O161" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P161" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q161" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R161" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S161" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T161" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U161" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V161" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W161" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X161" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y161" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z161" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA161" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB161" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC161" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD161" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="162" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="4">
+        <v>45567.711734594908</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D162" s="5">
+        <v>20192986</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F162" s="5">
+        <v>3</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I162" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J162" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K162" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L162" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="M162" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N162" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O162" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P162" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q162" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="R162" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="S162" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T162" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U162" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="V162" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W162" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="X162" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y162" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z162" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA162" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB162" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC162" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD162" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="163" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="7">
+        <v>45567.721234652781</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D163" s="8">
+        <v>20212609</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F163" s="8">
+        <v>3</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H163" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I163" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J163" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K163" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L163" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M163" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N163" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O163" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P163" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q163" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R163" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S163" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T163" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U163" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V163" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W163" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X163" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y163" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z163" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA163" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB163" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC163" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD163" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="164" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="4">
+        <v>45567.736711423611</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D164" s="5">
+        <v>20245246</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="F164" s="5">
+        <v>3</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I164" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J164" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L164" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M164" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N164" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O164" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P164" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q164" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R164" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S164" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T164" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U164" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V164" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W164" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X164" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y164" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z164" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA164" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB164" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC164" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD164" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="165" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="7">
+        <v>45567.763945254628</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D165" s="8">
+        <v>20217015</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="F165" s="8">
+        <v>3</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J165" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K165" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L165" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M165" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N165" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O165" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P165" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q165" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R165" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S165" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T165" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U165" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V165" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W165" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X165" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y165" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z165" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA165" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB165" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC165" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD165" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="4">
+        <v>45567.765781122682</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D166" s="5">
+        <v>20246232</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="F166" s="5">
+        <v>3</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="J166" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L166" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M166" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N166" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O166" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P166" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q166" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R166" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S166" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="T166" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U166" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="V166" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W166" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="X166" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y166" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z166" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA166" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB166" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC166" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD166" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="7">
+        <v>45567.77047372685</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D167" s="8">
+        <v>20193633</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="F167" s="8">
+        <v>3</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H167" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I167" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J167" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K167" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L167" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M167" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N167" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O167" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P167" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q167" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R167" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S167" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T167" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U167" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V167" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W167" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X167" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y167" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z167" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA167" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB167" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC167" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD167" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="168" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="4">
+        <v>45567.779184548606</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D168" s="5">
+        <v>20243408</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F168" s="5">
+        <v>3</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I168" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J168" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K168" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L168" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="M168" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N168" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O168" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P168" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q168" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R168" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S168" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T168" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U168" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V168" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W168" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X168" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y168" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z168" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA168" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB168" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC168" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD168" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="169" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="13">
+        <v>45567.824500798612</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="D169" s="14">
+        <v>20246218</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="F169" s="14">
+        <v>3</v>
+      </c>
+      <c r="G169" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H169" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I169" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J169" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K169" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L169" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M169" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N169" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O169" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P169" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q169" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R169" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S169" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="T169" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U169" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V169" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="W169" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="X169" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y169" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z169" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA169" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB169" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC169" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD169" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="170" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="4">
+        <v>45567.854244780094</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D170" s="5">
+        <v>20242201</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="F170" s="5">
+        <v>3</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I170" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J170" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L170" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M170" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N170" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O170" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="P170" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q170" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R170" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S170" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T170" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U170" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V170" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W170" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X170" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y170" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z170" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA170" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB170" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC170" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD170" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="171" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="7">
+        <v>45567.85650603009</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D171" s="8">
+        <v>20242540</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="F171" s="8">
+        <v>3</v>
+      </c>
+      <c r="G171" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H171" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I171" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J171" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K171" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L171" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M171" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N171" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O171" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P171" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q171" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R171" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S171" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T171" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U171" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V171" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W171" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X171" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y171" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z171" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA171" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB171" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC171" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD171" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="172" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="4">
+        <v>45567.862266956014</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D172" s="5">
+        <v>20243741</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="F172" s="5">
+        <v>3</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J172" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L172" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M172" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N172" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O172" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P172" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q172" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R172" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S172" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T172" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U172" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V172" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W172" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X172" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y172" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z172" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA172" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB172" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC172" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD172" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="173" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="7">
+        <v>45567.86539337963</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D173" s="8">
+        <v>20243804</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="F173" s="8">
+        <v>3</v>
+      </c>
+      <c r="G173" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H173" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I173" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J173" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K173" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L173" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M173" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N173" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O173" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P173" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q173" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R173" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S173" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T173" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U173" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V173" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W173" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X173" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y173" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z173" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA173" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB173" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC173" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD173" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="174" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="4">
+        <v>45567.918485011571</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D174" s="5">
+        <v>20233031</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F174" s="5">
+        <v>3</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I174" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J174" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L174" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M174" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N174" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O174" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P174" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q174" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R174" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S174" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T174" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U174" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V174" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W174" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X174" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y174" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z174" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA174" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB174" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC174" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD174" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="175" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="7">
+        <v>45567.93266262731</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D175" s="8">
+        <v>20227040</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="F175" s="8">
+        <v>3</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H175" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I175" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J175" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K175" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L175" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M175" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N175" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O175" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P175" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q175" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R175" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S175" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T175" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U175" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V175" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W175" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X175" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y175" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z175" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA175" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB175" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC175" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD175" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="176" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="4">
+        <v>45567.935073807872</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D176" s="5">
+        <v>20241083</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F176" s="5">
+        <v>3</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J176" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L176" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M176" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N176" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O176" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P176" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q176" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R176" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S176" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T176" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U176" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V176" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W176" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X176" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y176" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z176" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA176" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB176" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC176" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD176" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="7">
+        <v>45567.952054664347</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D177" s="8">
+        <v>20222960</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="F177" s="8">
+        <v>3</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H177" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I177" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J177" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K177" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L177" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M177" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N177" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O177" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P177" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q177" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="R177" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S177" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T177" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U177" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V177" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W177" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X177" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y177" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z177" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA177" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB177" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC177" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD177" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="178" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="4">
+        <v>45567.962708125</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D178" s="5">
+        <v>20246225</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F178" s="5">
+        <v>3</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L178" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M178" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N178" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O178" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P178" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q178" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R178" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S178" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T178" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U178" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V178" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W178" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X178" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y178" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z178" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA178" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB178" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC178" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD178" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="7">
+        <v>45567.969960960647</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D179" s="8">
+        <v>20242635</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="F179" s="8">
+        <v>3</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H179" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I179" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="J179" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K179" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L179" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="M179" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N179" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O179" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P179" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q179" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="R179" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S179" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="T179" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U179" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V179" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W179" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X179" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y179" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z179" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA179" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB179" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC179" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD179" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="4">
+        <v>45567.978828784719</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D180" s="5">
+        <v>20241510</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F180" s="5">
+        <v>3</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J180" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L180" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M180" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N180" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O180" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P180" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q180" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R180" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S180" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T180" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U180" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V180" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W180" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X180" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y180" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z180" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA180" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB180" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC180" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD180" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="7">
+        <v>45567.992263020831</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D181" s="8">
+        <v>20171101</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="F181" s="8">
+        <v>3</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H181" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I181" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J181" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K181" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L181" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M181" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N181" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O181" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P181" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q181" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R181" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S181" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T181" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U181" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V181" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W181" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X181" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y181" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z181" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA181" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB181" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC181" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD181" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="4">
+        <v>45567.999597523143</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D182" s="5">
+        <v>20203425</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F182" s="5">
+        <v>3</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I182" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J182" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L182" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M182" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N182" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O182" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P182" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q182" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R182" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S182" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T182" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U182" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V182" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W182" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X182" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y182" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z182" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA182" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB182" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC182" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD182" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="7">
+        <v>45568.002591365745</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D183" s="8">
+        <v>20243929</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="F183" s="8">
+        <v>3</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H183" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I183" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J183" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="K183" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L183" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="M183" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N183" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O183" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="P183" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q183" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R183" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S183" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T183" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U183" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V183" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W183" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X183" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y183" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z183" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA183" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB183" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC183" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD183" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="4">
+        <v>45568.00310494213</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D184" s="5">
+        <v>20246305</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F184" s="5">
+        <v>3</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J184" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K184" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L184" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M184" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N184" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O184" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P184" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q184" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R184" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S184" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T184" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U184" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V184" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W184" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X184" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y184" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z184" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA184" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB184" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC184" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD184" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="7">
+        <v>45568.081200173612</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="D185" s="8">
+        <v>20242973</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="F185" s="8">
+        <v>3</v>
+      </c>
+      <c r="G185" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I185" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J185" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K185" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L185" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M185" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N185" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O185" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P185" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q185" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R185" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S185" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T185" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U185" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V185" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W185" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X185" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y185" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z185" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA185" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB185" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC185" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD185" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="4">
+        <v>45568.116185104169</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D186" s="5">
+        <v>20243311</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F186" s="5">
+        <v>3</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I186" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J186" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K186" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L186" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M186" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N186" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O186" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P186" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q186" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R186" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S186" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T186" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U186" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V186" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W186" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X186" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y186" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z186" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA186" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB186" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC186" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD186" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="7">
+        <v>45568.153793425925</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D187" s="8">
+        <v>20241605</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="F187" s="8">
+        <v>3</v>
+      </c>
+      <c r="G187" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I187" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J187" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K187" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L187" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M187" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N187" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O187" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P187" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q187" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R187" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S187" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T187" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U187" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V187" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W187" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X187" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y187" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z187" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA187" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB187" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC187" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD187" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="16">
+        <v>45568.307436597221</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="C188" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="D188" s="17">
+        <v>20222526</v>
+      </c>
+      <c r="E188" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="F188" s="17">
+        <v>2</v>
+      </c>
+      <c r="G188" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H188" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I188" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J188" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K188" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L188" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M188" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="N188" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O188" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P188" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q188" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R188" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S188" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T188" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U188" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="V188" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="W188" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="X188" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y188" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z188" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA188" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB188" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC188" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD188" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE045A40-FA14-134A-AD74-FEC8907C7394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AB34EE-90B2-E747-89E4-5665D308EC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5079" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5592" uniqueCount="601">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1706,6 +1706,123 @@
   </si>
   <si>
     <t xml:space="preserve">박기택 </t>
+  </si>
+  <si>
+    <t>raon02271@naver.com</t>
+  </si>
+  <si>
+    <t>이채윤</t>
+  </si>
+  <si>
+    <t>ye1651@naver.com</t>
+  </si>
+  <si>
+    <t>전예은</t>
+  </si>
+  <si>
+    <t>leeeunbi0717@naver.com</t>
+  </si>
+  <si>
+    <t>이은비</t>
+  </si>
+  <si>
+    <t>wogh1587@naver.com</t>
+  </si>
+  <si>
+    <t>현재호</t>
+  </si>
+  <si>
+    <t>wlduddember6@gmail.com</t>
+  </si>
+  <si>
+    <t>이지영</t>
+  </si>
+  <si>
+    <t>gomdolri05@naver.com</t>
+  </si>
+  <si>
+    <t>이아영</t>
+  </si>
+  <si>
+    <t>ming041230@gmail.com</t>
+  </si>
+  <si>
+    <t>joo061222@gmail.com</t>
+  </si>
+  <si>
+    <t>강민주</t>
+  </si>
+  <si>
+    <t>baeseung1211@gmail.com</t>
+  </si>
+  <si>
+    <t>배승혁</t>
+  </si>
+  <si>
+    <t>jenniferdy@naver.com</t>
+  </si>
+  <si>
+    <t>권도연</t>
+  </si>
+  <si>
+    <t>0214lily@naver.com</t>
+  </si>
+  <si>
+    <t>김가희</t>
+  </si>
+  <si>
+    <t>jaehun081805@gmail.com</t>
+  </si>
+  <si>
+    <t>이재훈</t>
+  </si>
+  <si>
+    <t>cindy_lol@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학전공</t>
+  </si>
+  <si>
+    <t>권한별</t>
+  </si>
+  <si>
+    <t>narinsong3@gmail.com</t>
+  </si>
+  <si>
+    <t>송나린</t>
+  </si>
+  <si>
+    <t>hijgc8282@naver.com</t>
+  </si>
+  <si>
+    <t>윤장근</t>
+  </si>
+  <si>
+    <t>rlaskrud0917@naver.com</t>
+  </si>
+  <si>
+    <t>김나경</t>
+  </si>
+  <si>
+    <t>aldidrhemdgkrry1234@naver.com</t>
+  </si>
+  <si>
+    <t>영어영문</t>
+  </si>
+  <si>
+    <t>김용우</t>
+  </si>
+  <si>
+    <t>rhkwp0323@gmail.com</t>
+  </si>
+  <si>
+    <t>유도영</t>
+  </si>
+  <si>
+    <t>qaz5316qaz@naver.com</t>
+  </si>
+  <si>
+    <t>이동기</t>
   </si>
 </sst>
 </file>
@@ -2120,7 +2237,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD188">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD207">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -2358,11 +2475,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD188"/>
+  <dimension ref="A1:AD207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C196" sqref="C196"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19691,6 +19808,1754 @@
         <v>132</v>
       </c>
     </row>
+    <row r="189" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="7">
+        <v>45568.517370706017</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D189" s="8">
+        <v>20233954</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="F189" s="8">
+        <v>3</v>
+      </c>
+      <c r="G189" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I189" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J189" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K189" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L189" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M189" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N189" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O189" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P189" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q189" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R189" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S189" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T189" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U189" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V189" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W189" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X189" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y189" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z189" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA189" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB189" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC189" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD189" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="190" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="4">
+        <v>45568.533820173616</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D190" s="5">
+        <v>20243949</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="F190" s="5">
+        <v>3</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I190" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J190" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K190" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L190" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M190" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N190" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O190" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P190" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q190" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R190" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S190" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T190" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U190" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V190" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W190" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X190" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y190" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z190" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA190" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB190" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC190" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD190" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="191" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="7">
+        <v>45568.537837905096</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D191" s="8">
+        <v>20242340</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="F191" s="8">
+        <v>3</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H191" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I191" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J191" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K191" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L191" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M191" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N191" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O191" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P191" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q191" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R191" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S191" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T191" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U191" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V191" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W191" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X191" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y191" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z191" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA191" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB191" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC191" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD191" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="192" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="4">
+        <v>45568.543277337958</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D192" s="5">
+        <v>20192366</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F192" s="5">
+        <v>3</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I192" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J192" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K192" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L192" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M192" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N192" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O192" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P192" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q192" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R192" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S192" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T192" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U192" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V192" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W192" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X192" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y192" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z192" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA192" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB192" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC192" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD192" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="193" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="7">
+        <v>45568.560783252316</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D193" s="8">
+        <v>20246639</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="F193" s="8">
+        <v>3</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H193" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I193" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J193" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K193" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L193" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M193" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N193" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O193" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P193" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q193" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R193" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="S193" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T193" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U193" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V193" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W193" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X193" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y193" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z193" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA193" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB193" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC193" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD193" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="194" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="4">
+        <v>45568.568350567133</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D194" s="5">
+        <v>20242227</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="F194" s="5">
+        <v>3</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I194" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J194" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K194" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L194" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M194" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N194" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O194" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P194" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q194" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R194" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S194" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T194" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U194" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V194" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W194" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X194" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y194" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z194" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA194" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB194" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC194" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD194" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="195" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="7">
+        <v>45568.582284490738</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D195" s="8">
+        <v>20242525</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F195" s="8">
+        <v>3</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H195" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I195" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J195" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K195" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L195" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M195" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N195" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O195" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P195" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q195" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R195" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S195" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T195" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U195" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V195" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W195" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X195" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y195" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z195" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA195" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB195" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC195" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD195" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="196" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="4">
+        <v>45568.588117754625</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D196" s="5">
+        <v>20243801</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F196" s="5">
+        <v>3</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I196" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J196" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K196" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L196" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M196" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N196" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O196" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P196" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q196" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R196" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S196" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T196" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U196" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V196" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W196" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X196" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y196" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z196" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA196" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB196" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC196" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD196" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="197" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="7">
+        <v>45568.590303287041</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D197" s="8">
+        <v>20235179</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="F197" s="8">
+        <v>3</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H197" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I197" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J197" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K197" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L197" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M197" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N197" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O197" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P197" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q197" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R197" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S197" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T197" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U197" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V197" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W197" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X197" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y197" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z197" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA197" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB197" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC197" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD197" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="198" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="4">
+        <v>45568.617451863422</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D198" s="5">
+        <v>20246206</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="F198" s="5">
+        <v>3</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I198" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J198" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K198" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L198" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M198" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N198" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O198" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P198" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q198" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R198" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S198" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T198" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U198" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V198" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W198" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X198" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y198" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z198" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA198" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB198" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC198" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD198" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="199" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="7">
+        <v>45568.638023020831</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D199" s="8">
+        <v>20214104</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="F199" s="8">
+        <v>3</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H199" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I199" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J199" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K199" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L199" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M199" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N199" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O199" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P199" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q199" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R199" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S199" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T199" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U199" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V199" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W199" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X199" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y199" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z199" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA199" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB199" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC199" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD199" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="200" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="4">
+        <v>45568.643226446758</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D200" s="5">
+        <v>20242736</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="F200" s="5">
+        <v>3</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I200" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J200" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K200" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L200" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M200" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N200" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O200" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P200" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q200" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R200" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S200" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T200" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U200" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V200" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W200" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="X200" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y200" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z200" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA200" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB200" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC200" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD200" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="201" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="7">
+        <v>45568.685352523149</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="D201" s="8">
+        <v>20201007</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="F201" s="8">
+        <v>3</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H201" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I201" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J201" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K201" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L201" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M201" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N201" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O201" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P201" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q201" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="R201" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S201" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T201" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U201" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V201" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W201" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X201" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y201" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z201" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA201" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB201" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC201" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD201" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="202" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="4">
+        <v>45568.694490451388</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D202" s="5">
+        <v>20246248</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="F202" s="5">
+        <v>3</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I202" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J202" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K202" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L202" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M202" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N202" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O202" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P202" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q202" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R202" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S202" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T202" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U202" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V202" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W202" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X202" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y202" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z202" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA202" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB202" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC202" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD202" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="203" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="7">
+        <v>45568.706669675928</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D203" s="8">
+        <v>20192560</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="F203" s="8">
+        <v>3</v>
+      </c>
+      <c r="G203" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H203" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I203" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J203" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K203" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L203" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M203" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N203" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O203" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P203" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q203" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R203" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S203" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T203" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U203" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V203" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W203" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X203" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y203" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z203" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA203" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB203" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC203" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD203" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="204" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="4">
+        <v>45568.71200594907</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="D204" s="5">
+        <v>20221005</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="F204" s="5">
+        <v>3</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I204" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J204" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K204" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L204" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M204" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N204" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O204" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P204" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q204" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R204" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S204" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T204" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U204" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V204" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W204" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X204" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y204" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z204" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA204" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB204" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC204" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD204" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="205" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="7">
+        <v>45568.716963877319</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="D205" s="8">
+        <v>20241204</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="F205" s="8">
+        <v>3</v>
+      </c>
+      <c r="G205" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H205" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I205" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J205" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K205" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L205" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M205" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N205" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O205" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P205" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q205" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R205" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S205" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T205" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U205" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V205" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="W205" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X205" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y205" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z205" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA205" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB205" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC205" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD205" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="206" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="4">
+        <v>45568.71800680556</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D206" s="5">
+        <v>20235210</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="F206" s="5">
+        <v>3</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I206" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J206" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K206" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L206" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M206" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N206" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O206" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P206" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q206" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R206" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S206" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T206" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U206" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V206" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W206" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X206" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y206" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z206" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA206" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB206" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC206" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD206" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="207" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="13">
+        <v>45568.743135578705</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="C207" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D207" s="14">
+        <v>20192936</v>
+      </c>
+      <c r="E207" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="F207" s="14">
+        <v>3</v>
+      </c>
+      <c r="G207" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="H207" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I207" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J207" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K207" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L207" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M207" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N207" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O207" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P207" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q207" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R207" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S207" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="T207" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="U207" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V207" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="W207" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="X207" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y207" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z207" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA207" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB207" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC207" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD207" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AB34EE-90B2-E747-89E4-5665D308EC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA953287-6DDF-C547-AD8B-046116B3B8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5592" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6132" uniqueCount="641">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1823,6 +1823,126 @@
   </si>
   <si>
     <t>이동기</t>
+  </si>
+  <si>
+    <t>0223wltn@naver.com</t>
+  </si>
+  <si>
+    <t>홍지수</t>
+  </si>
+  <si>
+    <t>donghyun6652@gmail.com</t>
+  </si>
+  <si>
+    <t>한동현</t>
+  </si>
+  <si>
+    <t>ckswo00@gmail.com</t>
+  </si>
+  <si>
+    <t>이찬재</t>
+  </si>
+  <si>
+    <t>dongkyolee@naver.com</t>
+  </si>
+  <si>
+    <t>이동교</t>
+  </si>
+  <si>
+    <t>anfytrltk3@naver.com</t>
+  </si>
+  <si>
+    <t>윤가영</t>
+  </si>
+  <si>
+    <t>sally200408@gmail.com</t>
+  </si>
+  <si>
+    <t>박경화</t>
+  </si>
+  <si>
+    <t>kyg031988@gmail.com</t>
+  </si>
+  <si>
+    <t>김윤겸</t>
+  </si>
+  <si>
+    <t>bagminhyeog534@gmail.com</t>
+  </si>
+  <si>
+    <t>박민혁</t>
+  </si>
+  <si>
+    <t>snp040609@naver.com</t>
+  </si>
+  <si>
+    <t>박세나</t>
+  </si>
+  <si>
+    <t>wizkids0418@naver.com</t>
+  </si>
+  <si>
+    <t>박혜인</t>
+  </si>
+  <si>
+    <t>ilylive999@gmail.com</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>qwe92517@gmail.com</t>
+  </si>
+  <si>
+    <t>이진영</t>
+  </si>
+  <si>
+    <t>ujs4198@naver.com</t>
+  </si>
+  <si>
+    <t>엄준식</t>
+  </si>
+  <si>
+    <t>nyj7013@naver.com</t>
+  </si>
+  <si>
+    <t>노예진</t>
+  </si>
+  <si>
+    <t>efgh124@naver.com</t>
+  </si>
+  <si>
+    <t>정윤서</t>
+  </si>
+  <si>
+    <t>yohihong@gmail.com</t>
+  </si>
+  <si>
+    <t>민홍기</t>
+  </si>
+  <si>
+    <t>msy123581@naver.com</t>
+  </si>
+  <si>
+    <t>문신영</t>
+  </si>
+  <si>
+    <t>leejhzzang2005@naver.com</t>
+  </si>
+  <si>
+    <t>이주현</t>
+  </si>
+  <si>
+    <t>minwl19@naver.com</t>
+  </si>
+  <si>
+    <t>조민지</t>
+  </si>
+  <si>
+    <t>bagj11533@gmail.com</t>
+  </si>
+  <si>
+    <t>박준형</t>
   </si>
 </sst>
 </file>
@@ -2237,7 +2357,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD207">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD227">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -2475,11 +2595,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD207"/>
+  <dimension ref="A1:AD227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D221" sqref="D221"/>
+      <selection pane="bottomLeft" activeCell="E239" sqref="E239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21556,6 +21676,1846 @@
         <v>56</v>
       </c>
     </row>
+    <row r="208" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="4">
+        <v>45568.789632418979</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D208" s="5">
+        <v>20243850</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="F208" s="5">
+        <v>3</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I208" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J208" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K208" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L208" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M208" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N208" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O208" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P208" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q208" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R208" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S208" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T208" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U208" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V208" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W208" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X208" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y208" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z208" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA208" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB208" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC208" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD208" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="209" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="7">
+        <v>45568.803411840279</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D209" s="8">
+        <v>20246300</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="F209" s="8">
+        <v>3</v>
+      </c>
+      <c r="G209" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H209" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I209" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J209" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K209" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L209" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M209" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N209" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O209" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P209" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q209" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R209" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S209" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T209" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U209" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V209" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W209" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X209" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y209" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z209" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA209" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB209" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC209" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD209" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="210" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="4">
+        <v>45568.804496956014</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D210" s="5">
+        <v>20217151</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="F210" s="5">
+        <v>2</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I210" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J210" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K210" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L210" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M210" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N210" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O210" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="P210" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q210" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R210" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S210" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T210" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U210" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="V210" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W210" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X210" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y210" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z210" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA210" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB210" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC210" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD210" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="211" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="7">
+        <v>45568.861559131939</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D211" s="8">
+        <v>20213241</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="F211" s="8">
+        <v>3</v>
+      </c>
+      <c r="G211" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H211" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I211" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J211" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K211" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L211" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M211" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N211" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O211" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P211" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q211" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R211" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S211" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T211" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U211" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V211" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W211" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X211" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y211" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z211" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA211" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB211" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC211" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD211" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="212" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="4">
+        <v>45568.862717673612</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D212" s="5">
+        <v>20243830</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="F212" s="5">
+        <v>3</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H212" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I212" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J212" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K212" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L212" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M212" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N212" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O212" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P212" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q212" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R212" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S212" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T212" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U212" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V212" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W212" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X212" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y212" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z212" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA212" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB212" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC212" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD212" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="213" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="7">
+        <v>45568.869324166662</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D213" s="8">
+        <v>20212818</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="F213" s="8">
+        <v>3</v>
+      </c>
+      <c r="G213" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H213" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I213" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J213" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K213" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L213" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M213" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N213" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O213" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P213" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q213" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R213" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S213" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T213" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U213" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V213" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W213" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X213" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y213" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z213" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA213" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB213" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC213" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD213" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="214" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="4">
+        <v>45568.890650023153</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D214" s="5">
+        <v>20231606</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="F214" s="5">
+        <v>3</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I214" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J214" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K214" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L214" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M214" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N214" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O214" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P214" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q214" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R214" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S214" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T214" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U214" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V214" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W214" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X214" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y214" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z214" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA214" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB214" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC214" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD214" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="215" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="7">
+        <v>45568.930487569443</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D215" s="8">
+        <v>20242320</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="F215" s="8">
+        <v>3</v>
+      </c>
+      <c r="G215" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H215" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I215" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J215" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K215" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L215" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M215" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N215" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O215" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P215" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q215" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R215" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S215" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T215" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U215" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V215" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W215" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X215" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y215" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z215" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA215" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB215" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC215" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD215" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="216" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="4">
+        <v>45568.990932488421</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D216" s="5">
+        <v>20242957</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="F216" s="5">
+        <v>3</v>
+      </c>
+      <c r="G216" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H216" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I216" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J216" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K216" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L216" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M216" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N216" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O216" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P216" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q216" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R216" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S216" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T216" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U216" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V216" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W216" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X216" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y216" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z216" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA216" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB216" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC216" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD216" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="217" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="7">
+        <v>45569.006115034717</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D217" s="8">
+        <v>20242427</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="F217" s="8">
+        <v>3</v>
+      </c>
+      <c r="G217" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H217" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I217" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J217" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K217" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L217" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M217" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N217" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O217" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P217" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q217" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R217" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S217" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T217" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U217" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V217" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W217" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X217" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y217" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z217" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA217" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB217" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC217" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD217" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="218" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="4">
+        <v>45569.023525879631</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D218" s="5">
+        <v>20231621</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="F218" s="5">
+        <v>3</v>
+      </c>
+      <c r="G218" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H218" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I218" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J218" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K218" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L218" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M218" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N218" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O218" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P218" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q218" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R218" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S218" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T218" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U218" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V218" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W218" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="X218" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y218" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z218" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA218" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB218" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC218" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD218" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="219" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="7">
+        <v>45569.032233217593</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D219" s="8">
+        <v>20246271</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="F219" s="8">
+        <v>3</v>
+      </c>
+      <c r="G219" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H219" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I219" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J219" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K219" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L219" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M219" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N219" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O219" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P219" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q219" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R219" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S219" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T219" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U219" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V219" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W219" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X219" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y219" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z219" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA219" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB219" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC219" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD219" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="220" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="4">
+        <v>45569.040550381949</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D220" s="5">
+        <v>20197118</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="F220" s="5">
+        <v>3</v>
+      </c>
+      <c r="G220" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H220" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I220" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J220" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K220" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L220" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M220" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N220" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O220" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P220" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q220" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R220" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S220" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T220" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U220" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V220" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W220" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X220" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y220" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z220" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA220" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB220" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC220" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD220" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="221" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="7">
+        <v>45569.048287488426</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D221" s="8">
+        <v>20246235</v>
+      </c>
+      <c r="E221" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="F221" s="8">
+        <v>3</v>
+      </c>
+      <c r="G221" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H221" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I221" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J221" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K221" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L221" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M221" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N221" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O221" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P221" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q221" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R221" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S221" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T221" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U221" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V221" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W221" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X221" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y221" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z221" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA221" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB221" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC221" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD221" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="4">
+        <v>45569.052534537041</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D222" s="5">
+        <v>20246282</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="F222" s="5">
+        <v>3</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J222" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K222" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L222" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M222" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N222" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O222" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P222" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q222" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R222" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S222" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T222" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U222" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V222" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W222" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X222" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y222" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z222" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA222" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB222" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC222" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD222" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="7">
+        <v>45569.057582893518</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D223" s="8">
+        <v>20245161</v>
+      </c>
+      <c r="E223" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="F223" s="8">
+        <v>3</v>
+      </c>
+      <c r="G223" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H223" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I223" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J223" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K223" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L223" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M223" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N223" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O223" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P223" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q223" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R223" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S223" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T223" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U223" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V223" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W223" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X223" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y223" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z223" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA223" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB223" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC223" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD223" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="224" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="4">
+        <v>45569.075522175925</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D224" s="5">
+        <v>20241519</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="F224" s="5">
+        <v>3</v>
+      </c>
+      <c r="G224" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H224" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I224" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J224" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K224" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L224" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M224" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N224" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O224" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P224" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q224" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R224" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S224" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T224" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U224" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V224" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W224" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X224" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y224" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z224" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA224" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB224" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC224" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD224" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="7">
+        <v>45569.076920104169</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D225" s="8">
+        <v>20242342</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="F225" s="8">
+        <v>3</v>
+      </c>
+      <c r="G225" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H225" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I225" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J225" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K225" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L225" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M225" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N225" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O225" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P225" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q225" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R225" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S225" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T225" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U225" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V225" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W225" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X225" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y225" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z225" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA225" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB225" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC225" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD225" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="226" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="4">
+        <v>45569.088212974537</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D226" s="5">
+        <v>20217178</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F226" s="5">
+        <v>3</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I226" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J226" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K226" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L226" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M226" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N226" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O226" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P226" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q226" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R226" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S226" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T226" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U226" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V226" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W226" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X226" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y226" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z226" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA226" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB226" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC226" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD226" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="13">
+        <v>45569.245331666665</v>
+      </c>
+      <c r="B227" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="C227" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D227" s="14">
+        <v>24</v>
+      </c>
+      <c r="E227" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="F227" s="14">
+        <v>3</v>
+      </c>
+      <c r="G227" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="H227" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I227" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J227" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K227" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L227" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M227" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N227" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O227" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P227" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q227" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R227" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S227" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="T227" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U227" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="V227" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="W227" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="X227" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y227" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z227" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA227" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB227" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC227" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD227" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA953287-6DDF-C547-AD8B-046116B3B8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC2A6E9-ED0F-244E-A46D-039A7155B195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6132" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6834" uniqueCount="695">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1943,6 +1943,168 @@
   </si>
   <si>
     <t>박준형</t>
+  </si>
+  <si>
+    <t>bvc023@naver.com</t>
+  </si>
+  <si>
+    <t>김수영</t>
+  </si>
+  <si>
+    <t>ginny1024@naver.com</t>
+  </si>
+  <si>
+    <t>김희원</t>
+  </si>
+  <si>
+    <t>znfh527gkfn@naver.com</t>
+  </si>
+  <si>
+    <t>조준연</t>
+  </si>
+  <si>
+    <t>h20241207@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>문소정</t>
+  </si>
+  <si>
+    <t>kjinju0518@naver.com</t>
+  </si>
+  <si>
+    <t>김진주</t>
+  </si>
+  <si>
+    <t>0616sdh@naver.com</t>
+  </si>
+  <si>
+    <t>신동현</t>
+  </si>
+  <si>
+    <t>a01051265769@gmail.com</t>
+  </si>
+  <si>
+    <t>안현영</t>
+  </si>
+  <si>
+    <t>bevery2685@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이</t>
+  </si>
+  <si>
+    <t>조영태</t>
+  </si>
+  <si>
+    <t>yoonbin0304@naver.com</t>
+  </si>
+  <si>
+    <t>최윤빈</t>
+  </si>
+  <si>
+    <t>rlaehdnr999@naver.com</t>
+  </si>
+  <si>
+    <t>김도욱</t>
+  </si>
+  <si>
+    <t>chorok052150@naver.com</t>
+  </si>
+  <si>
+    <t>김미니</t>
+  </si>
+  <si>
+    <t>06kongkongsoon@gmail.com</t>
+  </si>
+  <si>
+    <t>이서연</t>
+  </si>
+  <si>
+    <t>ddoyeong0509@gmail.com</t>
+  </si>
+  <si>
+    <t>윤소영</t>
+  </si>
+  <si>
+    <t>jhue0901@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비지니스학과</t>
+  </si>
+  <si>
+    <t>전하율</t>
+  </si>
+  <si>
+    <t>leenara633@gamil.com</t>
+  </si>
+  <si>
+    <t>이나라</t>
+  </si>
+  <si>
+    <t>sangim041113@gmail.com</t>
+  </si>
+  <si>
+    <t>용상임</t>
+  </si>
+  <si>
+    <t>byl0730@naver.com</t>
+  </si>
+  <si>
+    <t>변예림</t>
+  </si>
+  <si>
+    <t>aj7082331@gmail.com</t>
+  </si>
+  <si>
+    <t>조아나</t>
+  </si>
+  <si>
+    <t>sojunghanbomul@gmail.com</t>
+  </si>
+  <si>
+    <t>김상준</t>
+  </si>
+  <si>
+    <t>yssong1919@naver.com</t>
+  </si>
+  <si>
+    <t>송예상</t>
+  </si>
+  <si>
+    <t>cobas67@naver.com</t>
+  </si>
+  <si>
+    <t>스마트iot</t>
+  </si>
+  <si>
+    <t>박근혁</t>
+  </si>
+  <si>
+    <t>swncelt@naver.com</t>
+  </si>
+  <si>
+    <t>박은서</t>
+  </si>
+  <si>
+    <t>yumi0901gami@gmail.com</t>
+  </si>
+  <si>
+    <t>4080jjh@gmail.com</t>
+  </si>
+  <si>
+    <t>장재환</t>
+  </si>
+  <si>
+    <t>obbobb7@gmail.com</t>
+  </si>
+  <si>
+    <t>구재영</t>
+  </si>
+  <si>
+    <t>t01094887068@gmail.com</t>
+  </si>
+  <si>
+    <t>손민재</t>
   </si>
 </sst>
 </file>
@@ -2357,7 +2519,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD227">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD253">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -2595,11 +2757,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD227"/>
+  <dimension ref="A1:AD253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E239" sqref="E239"/>
+      <selection pane="bottomLeft" activeCell="E255" sqref="E255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23516,6 +23678,2398 @@
         <v>214</v>
       </c>
     </row>
+    <row r="228" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="4">
+        <v>45569.407633935189</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D228" s="5">
+        <v>20217035</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="F228" s="5">
+        <v>3</v>
+      </c>
+      <c r="G228" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H228" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I228" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J228" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K228" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L228" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M228" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N228" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O228" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P228" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q228" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R228" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S228" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T228" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U228" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V228" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W228" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X228" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y228" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z228" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA228" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB228" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC228" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD228" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="229" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="7">
+        <v>45569.409270902775</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D229" s="8">
+        <v>20246233</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="F229" s="8">
+        <v>3</v>
+      </c>
+      <c r="G229" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H229" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I229" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J229" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K229" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L229" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M229" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N229" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O229" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P229" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q229" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R229" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S229" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T229" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U229" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V229" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W229" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X229" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y229" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z229" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA229" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB229" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC229" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD229" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="230" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="4">
+        <v>45569.417845312499</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D230" s="5">
+        <v>20222359</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F230" s="5">
+        <v>3</v>
+      </c>
+      <c r="G230" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H230" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I230" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J230" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K230" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L230" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M230" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N230" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O230" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P230" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q230" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R230" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S230" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T230" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U230" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V230" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W230" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X230" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y230" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z230" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA230" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB230" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC230" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD230" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="231" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="7">
+        <v>45569.500130625005</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D231" s="8">
+        <v>20241207</v>
+      </c>
+      <c r="E231" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="F231" s="8">
+        <v>3</v>
+      </c>
+      <c r="G231" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H231" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I231" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J231" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K231" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L231" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M231" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N231" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O231" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P231" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q231" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R231" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S231" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T231" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U231" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V231" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W231" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X231" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y231" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z231" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA231" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB231" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC231" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD231" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="232" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="4">
+        <v>45569.505158877313</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D232" s="5">
+        <v>20232937</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="F232" s="5">
+        <v>3</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I232" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J232" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K232" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L232" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M232" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N232" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O232" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P232" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q232" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R232" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S232" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T232" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U232" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V232" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W232" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X232" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y232" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z232" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA232" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB232" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC232" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD232" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="233" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="7">
+        <v>45569.517907488422</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D233" s="8">
+        <v>20202730</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="F233" s="8">
+        <v>3</v>
+      </c>
+      <c r="G233" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H233" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I233" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J233" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K233" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L233" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M233" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N233" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O233" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P233" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q233" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R233" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S233" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T233" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U233" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V233" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W233" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X233" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y233" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z233" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA233" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB233" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC233" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD233" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="234" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="4">
+        <v>45569.607134664351</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D234" s="5">
+        <v>20243414</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="F234" s="5">
+        <v>3</v>
+      </c>
+      <c r="G234" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I234" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J234" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K234" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L234" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M234" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N234" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O234" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P234" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q234" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R234" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S234" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T234" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U234" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V234" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W234" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X234" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y234" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z234" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA234" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB234" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC234" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD234" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="235" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="7">
+        <v>45569.648270185186</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="D235" s="8">
+        <v>20243354</v>
+      </c>
+      <c r="E235" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="F235" s="8">
+        <v>3</v>
+      </c>
+      <c r="G235" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H235" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I235" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J235" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K235" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L235" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M235" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N235" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O235" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P235" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q235" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R235" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S235" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="T235" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U235" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V235" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W235" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X235" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y235" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z235" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA235" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB235" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC235" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD235" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="236" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="4">
+        <v>45569.658737060185</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D236" s="5">
+        <v>20242138</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="F236" s="5">
+        <v>3</v>
+      </c>
+      <c r="G236" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I236" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J236" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K236" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L236" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M236" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N236" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O236" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P236" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q236" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R236" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S236" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T236" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U236" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V236" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W236" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X236" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y236" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z236" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA236" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB236" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC236" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD236" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="237" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="7">
+        <v>45569.668222372682</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D237" s="8">
+        <v>20221007</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="F237" s="8">
+        <v>3</v>
+      </c>
+      <c r="G237" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H237" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I237" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J237" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K237" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L237" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M237" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N237" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O237" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P237" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q237" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R237" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S237" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T237" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U237" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V237" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W237" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X237" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y237" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z237" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA237" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB237" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC237" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD237" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="238" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="4">
+        <v>45569.671258113427</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D238" s="5">
+        <v>20242307</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="F238" s="5">
+        <v>3</v>
+      </c>
+      <c r="G238" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H238" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I238" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J238" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K238" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L238" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M238" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N238" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O238" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P238" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q238" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R238" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S238" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T238" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U238" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V238" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W238" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X238" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y238" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z238" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA238" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB238" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC238" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD238" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="239" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="7">
+        <v>45569.672888229165</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D239" s="8">
+        <v>20242732</v>
+      </c>
+      <c r="E239" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="F239" s="8">
+        <v>3</v>
+      </c>
+      <c r="G239" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H239" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I239" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J239" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K239" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L239" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M239" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N239" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O239" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P239" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q239" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R239" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S239" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T239" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U239" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V239" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W239" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X239" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y239" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z239" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA239" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB239" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC239" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD239" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="240" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="4">
+        <v>45569.681496562502</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D240" s="5">
+        <v>20242424</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="F240" s="5">
+        <v>3</v>
+      </c>
+      <c r="G240" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I240" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J240" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K240" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L240" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M240" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N240" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O240" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P240" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q240" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R240" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S240" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T240" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U240" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V240" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W240" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X240" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y240" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z240" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA240" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB240" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC240" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD240" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="241" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="7">
+        <v>45569.695448321756</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="D241" s="8">
+        <v>20246420</v>
+      </c>
+      <c r="E241" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="F241" s="8">
+        <v>3</v>
+      </c>
+      <c r="G241" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H241" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I241" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J241" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K241" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L241" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M241" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N241" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O241" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P241" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q241" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R241" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S241" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T241" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U241" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V241" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W241" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X241" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y241" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z241" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA241" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB241" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC241" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD241" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="242" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="4">
+        <v>45569.732902951393</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D242" s="5">
+        <v>20241065</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="F242" s="5">
+        <v>3</v>
+      </c>
+      <c r="G242" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H242" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I242" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="J242" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K242" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L242" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M242" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N242" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O242" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P242" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q242" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R242" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="S242" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T242" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U242" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="V242" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W242" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="X242" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y242" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z242" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA242" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB242" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC242" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD242" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="243" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="7">
+        <v>45569.74004827546</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D243" s="8">
+        <v>20235209</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="F243" s="8">
+        <v>3</v>
+      </c>
+      <c r="G243" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H243" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I243" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J243" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K243" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L243" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M243" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N243" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O243" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P243" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q243" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R243" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S243" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T243" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U243" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V243" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W243" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X243" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y243" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z243" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA243" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB243" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC243" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD243" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="244" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="4">
+        <v>45569.750188622682</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D244" s="5">
+        <v>20243715</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="F244" s="5">
+        <v>3</v>
+      </c>
+      <c r="G244" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H244" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I244" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J244" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K244" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L244" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M244" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N244" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O244" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P244" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q244" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R244" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S244" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T244" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U244" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V244" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W244" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="X244" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y244" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z244" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA244" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB244" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC244" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD244" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="245" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="7">
+        <v>45569.792857199078</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D245" s="8">
+        <v>20233849</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="F245" s="8">
+        <v>3</v>
+      </c>
+      <c r="G245" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H245" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I245" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J245" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K245" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L245" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M245" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N245" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O245" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P245" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q245" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R245" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S245" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T245" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U245" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V245" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W245" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X245" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y245" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z245" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA245" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB245" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC245" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD245" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="246" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="4">
+        <v>45569.817876273148</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D246" s="5">
+        <v>20241513</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="F246" s="5">
+        <v>3</v>
+      </c>
+      <c r="G246" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H246" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I246" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J246" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K246" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L246" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M246" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N246" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O246" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P246" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q246" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R246" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S246" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T246" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U246" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V246" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W246" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X246" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y246" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z246" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA246" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB246" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC246" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD246" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="247" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="7">
+        <v>45569.82459074074</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D247" s="8">
+        <v>20227078</v>
+      </c>
+      <c r="E247" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="F247" s="8">
+        <v>3</v>
+      </c>
+      <c r="G247" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H247" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I247" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J247" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K247" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L247" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M247" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N247" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O247" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P247" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q247" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R247" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S247" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T247" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U247" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V247" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W247" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X247" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y247" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z247" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA247" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB247" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC247" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD247" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="248" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="4">
+        <v>45569.828490659726</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="D248" s="5">
+        <v>20205165</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="F248" s="5">
+        <v>3</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I248" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J248" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K248" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L248" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M248" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N248" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O248" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P248" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q248" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R248" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S248" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T248" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U248" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V248" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W248" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X248" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y248" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z248" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA248" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB248" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC248" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD248" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="249" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="7">
+        <v>45569.839320231476</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D249" s="8">
+        <v>20192876</v>
+      </c>
+      <c r="E249" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="F249" s="8">
+        <v>3</v>
+      </c>
+      <c r="G249" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H249" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I249" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J249" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K249" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L249" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M249" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N249" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O249" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P249" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q249" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R249" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S249" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T249" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U249" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V249" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W249" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X249" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y249" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z249" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA249" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB249" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC249" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD249" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="250" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="4">
+        <v>45569.860826018514</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D250" s="5">
+        <v>20241515</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F250" s="5">
+        <v>3</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I250" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J250" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K250" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L250" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M250" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N250" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O250" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P250" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q250" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R250" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="S250" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T250" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U250" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V250" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W250" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="X250" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y250" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z250" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA250" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB250" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC250" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD250" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="251" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="7">
+        <v>45569.876496805555</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D251" s="8">
+        <v>20182436</v>
+      </c>
+      <c r="E251" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="F251" s="8">
+        <v>3</v>
+      </c>
+      <c r="G251" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H251" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I251" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J251" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K251" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L251" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M251" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N251" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O251" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P251" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q251" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R251" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S251" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T251" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U251" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V251" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W251" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X251" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y251" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z251" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA251" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB251" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC251" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD251" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="252" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="4">
+        <v>45569.893778634258</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D252" s="5">
+        <v>20193305</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F252" s="5">
+        <v>3</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H252" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I252" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J252" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K252" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L252" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M252" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N252" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O252" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P252" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q252" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R252" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S252" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T252" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U252" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V252" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W252" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X252" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y252" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z252" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA252" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB252" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC252" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD252" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="253" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="13">
+        <v>45569.901048414351</v>
+      </c>
+      <c r="B253" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="C253" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D253" s="14">
+        <v>20242122</v>
+      </c>
+      <c r="E253" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="F253" s="14">
+        <v>3</v>
+      </c>
+      <c r="G253" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H253" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I253" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J253" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K253" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L253" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M253" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N253" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O253" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P253" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q253" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R253" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="S253" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="T253" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U253" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V253" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="W253" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="X253" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y253" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z253" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA253" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB253" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC253" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD253" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC2A6E9-ED0F-244E-A46D-039A7155B195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B1DC13-6A44-2245-8572-701C5FE076BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6834" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7347" uniqueCount="735">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2105,6 +2105,126 @@
   </si>
   <si>
     <t>손민재</t>
+  </si>
+  <si>
+    <t>yongwoo7701@gmail.com</t>
+  </si>
+  <si>
+    <t>유용우</t>
+  </si>
+  <si>
+    <t>rivernine369@naver.com</t>
+  </si>
+  <si>
+    <t>강재구</t>
+  </si>
+  <si>
+    <t>limjh3027@naver.com</t>
+  </si>
+  <si>
+    <t>임종현</t>
+  </si>
+  <si>
+    <t>nurasun050718@naver.com</t>
+  </si>
+  <si>
+    <t>이주연</t>
+  </si>
+  <si>
+    <t>kwakmin427@gmail.com</t>
+  </si>
+  <si>
+    <t>곽민규</t>
+  </si>
+  <si>
+    <t>kcwel1109@gmail.com</t>
+  </si>
+  <si>
+    <t>고미연</t>
+  </si>
+  <si>
+    <t>taewon16@naver.com</t>
+  </si>
+  <si>
+    <t>류태원</t>
+  </si>
+  <si>
+    <t>y5het3e@naver.com</t>
+  </si>
+  <si>
+    <t>박재근</t>
+  </si>
+  <si>
+    <t>a01053076907@gmail.com</t>
+  </si>
+  <si>
+    <t>원은성</t>
+  </si>
+  <si>
+    <t>lg01022928122@gmail.com</t>
+  </si>
+  <si>
+    <t>권주용</t>
+  </si>
+  <si>
+    <t>a35142191@gmail.com</t>
+  </si>
+  <si>
+    <t>이윤재</t>
+  </si>
+  <si>
+    <t>tngusvhs@gmail.com</t>
+  </si>
+  <si>
+    <t>이수현</t>
+  </si>
+  <si>
+    <t>wonda322@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌학부</t>
+  </si>
+  <si>
+    <t>원다연</t>
+  </si>
+  <si>
+    <t>ysh050116@naver.com</t>
+  </si>
+  <si>
+    <t>윤시한</t>
+  </si>
+  <si>
+    <t>shinsohee@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어컨텐츠학과</t>
+  </si>
+  <si>
+    <t>신소희</t>
+  </si>
+  <si>
+    <t>cheun0423@gmail.com</t>
+  </si>
+  <si>
+    <t>이채은</t>
+  </si>
+  <si>
+    <t>ms071207@naver.com</t>
+  </si>
+  <si>
+    <t>sdw20050421@gmail.com</t>
+  </si>
+  <si>
+    <t>송도원</t>
+  </si>
+  <si>
+    <t>mt1661@naver.com</t>
+  </si>
+  <si>
+    <t>콘탠츠IT</t>
+  </si>
+  <si>
+    <t>정성민</t>
   </si>
 </sst>
 </file>
@@ -2519,7 +2639,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD253">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD272">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -2757,11 +2877,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD253"/>
+  <dimension ref="A1:AD272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E255" sqref="E255"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C280" sqref="C280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26070,6 +26190,1754 @@
         <v>56</v>
       </c>
     </row>
+    <row r="254" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="4">
+        <v>45569.911001157408</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D254" s="5">
+        <v>20244130</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="F254" s="5">
+        <v>3</v>
+      </c>
+      <c r="G254" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I254" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J254" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K254" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L254" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M254" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N254" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O254" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P254" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q254" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R254" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S254" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T254" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U254" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V254" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W254" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X254" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y254" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z254" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA254" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB254" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC254" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD254" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="255" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="7">
+        <v>45569.920861041668</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D255" s="8">
+        <v>20212801</v>
+      </c>
+      <c r="E255" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="F255" s="8">
+        <v>3</v>
+      </c>
+      <c r="G255" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H255" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I255" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J255" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K255" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L255" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M255" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N255" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O255" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P255" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q255" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R255" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S255" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T255" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U255" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V255" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W255" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X255" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y255" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z255" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA255" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB255" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC255" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD255" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="256" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="4">
+        <v>45569.922360474535</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D256" s="5">
+        <v>20242430</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F256" s="5">
+        <v>3</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H256" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I256" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J256" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K256" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L256" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M256" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N256" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O256" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P256" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q256" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="R256" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="S256" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T256" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U256" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V256" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W256" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="X256" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y256" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z256" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA256" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB256" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC256" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD256" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="257" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="7">
+        <v>45569.943021087965</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D257" s="8">
+        <v>20243636</v>
+      </c>
+      <c r="E257" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="F257" s="8">
+        <v>3</v>
+      </c>
+      <c r="G257" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H257" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I257" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J257" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K257" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L257" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M257" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N257" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O257" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P257" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q257" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R257" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S257" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T257" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U257" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V257" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W257" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X257" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y257" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z257" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA257" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB257" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC257" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD257" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="258" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="4">
+        <v>45569.96052523148</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D258" s="5">
+        <v>20243605</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="F258" s="5">
+        <v>3</v>
+      </c>
+      <c r="G258" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H258" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I258" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J258" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K258" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L258" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M258" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N258" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O258" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P258" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q258" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R258" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S258" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T258" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U258" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="V258" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W258" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="X258" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y258" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z258" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA258" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB258" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC258" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD258" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="259" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="7">
+        <v>45569.962306932866</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D259" s="8">
+        <v>20246204</v>
+      </c>
+      <c r="E259" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="F259" s="8">
+        <v>3</v>
+      </c>
+      <c r="G259" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H259" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I259" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J259" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K259" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L259" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M259" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N259" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O259" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P259" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q259" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R259" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S259" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T259" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U259" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V259" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W259" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X259" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y259" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z259" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA259" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB259" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC259" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD259" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="260" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="4">
+        <v>45569.962533356476</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D260" s="5">
+        <v>20195158</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F260" s="5">
+        <v>3</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I260" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J260" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K260" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L260" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M260" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N260" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O260" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P260" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q260" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R260" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S260" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T260" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U260" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V260" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W260" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X260" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y260" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z260" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA260" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB260" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC260" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD260" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="261" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="7">
+        <v>45569.971057222225</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D261" s="8">
+        <v>20215158</v>
+      </c>
+      <c r="E261" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="F261" s="8">
+        <v>3</v>
+      </c>
+      <c r="G261" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H261" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I261" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J261" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K261" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L261" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M261" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N261" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O261" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P261" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q261" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R261" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S261" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T261" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U261" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V261" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W261" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X261" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y261" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z261" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA261" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB261" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC261" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD261" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="262" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="4">
+        <v>45569.984572349538</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D262" s="5">
+        <v>20246927</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="F262" s="5">
+        <v>3</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I262" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J262" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K262" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L262" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M262" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N262" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O262" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P262" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q262" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R262" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S262" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T262" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U262" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V262" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W262" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X262" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y262" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z262" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA262" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB262" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC262" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD262" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="263" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="7">
+        <v>45569.991886909724</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D263" s="8">
+        <v>20215109</v>
+      </c>
+      <c r="E263" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="F263" s="8">
+        <v>3</v>
+      </c>
+      <c r="G263" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H263" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I263" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J263" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K263" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L263" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M263" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N263" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O263" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P263" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q263" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R263" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S263" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T263" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U263" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V263" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W263" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X263" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y263" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z263" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA263" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB263" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC263" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD263" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="264" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="4">
+        <v>45570.039893113426</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D264" s="5">
+        <v>20243241</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="F264" s="5">
+        <v>3</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H264" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I264" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J264" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K264" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L264" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M264" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N264" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O264" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P264" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q264" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R264" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S264" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T264" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U264" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V264" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W264" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X264" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y264" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z264" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA264" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB264" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC264" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD264" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="265" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="7">
+        <v>45570.04225569444</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D265" s="8">
+        <v>20243529</v>
+      </c>
+      <c r="E265" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="F265" s="8">
+        <v>3</v>
+      </c>
+      <c r="G265" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H265" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I265" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J265" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K265" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L265" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M265" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N265" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O265" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P265" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q265" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R265" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S265" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T265" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U265" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V265" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W265" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X265" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y265" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z265" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA265" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB265" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC265" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD265" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="266" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="4">
+        <v>45570.049677106479</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="D266" s="5">
+        <v>20246414</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="F266" s="5">
+        <v>3</v>
+      </c>
+      <c r="G266" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H266" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I266" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J266" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K266" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L266" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M266" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N266" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O266" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P266" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q266" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R266" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S266" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T266" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U266" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V266" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W266" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X266" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y266" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z266" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA266" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB266" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC266" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD266" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="267" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="7">
+        <v>45570.07502275463</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D267" s="8">
+        <v>20246752</v>
+      </c>
+      <c r="E267" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="F267" s="8">
+        <v>3</v>
+      </c>
+      <c r="G267" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H267" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I267" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J267" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K267" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L267" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M267" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N267" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O267" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="P267" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q267" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R267" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S267" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="T267" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U267" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V267" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W267" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X267" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y267" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z267" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA267" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB267" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC267" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD267" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="268" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="4">
+        <v>45570.093391898146</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="D268" s="5">
+        <v>20235198</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F268" s="5">
+        <v>3</v>
+      </c>
+      <c r="G268" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H268" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I268" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J268" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K268" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L268" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M268" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N268" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O268" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P268" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q268" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R268" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S268" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T268" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U268" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V268" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W268" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X268" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y268" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z268" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA268" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB268" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC268" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD268" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="269" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="7">
+        <v>45570.105374317129</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D269" s="8">
+        <v>20217152</v>
+      </c>
+      <c r="E269" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="F269" s="8">
+        <v>3</v>
+      </c>
+      <c r="G269" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H269" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I269" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J269" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K269" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L269" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M269" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N269" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O269" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P269" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q269" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R269" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S269" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T269" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U269" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V269" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W269" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X269" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y269" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z269" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA269" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB269" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC269" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD269" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="270" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="16">
+        <v>45570.1759652662</v>
+      </c>
+      <c r="B270" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="C270" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D270" s="17">
+        <v>20193644</v>
+      </c>
+      <c r="E270" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="F270" s="17">
+        <v>3</v>
+      </c>
+      <c r="G270" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H270" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I270" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J270" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K270" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L270" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M270" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N270" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O270" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P270" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q270" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R270" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S270" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T270" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="U270" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V270" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="W270" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="X270" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y270" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z270" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA270" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB270" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC270" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD270" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="271" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="7">
+        <v>45570.383973530093</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D271" s="8">
+        <v>20242418</v>
+      </c>
+      <c r="E271" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="F271" s="8">
+        <v>3</v>
+      </c>
+      <c r="G271" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H271" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I271" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J271" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K271" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L271" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M271" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N271" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O271" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P271" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q271" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R271" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S271" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T271" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U271" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V271" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W271" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X271" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y271" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z271" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA271" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB271" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC271" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD271" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="272" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="16">
+        <v>45570.444734363424</v>
+      </c>
+      <c r="B272" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="C272" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="D272" s="17">
+        <v>20215239</v>
+      </c>
+      <c r="E272" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="F272" s="17">
+        <v>3</v>
+      </c>
+      <c r="G272" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H272" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I272" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J272" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K272" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L272" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M272" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N272" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O272" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P272" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q272" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R272" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S272" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="T272" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U272" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="V272" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="W272" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="X272" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y272" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z272" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA272" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB272" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC272" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD272" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B1DC13-6A44-2245-8572-701C5FE076BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD443E1-D5FB-F34E-9FF9-822F20E30E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7347" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8103" uniqueCount="794">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2225,6 +2225,183 @@
   </si>
   <si>
     <t>정성민</t>
+  </si>
+  <si>
+    <t>stacy4036@naver.com</t>
+  </si>
+  <si>
+    <t>최하은</t>
+  </si>
+  <si>
+    <t>tjtkdwns0909@naver.com</t>
+  </si>
+  <si>
+    <t>서상준</t>
+  </si>
+  <si>
+    <t>thwls5541@gmail.com</t>
+  </si>
+  <si>
+    <t>김소원</t>
+  </si>
+  <si>
+    <t>kyj57980@gmail.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>dohan5453@gmail.com</t>
+  </si>
+  <si>
+    <t>김도한</t>
+  </si>
+  <si>
+    <t>ryul1128@naver.com</t>
+  </si>
+  <si>
+    <t>김률아</t>
+  </si>
+  <si>
+    <t>ahrang1225@gmail.com</t>
+  </si>
+  <si>
+    <t>탁아랑</t>
+  </si>
+  <si>
+    <t>oys55736@gmail.com</t>
+  </si>
+  <si>
+    <t>오윤서</t>
+  </si>
+  <si>
+    <t>123plokml123@gmail.com</t>
+  </si>
+  <si>
+    <t>지현배</t>
+  </si>
+  <si>
+    <t>leeyubin050328@naver.com</t>
+  </si>
+  <si>
+    <t>jin050828@gmail.com</t>
+  </si>
+  <si>
+    <t>김진영</t>
+  </si>
+  <si>
+    <t>kbi70722@gmail.com</t>
+  </si>
+  <si>
+    <t>김병일</t>
+  </si>
+  <si>
+    <t>quddus6378@gmail.com</t>
+  </si>
+  <si>
+    <t>현병연</t>
+  </si>
+  <si>
+    <t>1. 권찬기 씨와 김서경 씨가 결혼한다.</t>
+  </si>
+  <si>
+    <t>wlsqhwlsqh21@naver.com</t>
+  </si>
+  <si>
+    <t>경영학부</t>
+  </si>
+  <si>
+    <t>심진보</t>
+  </si>
+  <si>
+    <t>0524psu@gmail.com</t>
+  </si>
+  <si>
+    <t>박상언</t>
+  </si>
+  <si>
+    <t>ella2005710@gmail.com</t>
+  </si>
+  <si>
+    <t>김송이</t>
+  </si>
+  <si>
+    <t>dbfrhr02@naver.com</t>
+  </si>
+  <si>
+    <t>심건휘</t>
+  </si>
+  <si>
+    <t>1kdcf@naver.com</t>
+  </si>
+  <si>
+    <t>송준영</t>
+  </si>
+  <si>
+    <t>hm703711@gmail.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어학과</t>
+  </si>
+  <si>
+    <t>박현민</t>
+  </si>
+  <si>
+    <t>gangjunu@naver.com</t>
+  </si>
+  <si>
+    <t>강준우</t>
+  </si>
+  <si>
+    <t>xodet0817@naver.com</t>
+  </si>
+  <si>
+    <t>문종윤</t>
+  </si>
+  <si>
+    <t>benjamin27@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어학부</t>
+  </si>
+  <si>
+    <t>최재혁</t>
+  </si>
+  <si>
+    <t>towp7563@gmail.com</t>
+  </si>
+  <si>
+    <t>오승현</t>
+  </si>
+  <si>
+    <t>seoeunchan5@gmail.com</t>
+  </si>
+  <si>
+    <t>서은찬</t>
+  </si>
+  <si>
+    <t>eojeongmin146@gmail.com</t>
+  </si>
+  <si>
+    <t>어정민</t>
+  </si>
+  <si>
+    <t>rer220@naver.com</t>
+  </si>
+  <si>
+    <t>김대명</t>
+  </si>
+  <si>
+    <t>jyb051128@gmail.com</t>
+  </si>
+  <si>
+    <t>전유빈</t>
+  </si>
+  <si>
+    <t>gmlfkr6241@naver.com</t>
+  </si>
+  <si>
+    <t>한희락</t>
   </si>
 </sst>
 </file>
@@ -2639,7 +2816,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD272">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD300">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -2877,11 +3054,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD272"/>
+  <dimension ref="A1:AD300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C280" sqref="C280"/>
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D321" sqref="D321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27938,6 +28115,2582 @@
         <v>56</v>
       </c>
     </row>
+    <row r="273" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="7">
+        <v>45570.492994918983</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D273" s="8">
+        <v>20227034</v>
+      </c>
+      <c r="E273" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="F273" s="8">
+        <v>3</v>
+      </c>
+      <c r="G273" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H273" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I273" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J273" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K273" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L273" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M273" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N273" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O273" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P273" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q273" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="R273" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S273" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="T273" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U273" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V273" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="W273" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X273" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y273" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z273" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA273" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB273" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC273" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD273" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="274" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="4">
+        <v>45570.497735879631</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D274" s="5">
+        <v>20244123</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="F274" s="5">
+        <v>3</v>
+      </c>
+      <c r="G274" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H274" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I274" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J274" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K274" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L274" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M274" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N274" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O274" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P274" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q274" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R274" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S274" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T274" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U274" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V274" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W274" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X274" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y274" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z274" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA274" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB274" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC274" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD274" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="275" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A275" s="7">
+        <v>45570.516114062499</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D275" s="8">
+        <v>20207065</v>
+      </c>
+      <c r="E275" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="F275" s="8">
+        <v>3</v>
+      </c>
+      <c r="G275" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H275" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I275" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J275" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K275" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L275" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M275" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N275" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O275" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P275" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q275" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R275" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S275" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T275" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U275" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V275" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="W275" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X275" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y275" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z275" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA275" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB275" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC275" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD275" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="276" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A276" s="4">
+        <v>45570.54779759259</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D276" s="5">
+        <v>20202319</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F276" s="5">
+        <v>3</v>
+      </c>
+      <c r="G276" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H276" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I276" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J276" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K276" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L276" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M276" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N276" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O276" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P276" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q276" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R276" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S276" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T276" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U276" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V276" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W276" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X276" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y276" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z276" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA276" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB276" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC276" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD276" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="277" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A277" s="7">
+        <v>45570.564522581015</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D277" s="8">
+        <v>20225117</v>
+      </c>
+      <c r="E277" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="F277" s="8">
+        <v>3</v>
+      </c>
+      <c r="G277" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H277" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I277" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J277" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K277" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L277" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M277" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N277" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O277" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="P277" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q277" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="R277" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="S277" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T277" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U277" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V277" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W277" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X277" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y277" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z277" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA277" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB277" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC277" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD277" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="278" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="4">
+        <v>45570.565115104167</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D278" s="5">
+        <v>20243806</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="F278" s="5">
+        <v>3</v>
+      </c>
+      <c r="G278" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H278" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I278" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J278" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K278" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L278" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M278" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N278" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O278" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P278" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q278" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R278" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S278" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T278" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U278" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V278" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W278" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X278" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y278" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z278" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA278" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB278" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC278" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD278" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="279" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A279" s="7">
+        <v>45570.567347534721</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D279" s="8">
+        <v>20242240</v>
+      </c>
+      <c r="E279" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="F279" s="8">
+        <v>3</v>
+      </c>
+      <c r="G279" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H279" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I279" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J279" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K279" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L279" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M279" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N279" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O279" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="P279" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q279" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R279" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S279" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T279" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U279" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V279" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W279" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X279" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y279" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z279" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA279" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB279" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC279" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD279" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="280" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A280" s="4">
+        <v>45570.569745601853</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D280" s="5">
+        <v>20242332</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="F280" s="5">
+        <v>3</v>
+      </c>
+      <c r="G280" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H280" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I280" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J280" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K280" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L280" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M280" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N280" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O280" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P280" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q280" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R280" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S280" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T280" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U280" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V280" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W280" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X280" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y280" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z280" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA280" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB280" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC280" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD280" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="281" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="7">
+        <v>45570.580681157408</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D281" s="8">
+        <v>20245266</v>
+      </c>
+      <c r="E281" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="F281" s="8">
+        <v>1</v>
+      </c>
+      <c r="G281" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H281" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I281" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J281" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K281" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L281" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="M281" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N281" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O281" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="P281" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q281" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="R281" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S281" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T281" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U281" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V281" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W281" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="X281" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y281" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z281" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA281" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB281" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC281" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD281" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="282" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A282" s="4">
+        <v>45570.589595590282</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D282" s="5">
+        <v>20243008</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F282" s="5">
+        <v>3</v>
+      </c>
+      <c r="G282" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H282" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I282" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J282" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K282" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L282" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M282" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N282" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O282" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P282" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q282" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R282" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S282" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T282" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U282" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V282" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W282" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X282" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y282" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z282" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA282" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB282" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC282" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD282" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="283" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A283" s="7">
+        <v>45570.61784600695</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D283" s="8">
+        <v>20246715</v>
+      </c>
+      <c r="E283" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="F283" s="8">
+        <v>3</v>
+      </c>
+      <c r="G283" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H283" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I283" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J283" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K283" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L283" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M283" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N283" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O283" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P283" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q283" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R283" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S283" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T283" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U283" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V283" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W283" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X283" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y283" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z283" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA283" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB283" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC283" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD283" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="284" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A284" s="4">
+        <v>45570.639197731478</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D284" s="5">
+        <v>20191604</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="F284" s="5">
+        <v>3</v>
+      </c>
+      <c r="G284" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H284" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I284" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J284" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K284" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L284" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M284" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N284" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O284" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P284" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q284" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R284" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S284" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T284" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U284" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V284" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W284" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X284" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y284" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z284" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA284" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB284" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC284" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD284" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="285" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A285" s="7">
+        <v>45570.639488981484</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D285" s="8">
+        <v>20227106</v>
+      </c>
+      <c r="E285" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="F285" s="8">
+        <v>3</v>
+      </c>
+      <c r="G285" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H285" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I285" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="J285" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K285" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L285" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="M285" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N285" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O285" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P285" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q285" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R285" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S285" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="T285" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U285" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="V285" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W285" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X285" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y285" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z285" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA285" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB285" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC285" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD285" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="286" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="4">
+        <v>45570.654147118054</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="D286" s="5">
+        <v>20242982</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="F286" s="5">
+        <v>3</v>
+      </c>
+      <c r="G286" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H286" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I286" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J286" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K286" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L286" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M286" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N286" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O286" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P286" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q286" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R286" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S286" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T286" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U286" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V286" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W286" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X286" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y286" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z286" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA286" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB286" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC286" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD286" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="287" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A287" s="7">
+        <v>45570.66921472222</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D287" s="8">
+        <v>20243713</v>
+      </c>
+      <c r="E287" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="F287" s="8">
+        <v>3</v>
+      </c>
+      <c r="G287" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H287" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I287" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J287" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K287" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L287" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M287" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N287" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O287" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P287" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q287" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R287" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S287" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T287" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U287" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V287" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W287" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X287" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y287" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z287" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA287" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB287" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC287" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD287" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="288" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="4">
+        <v>45570.674444537042</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D288" s="5">
+        <v>20246222</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="F288" s="5">
+        <v>3</v>
+      </c>
+      <c r="G288" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H288" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I288" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J288" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K288" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L288" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M288" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N288" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O288" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P288" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q288" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R288" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S288" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T288" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U288" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V288" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W288" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X288" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y288" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z288" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA288" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB288" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC288" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD288" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="289" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="7">
+        <v>45570.675514409726</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D289" s="8">
+        <v>20212971</v>
+      </c>
+      <c r="E289" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="F289" s="8">
+        <v>3</v>
+      </c>
+      <c r="G289" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H289" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I289" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J289" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K289" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L289" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M289" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N289" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O289" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P289" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q289" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R289" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S289" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T289" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U289" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V289" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W289" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X289" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y289" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z289" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA289" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB289" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC289" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD289" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="290" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="4">
+        <v>45570.685494363424</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D290" s="5">
+        <v>20192901</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F290" s="5">
+        <v>3</v>
+      </c>
+      <c r="G290" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H290" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I290" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J290" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K290" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L290" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M290" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N290" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O290" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P290" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q290" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R290" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S290" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T290" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U290" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V290" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W290" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X290" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y290" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z290" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA290" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB290" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC290" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD290" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="291" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="7">
+        <v>45570.695558449079</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="D291" s="8">
+        <v>20202415</v>
+      </c>
+      <c r="E291" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="F291" s="8">
+        <v>3</v>
+      </c>
+      <c r="G291" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H291" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I291" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J291" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K291" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L291" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M291" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N291" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O291" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P291" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q291" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R291" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S291" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T291" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U291" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V291" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W291" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X291" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y291" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z291" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA291" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB291" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC291" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD291" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="292" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="4">
+        <v>45570.696724583337</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D292" s="5">
+        <v>20242901</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="F292" s="5">
+        <v>3</v>
+      </c>
+      <c r="G292" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H292" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I292" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J292" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K292" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L292" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M292" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N292" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O292" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P292" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q292" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R292" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S292" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T292" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U292" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V292" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W292" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X292" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y292" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z292" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA292" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB292" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC292" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD292" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="293" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="7">
+        <v>45570.700904375</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D293" s="8">
+        <v>20203616</v>
+      </c>
+      <c r="E293" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="F293" s="8">
+        <v>3</v>
+      </c>
+      <c r="G293" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H293" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I293" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J293" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K293" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L293" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M293" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N293" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O293" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P293" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q293" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R293" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S293" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T293" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U293" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V293" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W293" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X293" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y293" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z293" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA293" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB293" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC293" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD293" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="294" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="4">
+        <v>45570.704123645832</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="D294" s="5">
+        <v>20212583</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="F294" s="5">
+        <v>3</v>
+      </c>
+      <c r="G294" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H294" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I294" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J294" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K294" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L294" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M294" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N294" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O294" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P294" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q294" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R294" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S294" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T294" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U294" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V294" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W294" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X294" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y294" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z294" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA294" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB294" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC294" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD294" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="295" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="7">
+        <v>45570.704930219908</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="C295" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D295" s="8">
+        <v>20243826</v>
+      </c>
+      <c r="E295" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="F295" s="8">
+        <v>3</v>
+      </c>
+      <c r="G295" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H295" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I295" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J295" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K295" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L295" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M295" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N295" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O295" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P295" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q295" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R295" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S295" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T295" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U295" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V295" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="W295" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X295" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y295" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z295" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA295" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB295" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC295" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD295" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="296" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="4">
+        <v>45570.710447384263</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D296" s="5">
+        <v>20245183</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="F296" s="5">
+        <v>3</v>
+      </c>
+      <c r="G296" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H296" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I296" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J296" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K296" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L296" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M296" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N296" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O296" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P296" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q296" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R296" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S296" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T296" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U296" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V296" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W296" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X296" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y296" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z296" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA296" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB296" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC296" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD296" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="297" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="7">
+        <v>45570.719198761573</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D297" s="8">
+        <v>20242725</v>
+      </c>
+      <c r="E297" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="F297" s="8">
+        <v>3</v>
+      </c>
+      <c r="G297" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H297" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I297" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J297" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K297" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L297" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M297" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N297" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O297" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P297" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q297" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R297" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S297" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T297" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U297" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V297" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W297" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X297" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y297" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z297" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA297" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB297" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC297" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD297" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="298" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A298" s="4">
+        <v>45570.720825682874</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D298" s="5">
+        <v>20205124</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="F298" s="5">
+        <v>3</v>
+      </c>
+      <c r="G298" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H298" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I298" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J298" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K298" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L298" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M298" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N298" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O298" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P298" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q298" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R298" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S298" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T298" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U298" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V298" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W298" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X298" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y298" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z298" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA298" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB298" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC298" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD298" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="299" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="7">
+        <v>45570.724715532408</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D299" s="8">
+        <v>20243646</v>
+      </c>
+      <c r="E299" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="F299" s="8">
+        <v>3</v>
+      </c>
+      <c r="G299" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H299" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I299" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J299" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K299" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L299" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M299" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N299" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O299" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P299" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q299" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R299" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S299" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T299" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U299" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="V299" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W299" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X299" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y299" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z299" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA299" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB299" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC299" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD299" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="300" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="16">
+        <v>45570.734741168984</v>
+      </c>
+      <c r="B300" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="C300" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D300" s="17">
+        <v>20246303</v>
+      </c>
+      <c r="E300" s="17" t="s">
+        <v>793</v>
+      </c>
+      <c r="F300" s="17">
+        <v>3</v>
+      </c>
+      <c r="G300" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="H300" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I300" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J300" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K300" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L300" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M300" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N300" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O300" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P300" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q300" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R300" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S300" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T300" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U300" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V300" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="W300" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="X300" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y300" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z300" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA300" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB300" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC300" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD300" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD443E1-D5FB-F34E-9FF9-822F20E30E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AD7725-A9D2-D64E-90F6-748C6282BC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8103" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9183" uniqueCount="874">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2402,6 +2402,246 @@
   </si>
   <si>
     <t>한희락</t>
+  </si>
+  <si>
+    <t>wweufc0913123456@gmail.com</t>
+  </si>
+  <si>
+    <t>지강민</t>
+  </si>
+  <si>
+    <t>kentoku0901@naver.com</t>
+  </si>
+  <si>
+    <t>김헌덕</t>
+  </si>
+  <si>
+    <t>andy9925@naver.com</t>
+  </si>
+  <si>
+    <t>김무극</t>
+  </si>
+  <si>
+    <t>junwoni20@gmail.com</t>
+  </si>
+  <si>
+    <t>이준원</t>
+  </si>
+  <si>
+    <t>to_csm@naver.com</t>
+  </si>
+  <si>
+    <t>천상미</t>
+  </si>
+  <si>
+    <t>tigerhaha1@naver.com</t>
+  </si>
+  <si>
+    <t>김민호</t>
+  </si>
+  <si>
+    <t>obokboki@naver.com</t>
+  </si>
+  <si>
+    <t>최서윤</t>
+  </si>
+  <si>
+    <t>ssjm9652@naver.com</t>
+  </si>
+  <si>
+    <t>소정민</t>
+  </si>
+  <si>
+    <t>iaan0104@naver.com</t>
+  </si>
+  <si>
+    <t>조이안</t>
+  </si>
+  <si>
+    <t>smarthulk0318@naver.com</t>
+  </si>
+  <si>
+    <t>조성민</t>
+  </si>
+  <si>
+    <t>ystop061012@naver.com</t>
+  </si>
+  <si>
+    <t>손연수</t>
+  </si>
+  <si>
+    <t>johyeram@gmail.com</t>
+  </si>
+  <si>
+    <t>조혜람</t>
+  </si>
+  <si>
+    <t>knh6654@gmail.com</t>
+  </si>
+  <si>
+    <t>김나현</t>
+  </si>
+  <si>
+    <t>Psj050317@naver.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>pdh9467472@gmail.com</t>
+  </si>
+  <si>
+    <t>박두환</t>
+  </si>
+  <si>
+    <t>raon2812@naver.com</t>
+  </si>
+  <si>
+    <t>최라온</t>
+  </si>
+  <si>
+    <t>inheo0428@gmail.com</t>
+  </si>
+  <si>
+    <t>허인</t>
+  </si>
+  <si>
+    <t>cmin0945@gmail.com</t>
+  </si>
+  <si>
+    <t>조상민</t>
+  </si>
+  <si>
+    <t>whovian2@naver.com</t>
+  </si>
+  <si>
+    <t>이새한</t>
+  </si>
+  <si>
+    <t>awinni@naver.com</t>
+  </si>
+  <si>
+    <t>우현진</t>
+  </si>
+  <si>
+    <t>mi88368836@gmail.com</t>
+  </si>
+  <si>
+    <t>신민서</t>
+  </si>
+  <si>
+    <t>kayla1071702@gmail.com</t>
+  </si>
+  <si>
+    <t>임혜빈</t>
+  </si>
+  <si>
+    <t>hhr0408@naver.com</t>
+  </si>
+  <si>
+    <t>한혜령</t>
+  </si>
+  <si>
+    <t>ab47cd32@gmail.com</t>
+  </si>
+  <si>
+    <t>우로겸</t>
+  </si>
+  <si>
+    <t>20242925@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김민우</t>
+  </si>
+  <si>
+    <t>ann12ann1209@gmail.com</t>
+  </si>
+  <si>
+    <t>김혜원</t>
+  </si>
+  <si>
+    <t>nyo07@naver.com</t>
+  </si>
+  <si>
+    <t>윤효라</t>
+  </si>
+  <si>
+    <t>youngold057@gmail.com</t>
+  </si>
+  <si>
+    <t>윤태영</t>
+  </si>
+  <si>
+    <t>corki1234@naver.com</t>
+  </si>
+  <si>
+    <t>윤서웅</t>
+  </si>
+  <si>
+    <t>ujeong1030@gmail.com</t>
+  </si>
+  <si>
+    <t>최유정</t>
+  </si>
+  <si>
+    <t>jyoon2233@naver.com</t>
+  </si>
+  <si>
+    <t>신정윤</t>
+  </si>
+  <si>
+    <t>chltjdnjs2421@naver.com</t>
+  </si>
+  <si>
+    <t>최서원</t>
+  </si>
+  <si>
+    <t>kter0506@naver.com</t>
+  </si>
+  <si>
+    <t>김태은</t>
+  </si>
+  <si>
+    <t>gchans0524@gmail.com</t>
+  </si>
+  <si>
+    <t>한기찬</t>
+  </si>
+  <si>
+    <t>alwnd816@gmail.com</t>
+  </si>
+  <si>
+    <t>한재은</t>
+  </si>
+  <si>
+    <t>ac3512@naver.com</t>
+  </si>
+  <si>
+    <t>김태근</t>
+  </si>
+  <si>
+    <t>tommy21940@gmail.com</t>
+  </si>
+  <si>
+    <t>양민혁</t>
+  </si>
+  <si>
+    <t>zxcod10@gmail.com</t>
+  </si>
+  <si>
+    <t>최원용</t>
+  </si>
+  <si>
+    <t>tjdehs4809@naver.com</t>
+  </si>
+  <si>
+    <t>최성돈</t>
+  </si>
+  <si>
+    <t>youmin43@naver.com</t>
+  </si>
+  <si>
+    <t>박유민</t>
   </si>
 </sst>
 </file>
@@ -2816,7 +3056,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD300">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD340">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -3054,11 +3294,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD300"/>
+  <dimension ref="A1:AD340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D321" sqref="D321"/>
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F353" sqref="F353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -30691,6 +30931,3686 @@
         <v>56</v>
       </c>
     </row>
+    <row r="301" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="7">
+        <v>45570.77539988426</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D301" s="8">
+        <v>20231539</v>
+      </c>
+      <c r="E301" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="F301" s="8">
+        <v>3</v>
+      </c>
+      <c r="G301" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H301" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I301" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J301" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K301" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L301" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M301" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N301" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O301" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="P301" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q301" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="R301" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S301" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="T301" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U301" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V301" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W301" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="X301" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y301" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z301" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA301" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB301" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC301" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD301" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="302" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="4">
+        <v>45570.791212349533</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D302" s="5">
+        <v>20242314</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="F302" s="5">
+        <v>3</v>
+      </c>
+      <c r="G302" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H302" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I302" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J302" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K302" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L302" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M302" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N302" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O302" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P302" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q302" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R302" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S302" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T302" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U302" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V302" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W302" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X302" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y302" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z302" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA302" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB302" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC302" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD302" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="303" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="7">
+        <v>45570.803095439813</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D303" s="8">
+        <v>20234110</v>
+      </c>
+      <c r="E303" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="F303" s="8">
+        <v>3</v>
+      </c>
+      <c r="G303" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H303" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I303" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J303" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K303" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L303" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M303" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N303" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O303" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P303" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q303" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R303" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S303" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T303" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U303" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V303" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W303" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X303" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y303" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z303" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA303" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB303" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC303" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD303" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="304" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="4">
+        <v>45570.811618541666</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D304" s="5">
+        <v>20211630</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="F304" s="5">
+        <v>3</v>
+      </c>
+      <c r="G304" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H304" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I304" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J304" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K304" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L304" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M304" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N304" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O304" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P304" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q304" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R304" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S304" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T304" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U304" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V304" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W304" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X304" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y304" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z304" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA304" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB304" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC304" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD304" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="305" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A305" s="7">
+        <v>45570.821239467594</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D305" s="8">
+        <v>20242844</v>
+      </c>
+      <c r="E305" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="F305" s="8">
+        <v>3</v>
+      </c>
+      <c r="G305" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H305" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I305" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J305" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K305" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L305" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M305" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N305" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O305" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P305" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q305" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="R305" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S305" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T305" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U305" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V305" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W305" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X305" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y305" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z305" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA305" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB305" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC305" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD305" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="306" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A306" s="4">
+        <v>45570.846249583337</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D306" s="5">
+        <v>20216716</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="F306" s="5">
+        <v>3</v>
+      </c>
+      <c r="G306" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H306" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I306" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J306" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K306" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L306" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M306" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N306" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O306" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P306" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q306" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R306" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S306" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T306" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U306" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V306" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W306" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X306" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y306" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z306" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA306" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB306" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC306" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD306" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="307" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A307" s="7">
+        <v>45570.846548298607</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="C307" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D307" s="8">
+        <v>20241236</v>
+      </c>
+      <c r="E307" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="F307" s="8">
+        <v>2</v>
+      </c>
+      <c r="G307" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H307" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I307" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J307" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K307" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L307" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M307" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N307" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O307" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P307" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q307" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R307" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S307" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T307" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U307" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V307" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="W307" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X307" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y307" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z307" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA307" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB307" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC307" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD307" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="308" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A308" s="4">
+        <v>45570.848092256943</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D308" s="5">
+        <v>20241047</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F308" s="5">
+        <v>3</v>
+      </c>
+      <c r="G308" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H308" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I308" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J308" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K308" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L308" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M308" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N308" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O308" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P308" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q308" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R308" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S308" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T308" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U308" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V308" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W308" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X308" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y308" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z308" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA308" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB308" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC308" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD308" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="309" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A309" s="7">
+        <v>45570.859636493056</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="C309" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D309" s="8">
+        <v>20245259</v>
+      </c>
+      <c r="E309" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="F309" s="8">
+        <v>3</v>
+      </c>
+      <c r="G309" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H309" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I309" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J309" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K309" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L309" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M309" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N309" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O309" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P309" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q309" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R309" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S309" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T309" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U309" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="V309" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W309" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X309" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y309" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z309" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA309" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB309" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC309" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD309" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="310" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A310" s="4">
+        <v>45570.86919626157</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D310" s="5">
+        <v>20241095</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="F310" s="5">
+        <v>3</v>
+      </c>
+      <c r="G310" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H310" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I310" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J310" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K310" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L310" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M310" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N310" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O310" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P310" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q310" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R310" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S310" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T310" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U310" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V310" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W310" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X310" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y310" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z310" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA310" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB310" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC310" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD310" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="311" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A311" s="7">
+        <v>45570.870069699071</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="C311" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D311" s="8">
+        <v>20246628</v>
+      </c>
+      <c r="E311" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="F311" s="8">
+        <v>3</v>
+      </c>
+      <c r="G311" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H311" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I311" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J311" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K311" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L311" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="M311" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N311" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O311" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P311" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q311" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="R311" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S311" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T311" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U311" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V311" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W311" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X311" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y311" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z311" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA311" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB311" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC311" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD311" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="312" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A312" s="4">
+        <v>45570.879679699079</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D312" s="5">
+        <v>20227022</v>
+      </c>
+      <c r="E312" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="F312" s="5">
+        <v>3</v>
+      </c>
+      <c r="G312" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H312" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I312" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J312" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K312" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L312" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="M312" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N312" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O312" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P312" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q312" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R312" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S312" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="T312" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U312" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="V312" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W312" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X312" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y312" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z312" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA312" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB312" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC312" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD312" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="313" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A313" s="7">
+        <v>45570.880150949073</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="C313" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D313" s="8">
+        <v>20243903</v>
+      </c>
+      <c r="E313" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="F313" s="8">
+        <v>3</v>
+      </c>
+      <c r="G313" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H313" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I313" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J313" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K313" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L313" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M313" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N313" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O313" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P313" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q313" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R313" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S313" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T313" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U313" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V313" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W313" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X313" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y313" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z313" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA313" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB313" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC313" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD313" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="314" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A314" s="4">
+        <v>45570.884164953706</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D314" s="5">
+        <v>20242323</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F314" s="5">
+        <v>3</v>
+      </c>
+      <c r="G314" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H314" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I314" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J314" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K314" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L314" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M314" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N314" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O314" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P314" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q314" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R314" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S314" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T314" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U314" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V314" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W314" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X314" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y314" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z314" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA314" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB314" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC314" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD314" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="315" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A315" s="7">
+        <v>45570.887954004633</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="C315" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D315" s="8">
+        <v>20172719</v>
+      </c>
+      <c r="E315" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="F315" s="8">
+        <v>3</v>
+      </c>
+      <c r="G315" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H315" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I315" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J315" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K315" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L315" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M315" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N315" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O315" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P315" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q315" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R315" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S315" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T315" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U315" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V315" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W315" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X315" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y315" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z315" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA315" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB315" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC315" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD315" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="316" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A316" s="4">
+        <v>45570.892073993055</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D316" s="5">
+        <v>20242751</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="F316" s="5">
+        <v>3</v>
+      </c>
+      <c r="G316" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H316" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I316" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J316" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K316" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L316" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M316" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N316" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O316" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P316" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q316" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R316" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S316" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T316" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U316" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V316" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W316" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X316" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y316" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z316" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA316" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB316" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC316" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD316" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="317" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A317" s="7">
+        <v>45570.897373148153</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="C317" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D317" s="8">
+        <v>20242358</v>
+      </c>
+      <c r="E317" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="F317" s="8">
+        <v>3</v>
+      </c>
+      <c r="G317" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H317" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I317" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J317" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="K317" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L317" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="M317" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N317" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O317" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="P317" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q317" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="R317" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="S317" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T317" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U317" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V317" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W317" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X317" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y317" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z317" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA317" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB317" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC317" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD317" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="318" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A318" s="4">
+        <v>45570.915063692126</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D318" s="5">
+        <v>20246776</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="F318" s="5">
+        <v>3</v>
+      </c>
+      <c r="G318" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H318" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I318" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J318" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K318" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L318" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M318" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N318" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O318" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P318" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q318" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R318" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S318" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T318" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U318" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V318" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W318" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X318" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y318" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z318" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA318" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB318" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC318" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD318" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="319" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A319" s="7">
+        <v>45570.91820511574</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D319" s="8">
+        <v>20191226</v>
+      </c>
+      <c r="E319" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="F319" s="8">
+        <v>3</v>
+      </c>
+      <c r="G319" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H319" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I319" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J319" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K319" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L319" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M319" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N319" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O319" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P319" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q319" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R319" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S319" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T319" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U319" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V319" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W319" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X319" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y319" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z319" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA319" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB319" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC319" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD319" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="320" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A320" s="4">
+        <v>45570.919459537035</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D320" s="5">
+        <v>20245207</v>
+      </c>
+      <c r="E320" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="F320" s="5">
+        <v>3</v>
+      </c>
+      <c r="G320" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H320" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I320" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J320" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K320" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L320" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M320" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N320" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O320" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P320" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q320" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R320" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S320" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T320" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U320" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V320" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W320" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X320" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y320" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z320" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA320" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB320" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC320" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD320" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="321" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A321" s="7">
+        <v>45570.929818854165</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C321" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D321" s="8">
+        <v>20244126</v>
+      </c>
+      <c r="E321" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="F321" s="8">
+        <v>3</v>
+      </c>
+      <c r="G321" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H321" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I321" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J321" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K321" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L321" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M321" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N321" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O321" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P321" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q321" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R321" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S321" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T321" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U321" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V321" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="W321" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X321" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y321" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z321" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA321" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB321" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC321" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD321" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="322" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A322" s="4">
+        <v>45570.944059629634</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D322" s="5">
+        <v>20242347</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F322" s="5">
+        <v>3</v>
+      </c>
+      <c r="G322" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H322" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I322" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J322" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K322" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L322" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M322" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N322" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O322" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P322" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q322" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R322" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S322" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T322" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U322" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V322" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W322" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X322" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y322" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z322" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA322" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB322" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC322" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD322" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="323" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A323" s="7">
+        <v>45570.986215115743</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D323" s="8">
+        <v>20246648</v>
+      </c>
+      <c r="E323" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="F323" s="8">
+        <v>3</v>
+      </c>
+      <c r="G323" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H323" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I323" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J323" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K323" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L323" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M323" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N323" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O323" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P323" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q323" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="R323" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S323" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="T323" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U323" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V323" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W323" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X323" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y323" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z323" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA323" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB323" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC323" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD323" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="324" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A324" s="4">
+        <v>45570.995128344905</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D324" s="5">
+        <v>20242128</v>
+      </c>
+      <c r="E324" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="F324" s="5">
+        <v>3</v>
+      </c>
+      <c r="G324" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H324" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I324" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J324" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K324" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L324" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M324" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N324" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O324" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P324" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q324" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R324" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S324" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T324" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U324" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V324" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W324" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X324" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y324" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z324" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA324" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB324" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC324" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD324" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="325" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A325" s="7">
+        <v>45571.007126458338</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="D325" s="8">
+        <v>20242925</v>
+      </c>
+      <c r="E325" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="F325" s="8">
+        <v>3</v>
+      </c>
+      <c r="G325" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H325" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I325" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J325" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K325" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L325" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M325" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N325" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O325" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P325" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q325" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R325" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S325" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T325" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U325" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V325" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W325" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X325" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y325" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z325" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA325" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB325" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC325" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD325" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="326" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A326" s="4">
+        <v>45571.007742106478</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D326" s="5">
+        <v>20222933</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="F326" s="5">
+        <v>3</v>
+      </c>
+      <c r="G326" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H326" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I326" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J326" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K326" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L326" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M326" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N326" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O326" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P326" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q326" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R326" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S326" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T326" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U326" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V326" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W326" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X326" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y326" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z326" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA326" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB326" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC326" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD326" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="327" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A327" s="7">
+        <v>45571.012530520835</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D327" s="8">
+        <v>20217087</v>
+      </c>
+      <c r="E327" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="F327" s="8">
+        <v>3</v>
+      </c>
+      <c r="G327" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H327" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I327" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J327" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K327" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L327" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M327" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N327" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O327" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P327" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q327" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R327" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S327" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T327" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U327" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V327" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W327" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X327" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y327" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z327" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA327" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB327" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC327" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD327" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="328" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A328" s="4">
+        <v>45571.022266192129</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D328" s="5">
+        <v>20242336</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="F328" s="5">
+        <v>3</v>
+      </c>
+      <c r="G328" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H328" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I328" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J328" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K328" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L328" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M328" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N328" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O328" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P328" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q328" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R328" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S328" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T328" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U328" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V328" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W328" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X328" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y328" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z328" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA328" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB328" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC328" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD328" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="329" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A329" s="7">
+        <v>45571.034601712963</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D329" s="8">
+        <v>20211523</v>
+      </c>
+      <c r="E329" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="F329" s="8">
+        <v>3</v>
+      </c>
+      <c r="G329" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H329" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I329" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J329" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K329" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L329" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M329" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N329" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O329" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P329" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q329" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="R329" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S329" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T329" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U329" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V329" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W329" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X329" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y329" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z329" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA329" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB329" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC329" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD329" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="330" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A330" s="4">
+        <v>45571.038926504625</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D330" s="5">
+        <v>20232637</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="F330" s="5">
+        <v>3</v>
+      </c>
+      <c r="G330" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H330" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I330" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J330" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K330" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L330" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M330" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N330" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O330" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P330" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q330" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R330" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S330" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T330" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U330" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V330" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W330" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X330" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y330" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z330" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA330" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB330" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC330" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD330" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="331" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A331" s="7">
+        <v>45571.046686562499</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D331" s="8">
+        <v>20245190</v>
+      </c>
+      <c r="E331" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="F331" s="8">
+        <v>3</v>
+      </c>
+      <c r="G331" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H331" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I331" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J331" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K331" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L331" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M331" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N331" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O331" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P331" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q331" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R331" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S331" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T331" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U331" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V331" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W331" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X331" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y331" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z331" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA331" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB331" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC331" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD331" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="332" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A332" s="4">
+        <v>45571.049937187505</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D332" s="5">
+        <v>20242848</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="F332" s="5">
+        <v>3</v>
+      </c>
+      <c r="G332" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H332" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I332" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J332" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K332" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L332" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M332" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N332" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O332" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P332" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q332" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R332" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S332" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T332" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U332" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V332" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W332" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X332" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y332" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z332" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA332" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB332" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC332" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD332" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="333" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A333" s="7">
+        <v>45571.064924050923</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D333" s="8">
+        <v>20243813</v>
+      </c>
+      <c r="E333" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="F333" s="8">
+        <v>3</v>
+      </c>
+      <c r="G333" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H333" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I333" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J333" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K333" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L333" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M333" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N333" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O333" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P333" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q333" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R333" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S333" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T333" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U333" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V333" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W333" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X333" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y333" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z333" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA333" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB333" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC333" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD333" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="334" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A334" s="4">
+        <v>45571.074850150464</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D334" s="5">
+        <v>20244152</v>
+      </c>
+      <c r="E334" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="F334" s="5">
+        <v>3</v>
+      </c>
+      <c r="G334" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H334" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I334" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J334" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K334" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L334" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M334" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N334" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O334" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P334" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q334" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R334" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="S334" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T334" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U334" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V334" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W334" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X334" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y334" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z334" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA334" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB334" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC334" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD334" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="335" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A335" s="7">
+        <v>45571.088335509259</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="C335" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D335" s="8">
+        <v>20233060</v>
+      </c>
+      <c r="E335" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="F335" s="8">
+        <v>3</v>
+      </c>
+      <c r="G335" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H335" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I335" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J335" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K335" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L335" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M335" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N335" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O335" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P335" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q335" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R335" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S335" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T335" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U335" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V335" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W335" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X335" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y335" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z335" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA335" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB335" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC335" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD335" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="336" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A336" s="4">
+        <v>45571.092030081018</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D336" s="5">
+        <v>20216609</v>
+      </c>
+      <c r="E336" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="F336" s="5">
+        <v>3</v>
+      </c>
+      <c r="G336" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H336" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I336" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J336" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K336" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L336" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M336" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N336" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O336" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P336" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q336" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R336" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S336" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T336" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U336" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V336" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W336" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X336" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y336" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z336" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA336" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB336" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC336" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD336" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="337" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A337" s="7">
+        <v>45571.107449930554</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="C337" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D337" s="8">
+        <v>20241054</v>
+      </c>
+      <c r="E337" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="F337" s="8">
+        <v>3</v>
+      </c>
+      <c r="G337" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H337" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I337" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J337" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K337" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L337" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M337" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N337" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O337" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P337" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q337" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R337" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S337" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T337" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U337" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V337" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W337" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X337" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y337" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z337" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA337" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB337" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC337" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD337" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="338" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A338" s="4">
+        <v>45571.1124715162</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D338" s="5">
+        <v>20217135</v>
+      </c>
+      <c r="E338" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="F338" s="5">
+        <v>3</v>
+      </c>
+      <c r="G338" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H338" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I338" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J338" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K338" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L338" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M338" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N338" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O338" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P338" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q338" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R338" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="S338" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="T338" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U338" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V338" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W338" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="X338" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y338" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z338" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA338" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB338" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC338" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD338" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="339" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A339" s="7">
+        <v>45571.136986238431</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="C339" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D339" s="8">
+        <v>20201103</v>
+      </c>
+      <c r="E339" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="F339" s="8">
+        <v>3</v>
+      </c>
+      <c r="G339" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H339" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I339" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J339" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K339" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L339" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M339" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N339" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O339" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P339" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q339" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R339" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S339" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T339" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U339" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V339" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W339" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X339" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y339" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z339" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA339" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB339" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC339" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD339" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="340" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A340" s="16">
+        <v>45571.243750324073</v>
+      </c>
+      <c r="B340" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="C340" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="D340" s="17">
+        <v>20246728</v>
+      </c>
+      <c r="E340" s="17" t="s">
+        <v>873</v>
+      </c>
+      <c r="F340" s="17">
+        <v>3</v>
+      </c>
+      <c r="G340" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H340" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I340" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J340" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K340" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="L340" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M340" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N340" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O340" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P340" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q340" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R340" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S340" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T340" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U340" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V340" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="W340" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="X340" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y340" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z340" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA340" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB340" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC340" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD340" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AD7725-A9D2-D64E-90F6-748C6282BC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2B10D0-F7A9-A04B-96BD-4E27A478BE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9183" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9993" uniqueCount="937">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2642,6 +2642,195 @@
   </si>
   <si>
     <t>박유민</t>
+  </si>
+  <si>
+    <t>p20236727@gmail.com</t>
+  </si>
+  <si>
+    <t>박진서</t>
+  </si>
+  <si>
+    <t>vcx76613@gmail.com</t>
+  </si>
+  <si>
+    <t>황인태</t>
+  </si>
+  <si>
+    <t>minsung5342@naver.com</t>
+  </si>
+  <si>
+    <t>doheehana@naver.com</t>
+  </si>
+  <si>
+    <t>김도희</t>
+  </si>
+  <si>
+    <t>wnsrl2498@naver.com</t>
+  </si>
+  <si>
+    <t>김준기</t>
+  </si>
+  <si>
+    <t>dlaehdghks123@gmail.com</t>
+  </si>
+  <si>
+    <t>임동환</t>
+  </si>
+  <si>
+    <t>shasha4321@naver.com</t>
+  </si>
+  <si>
+    <t>경영학</t>
+  </si>
+  <si>
+    <t>정다영</t>
+  </si>
+  <si>
+    <t>sumine0601@naver.com</t>
+  </si>
+  <si>
+    <t>장수민</t>
+  </si>
+  <si>
+    <t>whrudghks030604@naver.com</t>
+  </si>
+  <si>
+    <t>조경환</t>
+  </si>
+  <si>
+    <t>leedowon567@naver.com</t>
+  </si>
+  <si>
+    <t>이도원</t>
+  </si>
+  <si>
+    <t>sshee718@gmail.com</t>
+  </si>
+  <si>
+    <t>권도운</t>
+  </si>
+  <si>
+    <t>lattace05@gmail.com</t>
+  </si>
+  <si>
+    <t>최동희</t>
+  </si>
+  <si>
+    <t>r67890@naver.com</t>
+  </si>
+  <si>
+    <t>이규형</t>
+  </si>
+  <si>
+    <t>jiminn101777@gmail.com</t>
+  </si>
+  <si>
+    <t>권지민</t>
+  </si>
+  <si>
+    <t>dlakrp731@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠it</t>
+  </si>
+  <si>
+    <t>이준수</t>
+  </si>
+  <si>
+    <t>twenty__dec@naver.com</t>
+  </si>
+  <si>
+    <t>채희주</t>
+  </si>
+  <si>
+    <t>wldus0859@gmail.com</t>
+  </si>
+  <si>
+    <t>박지연</t>
+  </si>
+  <si>
+    <t>chetbaker22@naver.com</t>
+  </si>
+  <si>
+    <t>철학전공</t>
+  </si>
+  <si>
+    <t>김채원</t>
+  </si>
+  <si>
+    <t>guj2205146@gmail.com</t>
+  </si>
+  <si>
+    <t>강의주</t>
+  </si>
+  <si>
+    <t>yuvin0612@naver.com</t>
+  </si>
+  <si>
+    <t>장유빈</t>
+  </si>
+  <si>
+    <t>simyenho8562@gmail.com</t>
+  </si>
+  <si>
+    <t>심연호</t>
+  </si>
+  <si>
+    <t>h20191240@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>홍이래</t>
+  </si>
+  <si>
+    <t>hyeonjin0976@gmail.com</t>
+  </si>
+  <si>
+    <t>류현진</t>
+  </si>
+  <si>
+    <t>jangjunhyeok1001@naver.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>장준혁</t>
+  </si>
+  <si>
+    <t>jjy021026@gmail.com</t>
+  </si>
+  <si>
+    <t>전지환</t>
+  </si>
+  <si>
+    <t>applehanul@naver.com</t>
+  </si>
+  <si>
+    <t>신하늘</t>
+  </si>
+  <si>
+    <t>ncu11069@naver.com</t>
+  </si>
+  <si>
+    <t>이규민</t>
+  </si>
+  <si>
+    <t>buj5195193@naver.com</t>
+  </si>
+  <si>
+    <t>백유진</t>
+  </si>
+  <si>
+    <t>sk2000tyr@naver.com</t>
+  </si>
+  <si>
+    <t>이지한</t>
+  </si>
+  <si>
+    <t>skyhaneul0910@naver.com</t>
+  </si>
+  <si>
+    <t>권하늘</t>
   </si>
 </sst>
 </file>
@@ -3056,7 +3245,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD340">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD370">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -3294,11 +3483,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD340"/>
+  <dimension ref="A1:AD370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F353" sqref="F353"/>
+      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F382" sqref="F382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -34611,6 +34800,2766 @@
         <v>56</v>
       </c>
     </row>
+    <row r="341" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A341" s="7">
+        <v>45571.364452442125</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D341" s="8">
+        <v>20236727</v>
+      </c>
+      <c r="E341" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F341" s="8">
+        <v>3</v>
+      </c>
+      <c r="G341" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H341" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I341" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J341" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K341" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L341" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="M341" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N341" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O341" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P341" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q341" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R341" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S341" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T341" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U341" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V341" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W341" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X341" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y341" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z341" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA341" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB341" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC341" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD341" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="342" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A342" s="4">
+        <v>45571.38792552083</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D342" s="5">
+        <v>20246306</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="F342" s="5">
+        <v>3</v>
+      </c>
+      <c r="G342" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H342" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I342" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J342" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K342" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L342" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M342" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N342" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O342" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P342" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q342" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R342" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S342" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="T342" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U342" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="V342" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W342" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="X342" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y342" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z342" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA342" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB342" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC342" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD342" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="343" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A343" s="7">
+        <v>45571.432436701391</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D343" s="8">
+        <v>20232311</v>
+      </c>
+      <c r="E343" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F343" s="8">
+        <v>3</v>
+      </c>
+      <c r="G343" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H343" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I343" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J343" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K343" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L343" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M343" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N343" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O343" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P343" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q343" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R343" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S343" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T343" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U343" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V343" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W343" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X343" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y343" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z343" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA343" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB343" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC343" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD343" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="344" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A344" s="4">
+        <v>45571.449635729165</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D344" s="5">
+        <v>20246215</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="F344" s="5">
+        <v>3</v>
+      </c>
+      <c r="G344" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H344" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I344" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J344" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K344" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L344" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M344" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N344" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O344" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P344" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q344" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R344" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S344" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T344" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U344" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V344" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W344" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X344" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y344" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z344" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA344" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB344" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC344" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD344" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="345" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A345" s="7">
+        <v>45571.501602731485</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="C345" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D345" s="8">
+        <v>20227093</v>
+      </c>
+      <c r="E345" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="F345" s="8">
+        <v>2</v>
+      </c>
+      <c r="G345" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H345" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I345" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J345" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K345" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L345" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M345" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N345" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O345" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P345" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q345" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R345" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S345" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T345" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U345" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V345" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W345" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X345" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y345" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z345" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA345" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB345" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC345" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD345" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="346" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A346" s="4">
+        <v>45571.516520648147</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D346" s="5">
+        <v>20213533</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="F346" s="5">
+        <v>3</v>
+      </c>
+      <c r="G346" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H346" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I346" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J346" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K346" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L346" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M346" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N346" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O346" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P346" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q346" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R346" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S346" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T346" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U346" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V346" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W346" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X346" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y346" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z346" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA346" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB346" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC346" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD346" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="347" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A347" s="7">
+        <v>45571.534782256946</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="D347" s="8">
+        <v>20213035</v>
+      </c>
+      <c r="E347" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="F347" s="8">
+        <v>3</v>
+      </c>
+      <c r="G347" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H347" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I347" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J347" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K347" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L347" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M347" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N347" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O347" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P347" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q347" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R347" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S347" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T347" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U347" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V347" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W347" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X347" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y347" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z347" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA347" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB347" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC347" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD347" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="348" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A348" s="4">
+        <v>45571.552414502316</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D348" s="5">
+        <v>20202637</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="F348" s="5">
+        <v>3</v>
+      </c>
+      <c r="G348" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H348" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I348" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J348" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K348" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L348" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M348" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N348" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O348" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P348" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q348" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R348" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S348" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T348" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U348" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V348" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W348" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X348" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y348" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z348" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA348" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB348" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC348" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD348" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="349" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A349" s="7">
+        <v>45571.557763229168</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D349" s="8">
+        <v>20243955</v>
+      </c>
+      <c r="E349" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="F349" s="8">
+        <v>3</v>
+      </c>
+      <c r="G349" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H349" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I349" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J349" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K349" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L349" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M349" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N349" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O349" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P349" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q349" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R349" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S349" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T349" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U349" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V349" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W349" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X349" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y349" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z349" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA349" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB349" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC349" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD349" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="350" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A350" s="4">
+        <v>45571.562407696758</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D350" s="5">
+        <v>20211625</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="F350" s="5">
+        <v>3</v>
+      </c>
+      <c r="G350" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H350" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I350" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J350" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K350" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L350" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M350" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N350" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O350" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P350" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q350" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R350" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S350" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T350" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U350" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V350" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W350" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X350" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y350" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z350" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA350" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB350" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC350" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD350" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="351" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A351" s="7">
+        <v>45571.570918645833</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D351" s="8">
+        <v>20243702</v>
+      </c>
+      <c r="E351" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="F351" s="8">
+        <v>3</v>
+      </c>
+      <c r="G351" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H351" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I351" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J351" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K351" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L351" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M351" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N351" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O351" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P351" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q351" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R351" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S351" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T351" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U351" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="V351" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W351" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X351" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y351" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z351" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA351" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB351" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC351" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD351" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="352" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A352" s="4">
+        <v>45571.577309629633</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D352" s="5">
+        <v>20242439</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="F352" s="5">
+        <v>3</v>
+      </c>
+      <c r="G352" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H352" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I352" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J352" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K352" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L352" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M352" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N352" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O352" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P352" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q352" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R352" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S352" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T352" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U352" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V352" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W352" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X352" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y352" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z352" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA352" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB352" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC352" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD352" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="353" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A353" s="7">
+        <v>45571.581621087964</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="D353" s="8">
+        <v>20205217</v>
+      </c>
+      <c r="E353" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="F353" s="8">
+        <v>3</v>
+      </c>
+      <c r="G353" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H353" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I353" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J353" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K353" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L353" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M353" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N353" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O353" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P353" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q353" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R353" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S353" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T353" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U353" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V353" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W353" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X353" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y353" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z353" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA353" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB353" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC353" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD353" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="354" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A354" s="16">
+        <v>45571.594766620372</v>
+      </c>
+      <c r="B354" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="C354" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D354" s="17">
+        <v>20242306</v>
+      </c>
+      <c r="E354" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="F354" s="17">
+        <v>3</v>
+      </c>
+      <c r="G354" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H354" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I354" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J354" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K354" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="L354" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M354" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="N354" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O354" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P354" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q354" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R354" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S354" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T354" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="U354" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V354" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="W354" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="X354" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y354" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z354" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA354" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB354" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC354" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD354" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="355" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A355" s="7">
+        <v>45571.602286990739</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="D355" s="8">
+        <v>20195225</v>
+      </c>
+      <c r="E355" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="F355" s="8">
+        <v>3</v>
+      </c>
+      <c r="G355" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H355" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I355" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J355" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K355" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L355" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M355" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N355" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O355" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P355" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q355" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R355" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S355" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T355" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U355" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V355" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W355" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X355" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y355" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z355" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA355" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB355" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC355" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD355" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="356" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A356" s="4">
+        <v>45571.620481712962</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D356" s="5">
+        <v>20243959</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="F356" s="5">
+        <v>3</v>
+      </c>
+      <c r="G356" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H356" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I356" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="J356" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K356" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L356" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M356" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N356" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O356" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P356" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q356" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R356" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S356" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T356" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U356" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V356" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W356" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X356" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y356" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z356" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA356" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB356" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC356" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD356" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="357" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A357" s="7">
+        <v>45571.629515578708</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D357" s="8">
+        <v>20242618</v>
+      </c>
+      <c r="E357" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="F357" s="8">
+        <v>3</v>
+      </c>
+      <c r="G357" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H357" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I357" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J357" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K357" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L357" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M357" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N357" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O357" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P357" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q357" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R357" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S357" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T357" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U357" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V357" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W357" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X357" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y357" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z357" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA357" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB357" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC357" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD357" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="358" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="4">
+        <v>45571.644409791668</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="D358" s="5">
+        <v>20201031</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="F358" s="5">
+        <v>3</v>
+      </c>
+      <c r="G358" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H358" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I358" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J358" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K358" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L358" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M358" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N358" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O358" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P358" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q358" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R358" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S358" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T358" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U358" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V358" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W358" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="X358" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y358" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z358" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA358" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB358" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC358" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD358" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="359" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A359" s="7">
+        <v>45571.64736855324</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D359" s="8">
+        <v>20242101</v>
+      </c>
+      <c r="E359" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="F359" s="8">
+        <v>3</v>
+      </c>
+      <c r="G359" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H359" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I359" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J359" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K359" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L359" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M359" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N359" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O359" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P359" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q359" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R359" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S359" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T359" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U359" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V359" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W359" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X359" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y359" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z359" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA359" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB359" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC359" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD359" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="360" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A360" s="4">
+        <v>45571.658410891207</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D360" s="5">
+        <v>20203537</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="F360" s="5">
+        <v>3</v>
+      </c>
+      <c r="G360" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H360" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I360" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J360" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K360" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L360" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M360" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N360" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O360" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P360" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q360" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R360" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S360" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T360" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U360" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V360" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W360" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X360" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y360" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z360" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA360" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB360" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC360" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD360" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="361" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A361" s="7">
+        <v>45571.663042418979</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D361" s="8">
+        <v>20242981</v>
+      </c>
+      <c r="E361" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="F361" s="8">
+        <v>3</v>
+      </c>
+      <c r="G361" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H361" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I361" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J361" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K361" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L361" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M361" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N361" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O361" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P361" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q361" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R361" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S361" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T361" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U361" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V361" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W361" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X361" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y361" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z361" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA361" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB361" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC361" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD361" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="362" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A362" s="4">
+        <v>45571.681314398149</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D362" s="5">
+        <v>20191240</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="F362" s="5">
+        <v>3</v>
+      </c>
+      <c r="G362" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H362" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I362" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J362" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K362" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L362" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M362" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N362" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O362" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P362" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q362" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R362" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S362" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T362" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U362" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V362" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W362" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X362" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y362" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z362" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA362" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB362" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC362" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD362" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="363" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A363" s="7">
+        <v>45571.686560682865</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D363" s="8">
+        <v>20192717</v>
+      </c>
+      <c r="E363" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="F363" s="8">
+        <v>3</v>
+      </c>
+      <c r="G363" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H363" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I363" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J363" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K363" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L363" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M363" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N363" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O363" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P363" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q363" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R363" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S363" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T363" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U363" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V363" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W363" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X363" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y363" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z363" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA363" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB363" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC363" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD363" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="364" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A364" s="4">
+        <v>45571.694631087958</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="D364" s="5">
+        <v>20193341</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="F364" s="5">
+        <v>3</v>
+      </c>
+      <c r="G364" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H364" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I364" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J364" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K364" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L364" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="M364" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N364" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O364" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P364" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q364" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R364" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S364" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="T364" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U364" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="V364" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W364" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="X364" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y364" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z364" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA364" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB364" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC364" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD364" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="365" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A365" s="7">
+        <v>45571.704429872683</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D365" s="8">
+        <v>20214143</v>
+      </c>
+      <c r="E365" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="F365" s="8">
+        <v>3</v>
+      </c>
+      <c r="G365" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H365" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I365" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J365" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="K365" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L365" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M365" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N365" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O365" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P365" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q365" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R365" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S365" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T365" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U365" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V365" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W365" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X365" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y365" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z365" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA365" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB365" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC365" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD365" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="366" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A366" s="4">
+        <v>45571.712937037039</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D366" s="5">
+        <v>20233412</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="F366" s="5">
+        <v>3</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H366" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I366" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J366" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K366" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L366" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M366" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N366" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O366" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P366" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q366" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R366" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S366" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T366" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U366" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V366" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W366" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X366" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y366" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z366" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA366" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB366" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC366" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD366" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="367" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A367" s="7">
+        <v>45571.718232719912</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D367" s="8">
+        <v>20231622</v>
+      </c>
+      <c r="E367" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="F367" s="8">
+        <v>3</v>
+      </c>
+      <c r="G367" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H367" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I367" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J367" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K367" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L367" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M367" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N367" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O367" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P367" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q367" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R367" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S367" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T367" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U367" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V367" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W367" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X367" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y367" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z367" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA367" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB367" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC367" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD367" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="368" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A368" s="4">
+        <v>45571.720994641204</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D368" s="5">
+        <v>20192721</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="F368" s="5">
+        <v>3</v>
+      </c>
+      <c r="G368" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H368" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I368" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J368" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K368" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L368" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M368" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N368" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O368" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P368" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q368" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R368" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S368" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T368" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U368" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V368" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W368" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X368" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y368" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z368" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA368" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB368" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC368" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD368" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="369" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A369" s="7">
+        <v>45571.721850393515</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D369" s="8">
+        <v>20227073</v>
+      </c>
+      <c r="E369" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="F369" s="8">
+        <v>3</v>
+      </c>
+      <c r="G369" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H369" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I369" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J369" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K369" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L369" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M369" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N369" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O369" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="P369" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q369" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R369" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S369" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T369" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U369" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V369" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W369" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X369" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y369" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z369" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA369" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB369" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC369" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD369" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="370" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A370" s="16">
+        <v>45571.740967129634</v>
+      </c>
+      <c r="B370" s="17" t="s">
+        <v>935</v>
+      </c>
+      <c r="C370" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D370" s="17">
+        <v>20243803</v>
+      </c>
+      <c r="E370" s="17" t="s">
+        <v>936</v>
+      </c>
+      <c r="F370" s="17">
+        <v>3</v>
+      </c>
+      <c r="G370" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H370" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I370" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J370" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K370" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L370" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M370" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N370" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O370" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P370" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q370" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R370" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S370" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T370" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U370" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V370" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="W370" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="X370" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y370" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z370" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA370" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB370" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC370" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD370" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2B10D0-F7A9-A04B-96BD-4E27A478BE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F76BFC-01EE-1048-9393-7FE3032644CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9993" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11208" uniqueCount="1028">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2831,6 +2831,279 @@
   </si>
   <si>
     <t>권하늘</t>
+  </si>
+  <si>
+    <t>bcy1976@naver.com</t>
+  </si>
+  <si>
+    <t>변치윤</t>
+  </si>
+  <si>
+    <t>youmakein@gmail.com</t>
+  </si>
+  <si>
+    <t>seon93804@gmail.com</t>
+  </si>
+  <si>
+    <t>김인선</t>
+  </si>
+  <si>
+    <t>kmu2916@naver.com</t>
+  </si>
+  <si>
+    <t>강민욱</t>
+  </si>
+  <si>
+    <t>ghkdxo2003@gmail.com</t>
+  </si>
+  <si>
+    <t>황이준</t>
+  </si>
+  <si>
+    <t>minuhwang16@gmail.com</t>
+  </si>
+  <si>
+    <t>황민우</t>
+  </si>
+  <si>
+    <t>syb00syb00@naver.com</t>
+  </si>
+  <si>
+    <t>신유비</t>
+  </si>
+  <si>
+    <t>leejs7807@gmail.com</t>
+  </si>
+  <si>
+    <t>이종선</t>
+  </si>
+  <si>
+    <t>namryumin@gmail.com</t>
+  </si>
+  <si>
+    <t>남류민</t>
+  </si>
+  <si>
+    <t>goemf100@naver.com</t>
+  </si>
+  <si>
+    <t>jeongminyoung13@gmail.com</t>
+  </si>
+  <si>
+    <t>정민영</t>
+  </si>
+  <si>
+    <t>chsmdfur123@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>이한얼</t>
+  </si>
+  <si>
+    <t>na1448@naver.com</t>
+  </si>
+  <si>
+    <t>강나현</t>
+  </si>
+  <si>
+    <t>tonykim0703@gmail.com</t>
+  </si>
+  <si>
+    <t>김주엽</t>
+  </si>
+  <si>
+    <t>ran0753@gmail.com</t>
+  </si>
+  <si>
+    <t>김태란</t>
+  </si>
+  <si>
+    <t>cjfghksznszns1100119@naver.com</t>
+  </si>
+  <si>
+    <t>유철환</t>
+  </si>
+  <si>
+    <t>dayae6762@naver.com</t>
+  </si>
+  <si>
+    <t>장다예</t>
+  </si>
+  <si>
+    <t>chiyoon12@gmail.com</t>
+  </si>
+  <si>
+    <t>김치윤</t>
+  </si>
+  <si>
+    <t>qortjdus27@naver.com</t>
+  </si>
+  <si>
+    <t>백서연</t>
+  </si>
+  <si>
+    <t>jina20050429@gmail.com</t>
+  </si>
+  <si>
+    <t>이진아</t>
+  </si>
+  <si>
+    <t>dawn2368@gmail.com</t>
+  </si>
+  <si>
+    <t>허다운</t>
+  </si>
+  <si>
+    <t>chlwnstn777@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터 전공</t>
+  </si>
+  <si>
+    <t>최준수</t>
+  </si>
+  <si>
+    <t>lyn392392@naver.com</t>
+  </si>
+  <si>
+    <t>이유나</t>
+  </si>
+  <si>
+    <t>jsh050906@naver.com</t>
+  </si>
+  <si>
+    <t>정송희</t>
+  </si>
+  <si>
+    <t>asrud8755@naver.com</t>
+  </si>
+  <si>
+    <t>jsk991012@naver.com</t>
+  </si>
+  <si>
+    <t>김준서</t>
+  </si>
+  <si>
+    <t>jdragon0151@gmail.com</t>
+  </si>
+  <si>
+    <t>신준용</t>
+  </si>
+  <si>
+    <t>jin0321558@gmail.com</t>
+  </si>
+  <si>
+    <t>전시연</t>
+  </si>
+  <si>
+    <t>5tmddk@naver.com</t>
+  </si>
+  <si>
+    <t>최승아</t>
+  </si>
+  <si>
+    <t>giyongi37@gmail.com</t>
+  </si>
+  <si>
+    <t>이기용</t>
+  </si>
+  <si>
+    <t>77sunhwa@gmail.com</t>
+  </si>
+  <si>
+    <t>박선화</t>
+  </si>
+  <si>
+    <t>ss0001234@naver.com</t>
+  </si>
+  <si>
+    <t>김세은</t>
+  </si>
+  <si>
+    <t>rabbit1657@gmail.com</t>
+  </si>
+  <si>
+    <t>이예원</t>
+  </si>
+  <si>
+    <t>bsgtopriner0@gmail.com</t>
+  </si>
+  <si>
+    <t>최윤혁</t>
+  </si>
+  <si>
+    <t>ism050204@naver.com</t>
+  </si>
+  <si>
+    <t>leedug87@gmail.com</t>
+  </si>
+  <si>
+    <t>이두현</t>
+  </si>
+  <si>
+    <t>parkjinseo23@naver.com</t>
+  </si>
+  <si>
+    <t>his86814189@gmail.com</t>
+  </si>
+  <si>
+    <t>황인성</t>
+  </si>
+  <si>
+    <t>eseses0827@naver.com</t>
+  </si>
+  <si>
+    <t>강은서</t>
+  </si>
+  <si>
+    <t>lucy37lucy37lucy37@naver.com</t>
+  </si>
+  <si>
+    <t>이은지</t>
+  </si>
+  <si>
+    <t>seungye04@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>정승예</t>
+  </si>
+  <si>
+    <t>zzun1414@naver.com</t>
+  </si>
+  <si>
+    <t>반도체·디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>황준영</t>
+  </si>
+  <si>
+    <t>yeonh990@naver.com</t>
+  </si>
+  <si>
+    <t>언어병리학전공</t>
+  </si>
+  <si>
+    <t>박현아</t>
+  </si>
+  <si>
+    <t>orientfun@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학</t>
+  </si>
+  <si>
+    <t>이동화</t>
+  </si>
+  <si>
+    <t>KMS050915@NAVER.COM</t>
+  </si>
+  <si>
+    <t>강명수</t>
   </si>
 </sst>
 </file>
@@ -3245,7 +3518,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD370">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD415">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -3483,11 +3756,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD370"/>
+  <dimension ref="A1:AD415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F382" sqref="F382"/>
+      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D418" sqref="D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -37560,6 +37833,4146 @@
         <v>56</v>
       </c>
     </row>
+    <row r="371" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A371" s="7">
+        <v>45571.748642245366</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D371" s="8">
+        <v>20235180</v>
+      </c>
+      <c r="E371" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="F371" s="8">
+        <v>3</v>
+      </c>
+      <c r="G371" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H371" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I371" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J371" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K371" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L371" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M371" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N371" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O371" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P371" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q371" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R371" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S371" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T371" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U371" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V371" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W371" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X371" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y371" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z371" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA371" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB371" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC371" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD371" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="372" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A372" s="4">
+        <v>45571.750233275467</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D372" s="5">
+        <v>20241106</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F372" s="5">
+        <v>3</v>
+      </c>
+      <c r="G372" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H372" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I372" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J372" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K372" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L372" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M372" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N372" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O372" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P372" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q372" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R372" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S372" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T372" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U372" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V372" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W372" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X372" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y372" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z372" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA372" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB372" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC372" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD372" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="373" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="7">
+        <v>45571.751078634261</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D373" s="8">
+        <v>20221209</v>
+      </c>
+      <c r="E373" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="F373" s="8">
+        <v>3</v>
+      </c>
+      <c r="G373" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H373" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I373" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J373" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K373" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L373" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M373" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N373" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O373" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P373" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q373" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R373" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S373" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T373" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U373" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V373" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="W373" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X373" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y373" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z373" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA373" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB373" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC373" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD373" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="374" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="4">
+        <v>45571.760614826388</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D374" s="5">
+        <v>20222902</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="F374" s="5">
+        <v>3</v>
+      </c>
+      <c r="G374" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H374" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I374" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J374" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K374" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L374" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M374" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N374" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O374" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P374" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q374" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R374" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S374" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T374" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U374" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V374" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W374" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X374" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y374" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z374" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA374" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB374" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC374" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD374" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="375" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A375" s="7">
+        <v>45571.766540798606</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D375" s="8">
+        <v>20231733</v>
+      </c>
+      <c r="E375" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="F375" s="8">
+        <v>3</v>
+      </c>
+      <c r="G375" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H375" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I375" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J375" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K375" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L375" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M375" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N375" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O375" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P375" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q375" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R375" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S375" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T375" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U375" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V375" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W375" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X375" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y375" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z375" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA375" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB375" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC375" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD375" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="376" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A376" s="4">
+        <v>45571.785545694445</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D376" s="5">
+        <v>20243967</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="F376" s="5">
+        <v>3</v>
+      </c>
+      <c r="G376" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H376" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I376" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J376" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K376" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L376" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M376" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N376" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O376" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P376" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q376" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R376" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S376" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="T376" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U376" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="V376" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W376" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="X376" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y376" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z376" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA376" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB376" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC376" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD376" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="377" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A377" s="7">
+        <v>45571.786135671297</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D377" s="8">
+        <v>20234128</v>
+      </c>
+      <c r="E377" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="F377" s="8">
+        <v>3</v>
+      </c>
+      <c r="G377" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H377" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I377" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J377" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K377" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L377" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M377" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N377" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O377" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P377" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q377" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R377" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S377" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T377" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U377" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="V377" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W377" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X377" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y377" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z377" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA377" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB377" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC377" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD377" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="378" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A378" s="4">
+        <v>45571.812119953705</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D378" s="5">
+        <v>20223249</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="F378" s="5">
+        <v>3</v>
+      </c>
+      <c r="G378" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H378" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I378" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J378" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K378" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L378" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M378" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N378" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O378" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P378" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q378" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R378" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S378" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T378" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U378" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V378" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W378" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X378" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y378" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z378" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA378" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB378" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC378" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD378" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="379" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A379" s="7">
+        <v>45571.824242534727</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D379" s="8">
+        <v>20245154</v>
+      </c>
+      <c r="E379" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="F379" s="8">
+        <v>3</v>
+      </c>
+      <c r="G379" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H379" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I379" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J379" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K379" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L379" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M379" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N379" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O379" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P379" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q379" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R379" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S379" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T379" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U379" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V379" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W379" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X379" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y379" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z379" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA379" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB379" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC379" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD379" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="380" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A380" s="4">
+        <v>45571.827457326392</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D380" s="5">
+        <v>20222709</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="F380" s="5">
+        <v>3</v>
+      </c>
+      <c r="G380" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H380" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I380" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J380" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K380" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L380" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M380" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N380" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O380" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P380" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q380" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R380" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S380" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T380" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U380" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V380" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W380" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X380" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y380" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z380" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA380" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB380" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC380" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD380" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="381" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A381" s="7">
+        <v>45571.834519328702</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D381" s="8">
+        <v>20246281</v>
+      </c>
+      <c r="E381" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="F381" s="8">
+        <v>3</v>
+      </c>
+      <c r="G381" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H381" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I381" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J381" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K381" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L381" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M381" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N381" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O381" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P381" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q381" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R381" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S381" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T381" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U381" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V381" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W381" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X381" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y381" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z381" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA381" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB381" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC381" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD381" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="382" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A382" s="4">
+        <v>45571.835515370374</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="D382" s="5">
+        <v>20203026</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="F382" s="5">
+        <v>3</v>
+      </c>
+      <c r="G382" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H382" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I382" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J382" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K382" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L382" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M382" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N382" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O382" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P382" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q382" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R382" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S382" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T382" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U382" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V382" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W382" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X382" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y382" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z382" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA382" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB382" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC382" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD382" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="383" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A383" s="7">
+        <v>45571.837896921294</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D383" s="8">
+        <v>20243601</v>
+      </c>
+      <c r="E383" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="F383" s="8">
+        <v>3</v>
+      </c>
+      <c r="G383" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H383" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I383" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J383" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K383" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L383" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M383" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N383" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O383" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P383" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q383" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R383" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S383" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T383" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U383" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V383" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W383" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X383" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y383" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z383" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA383" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB383" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC383" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD383" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="384" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A384" s="4">
+        <v>45571.838250011569</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D384" s="5">
+        <v>20213709</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="F384" s="5">
+        <v>3</v>
+      </c>
+      <c r="G384" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H384" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I384" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J384" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K384" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L384" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M384" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N384" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O384" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P384" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q384" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R384" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S384" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T384" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U384" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V384" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W384" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X384" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y384" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z384" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA384" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB384" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC384" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD384" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="385" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A385" s="7">
+        <v>45571.841559525463</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D385" s="8">
+        <v>20243615</v>
+      </c>
+      <c r="E385" s="8" t="s">
+        <v>965</v>
+      </c>
+      <c r="F385" s="8">
+        <v>3</v>
+      </c>
+      <c r="G385" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H385" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I385" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J385" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="K385" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L385" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M385" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N385" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O385" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P385" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q385" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R385" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S385" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T385" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U385" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V385" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W385" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X385" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y385" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z385" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA385" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB385" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC385" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD385" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="386" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A386" s="4">
+        <v>45571.841954074072</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D386" s="5">
+        <v>20243829</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="F386" s="5">
+        <v>3</v>
+      </c>
+      <c r="G386" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H386" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I386" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J386" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K386" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L386" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M386" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N386" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O386" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P386" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q386" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R386" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S386" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T386" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U386" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V386" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W386" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X386" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y386" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z386" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA386" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB386" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC386" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD386" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="387" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A387" s="7">
+        <v>45571.846048854168</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D387" s="8">
+        <v>20241081</v>
+      </c>
+      <c r="E387" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="F387" s="8">
+        <v>3</v>
+      </c>
+      <c r="G387" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H387" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I387" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J387" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K387" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L387" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M387" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N387" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O387" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P387" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q387" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R387" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S387" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T387" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U387" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V387" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W387" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X387" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y387" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z387" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA387" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB387" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC387" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD387" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="388" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A388" s="4">
+        <v>45571.847320312503</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="D388" s="5">
+        <v>20232938</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="F388" s="5">
+        <v>3</v>
+      </c>
+      <c r="G388" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H388" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I388" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J388" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K388" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L388" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M388" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N388" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O388" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P388" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q388" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R388" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S388" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T388" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U388" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V388" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W388" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X388" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y388" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z388" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA388" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB388" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC388" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD388" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="389" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="7">
+        <v>45571.856485162032</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D389" s="8">
+        <v>20242971</v>
+      </c>
+      <c r="E389" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="F389" s="8">
+        <v>3</v>
+      </c>
+      <c r="G389" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H389" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I389" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J389" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K389" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L389" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M389" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N389" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O389" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P389" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q389" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R389" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S389" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T389" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U389" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V389" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W389" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X389" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y389" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z389" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA389" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB389" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC389" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD389" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="390" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A390" s="4">
+        <v>45571.860138414355</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D390" s="5">
+        <v>20243731</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="F390" s="5">
+        <v>3</v>
+      </c>
+      <c r="G390" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H390" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I390" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="J390" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K390" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L390" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="M390" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N390" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O390" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P390" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q390" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R390" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S390" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T390" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U390" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V390" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W390" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="X390" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y390" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z390" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA390" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB390" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC390" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD390" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="391" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A391" s="7">
+        <v>45571.874193807875</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D391" s="8">
+        <v>20197126</v>
+      </c>
+      <c r="E391" s="8" t="s">
+        <v>977</v>
+      </c>
+      <c r="F391" s="8">
+        <v>3</v>
+      </c>
+      <c r="G391" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H391" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I391" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J391" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K391" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L391" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M391" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N391" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O391" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P391" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q391" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R391" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S391" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T391" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U391" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V391" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W391" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X391" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y391" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z391" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA391" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB391" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC391" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD391" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="392" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A392" s="4">
+        <v>45571.875075462958</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="D392" s="5">
+        <v>20193844</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="F392" s="5">
+        <v>3</v>
+      </c>
+      <c r="G392" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H392" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I392" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J392" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K392" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L392" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M392" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N392" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O392" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P392" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q392" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R392" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S392" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T392" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U392" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V392" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W392" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X392" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y392" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z392" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA392" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB392" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC392" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD392" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="393" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A393" s="7">
+        <v>45571.876548912041</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D393" s="8">
+        <v>20243007</v>
+      </c>
+      <c r="E393" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="F393" s="8">
+        <v>3</v>
+      </c>
+      <c r="G393" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H393" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I393" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J393" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K393" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L393" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M393" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N393" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O393" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P393" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q393" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R393" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S393" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T393" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U393" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V393" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W393" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X393" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y393" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z393" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA393" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB393" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC393" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD393" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="394" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A394" s="4">
+        <v>45571.881279131943</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D394" s="5">
+        <v>20243032</v>
+      </c>
+      <c r="E394" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="F394" s="5">
+        <v>3</v>
+      </c>
+      <c r="G394" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H394" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I394" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J394" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K394" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L394" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M394" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N394" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O394" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P394" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q394" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R394" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S394" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T394" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U394" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V394" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W394" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X394" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y394" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z394" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA394" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB394" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC394" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD394" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="395" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A395" s="7">
+        <v>45571.890264305555</v>
+      </c>
+      <c r="B395" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D395" s="8">
+        <v>20222606</v>
+      </c>
+      <c r="E395" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F395" s="8">
+        <v>3</v>
+      </c>
+      <c r="G395" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H395" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I395" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J395" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K395" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L395" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M395" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N395" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O395" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P395" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q395" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R395" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S395" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T395" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U395" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V395" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W395" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X395" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y395" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z395" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA395" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB395" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC395" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD395" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="396" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A396" s="16">
+        <v>45571.907073599534</v>
+      </c>
+      <c r="B396" s="17" t="s">
+        <v>986</v>
+      </c>
+      <c r="C396" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D396" s="17">
+        <v>20182519</v>
+      </c>
+      <c r="E396" s="17" t="s">
+        <v>987</v>
+      </c>
+      <c r="F396" s="17">
+        <v>3</v>
+      </c>
+      <c r="G396" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H396" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I396" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J396" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K396" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L396" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M396" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N396" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O396" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P396" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q396" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R396" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S396" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T396" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U396" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V396" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="W396" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="X396" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y396" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z396" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA396" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB396" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC396" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD396" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="397" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A397" s="7">
+        <v>45571.914914212961</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D397" s="8">
+        <v>20205195</v>
+      </c>
+      <c r="E397" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="F397" s="8">
+        <v>3</v>
+      </c>
+      <c r="G397" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H397" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I397" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J397" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K397" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L397" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M397" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N397" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O397" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P397" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q397" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R397" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S397" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T397" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U397" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V397" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W397" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X397" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y397" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z397" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA397" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB397" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC397" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD397" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="398" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A398" s="4">
+        <v>45571.91700887731</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D398" s="5">
+        <v>20246932</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="F398" s="5">
+        <v>3</v>
+      </c>
+      <c r="G398" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H398" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I398" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J398" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K398" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L398" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M398" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N398" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O398" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P398" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q398" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R398" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S398" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="T398" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U398" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V398" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W398" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="X398" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y398" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z398" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA398" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB398" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC398" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD398" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="399" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A399" s="7">
+        <v>45571.920124259261</v>
+      </c>
+      <c r="B399" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D399" s="8">
+        <v>20192634</v>
+      </c>
+      <c r="E399" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="F399" s="8">
+        <v>3</v>
+      </c>
+      <c r="G399" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H399" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I399" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J399" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K399" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L399" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M399" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N399" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O399" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P399" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q399" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R399" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S399" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T399" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U399" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V399" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W399" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X399" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y399" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z399" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA399" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB399" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC399" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD399" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="400" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A400" s="4">
+        <v>45571.927768368056</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D400" s="5">
+        <v>20215199</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="F400" s="5">
+        <v>3</v>
+      </c>
+      <c r="G400" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H400" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I400" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J400" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K400" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L400" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="M400" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N400" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O400" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P400" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q400" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R400" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S400" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="T400" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U400" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="V400" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W400" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="X400" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y400" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z400" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA400" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB400" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC400" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD400" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="401" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A401" s="7">
+        <v>45571.938911736113</v>
+      </c>
+      <c r="B401" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D401" s="8">
+        <v>20242956</v>
+      </c>
+      <c r="E401" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="F401" s="8">
+        <v>3</v>
+      </c>
+      <c r="G401" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H401" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I401" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J401" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K401" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L401" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M401" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N401" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O401" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P401" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q401" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R401" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S401" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T401" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U401" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V401" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W401" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X401" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y401" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z401" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA401" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB401" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC401" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD401" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="402" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A402" s="4">
+        <v>45571.949017789353</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D402" s="5">
+        <v>20203211</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="F402" s="5">
+        <v>3</v>
+      </c>
+      <c r="G402" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H402" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I402" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J402" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K402" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L402" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M402" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N402" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O402" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P402" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q402" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R402" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S402" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T402" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U402" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="V402" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W402" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X402" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y402" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z402" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA402" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB402" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC402" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD402" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="403" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A403" s="7">
+        <v>45571.952060925927</v>
+      </c>
+      <c r="B403" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D403" s="8">
+        <v>20243939</v>
+      </c>
+      <c r="E403" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F403" s="8">
+        <v>3</v>
+      </c>
+      <c r="G403" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H403" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I403" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J403" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K403" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L403" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M403" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N403" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O403" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P403" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q403" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R403" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S403" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T403" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U403" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V403" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W403" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X403" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y403" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z403" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA403" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB403" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC403" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD403" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="404" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A404" s="4">
+        <v>45571.954713206018</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D404" s="5">
+        <v>20242636</v>
+      </c>
+      <c r="E404" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F404" s="5">
+        <v>3</v>
+      </c>
+      <c r="G404" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H404" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I404" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J404" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K404" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L404" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M404" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N404" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O404" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P404" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q404" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R404" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S404" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T404" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U404" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V404" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W404" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X404" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y404" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z404" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA404" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB404" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC404" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD404" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="405" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A405" s="7">
+        <v>45571.961079247689</v>
+      </c>
+      <c r="B405" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D405" s="8">
+        <v>20243001</v>
+      </c>
+      <c r="E405" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F405" s="8">
+        <v>3</v>
+      </c>
+      <c r="G405" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H405" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I405" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J405" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K405" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L405" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M405" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N405" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O405" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P405" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q405" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R405" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S405" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T405" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U405" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V405" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W405" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X405" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y405" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z405" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA405" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB405" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC405" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD405" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="406" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="4">
+        <v>45571.962926400462</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C406" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D406" s="5">
+        <v>20231623</v>
+      </c>
+      <c r="E406" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F406" s="5">
+        <v>3</v>
+      </c>
+      <c r="G406" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H406" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I406" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J406" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K406" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L406" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M406" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N406" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O406" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P406" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q406" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R406" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S406" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T406" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U406" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V406" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W406" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X406" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y406" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z406" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA406" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB406" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC406" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD406" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="407" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="7">
+        <v>45571.964145891208</v>
+      </c>
+      <c r="B407" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D407" s="8">
+        <v>20242824</v>
+      </c>
+      <c r="E407" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F407" s="8">
+        <v>3</v>
+      </c>
+      <c r="G407" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H407" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I407" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J407" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K407" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L407" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="M407" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N407" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="O407" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="P407" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q407" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="R407" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S407" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T407" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U407" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="V407" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W407" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="X407" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y407" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z407" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA407" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB407" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC407" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD407" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="408" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="4">
+        <v>45571.965810185182</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D408" s="5">
+        <v>20246942</v>
+      </c>
+      <c r="E408" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F408" s="5">
+        <v>3</v>
+      </c>
+      <c r="G408" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H408" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I408" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J408" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K408" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L408" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M408" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N408" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O408" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P408" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q408" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R408" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S408" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T408" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U408" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V408" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W408" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X408" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y408" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z408" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA408" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB408" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC408" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD408" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="409" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A409" s="7">
+        <v>45571.978636504631</v>
+      </c>
+      <c r="B409" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D409" s="8">
+        <v>20241503</v>
+      </c>
+      <c r="E409" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F409" s="8">
+        <v>3</v>
+      </c>
+      <c r="G409" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H409" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I409" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J409" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K409" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L409" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M409" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N409" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O409" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P409" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q409" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R409" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S409" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T409" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U409" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V409" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W409" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X409" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y409" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z409" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA409" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB409" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC409" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD409" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="410" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A410" s="4">
+        <v>45571.984171504635</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D410" s="5">
+        <v>20223010</v>
+      </c>
+      <c r="E410" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F410" s="5">
+        <v>3</v>
+      </c>
+      <c r="G410" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H410" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I410" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J410" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K410" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L410" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M410" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N410" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O410" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P410" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q410" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R410" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S410" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T410" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U410" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V410" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W410" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X410" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y410" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z410" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA410" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB410" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC410" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD410" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="411" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A411" s="7">
+        <v>45571.989378796294</v>
+      </c>
+      <c r="B411" s="8" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C411" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D411" s="8">
+        <v>20233846</v>
+      </c>
+      <c r="E411" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F411" s="8">
+        <v>3</v>
+      </c>
+      <c r="G411" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H411" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I411" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J411" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K411" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L411" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M411" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N411" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O411" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P411" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q411" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R411" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S411" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T411" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U411" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V411" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W411" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X411" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y411" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z411" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA411" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB411" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC411" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD411" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="412" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A412" s="4">
+        <v>45571.99716107639</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D412" s="5">
+        <v>20203352</v>
+      </c>
+      <c r="E412" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F412" s="5">
+        <v>3</v>
+      </c>
+      <c r="G412" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H412" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I412" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J412" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K412" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L412" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M412" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N412" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O412" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P412" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q412" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R412" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S412" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T412" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U412" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V412" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W412" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X412" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y412" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z412" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA412" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB412" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC412" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD412" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="413" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A413" s="7">
+        <v>45571.997394479171</v>
+      </c>
+      <c r="B413" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C413" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D413" s="8">
+        <v>20233930</v>
+      </c>
+      <c r="E413" s="8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F413" s="8">
+        <v>3</v>
+      </c>
+      <c r="G413" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H413" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I413" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J413" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K413" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L413" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M413" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N413" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O413" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P413" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q413" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R413" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S413" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T413" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U413" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V413" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W413" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X413" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y413" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z413" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA413" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB413" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC413" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD413" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="414" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A414" s="4">
+        <v>45572.004169259264</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D414" s="5">
+        <v>20245218</v>
+      </c>
+      <c r="E414" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F414" s="5">
+        <v>3</v>
+      </c>
+      <c r="G414" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H414" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I414" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J414" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K414" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L414" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M414" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N414" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O414" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P414" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q414" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R414" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S414" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T414" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U414" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V414" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W414" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X414" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y414" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z414" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA414" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB414" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC414" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD414" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="415" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A415" s="13">
+        <v>45572.011804652779</v>
+      </c>
+      <c r="B415" s="14" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C415" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="D415" s="14">
+        <v>20246902</v>
+      </c>
+      <c r="E415" s="14" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F415" s="14">
+        <v>4</v>
+      </c>
+      <c r="G415" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H415" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I415" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="J415" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="K415" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L415" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="M415" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N415" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O415" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="P415" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q415" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="R415" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S415" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="T415" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="U415" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="V415" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="W415" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="X415" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y415" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z415" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA415" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB415" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC415" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD415" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F76BFC-01EE-1048-9393-7FE3032644CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF44368-50CF-6B40-848C-313A4401AC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11208" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11667" uniqueCount="1060">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3104,6 +3104,102 @@
   </si>
   <si>
     <t>강명수</t>
+  </si>
+  <si>
+    <t>scott123498@naver.com</t>
+  </si>
+  <si>
+    <t>우성진</t>
+  </si>
+  <si>
+    <t>hyerujys2005@naver.com</t>
+  </si>
+  <si>
+    <t>정윤수</t>
+  </si>
+  <si>
+    <t>ohsolbi050521@gmail.com</t>
+  </si>
+  <si>
+    <t>오솔비</t>
+  </si>
+  <si>
+    <t>kylebusy@naver.com</t>
+  </si>
+  <si>
+    <t>이동훈</t>
+  </si>
+  <si>
+    <t>haeunlife@naver.com</t>
+  </si>
+  <si>
+    <t>오하은</t>
+  </si>
+  <si>
+    <t>yeonjej51@gmail.com</t>
+  </si>
+  <si>
+    <t>정연제</t>
+  </si>
+  <si>
+    <t>grace0388@naver.com</t>
+  </si>
+  <si>
+    <t>김하은</t>
+  </si>
+  <si>
+    <t>tpgus3737@gmail.com</t>
+  </si>
+  <si>
+    <t>박세현</t>
+  </si>
+  <si>
+    <t>loollypoolly@naver.com</t>
+  </si>
+  <si>
+    <t>김수정</t>
+  </si>
+  <si>
+    <t>bjw2934@naver.com</t>
+  </si>
+  <si>
+    <t>방정우</t>
+  </si>
+  <si>
+    <t>sf12nam@naver.com</t>
+  </si>
+  <si>
+    <t>남유정</t>
+  </si>
+  <si>
+    <t>ydchufd@naver.com</t>
+  </si>
+  <si>
+    <t>정유민</t>
+  </si>
+  <si>
+    <t>ljy46tkd@naver.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
+  </si>
+  <si>
+    <t>sbysooo@naver.com</t>
+  </si>
+  <si>
+    <t>신윤수</t>
+  </si>
+  <si>
+    <t>appmax1115@gmail.com</t>
+  </si>
+  <si>
+    <t>이민석</t>
+  </si>
+  <si>
+    <t>kmmyy209@gmail.com</t>
+  </si>
+  <si>
+    <t>김명은</t>
   </si>
 </sst>
 </file>
@@ -3518,7 +3614,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD415">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD432">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -3756,11 +3852,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD415"/>
+  <dimension ref="A1:AD432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D418" sqref="D418"/>
+      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D435" sqref="D435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -41973,6 +42069,1570 @@
         <v>214</v>
       </c>
     </row>
+    <row r="416" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A416" s="4">
+        <v>45572.071545104161</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D416" s="5">
+        <v>20246633</v>
+      </c>
+      <c r="E416" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F416" s="5">
+        <v>3</v>
+      </c>
+      <c r="G416" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H416" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I416" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J416" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K416" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L416" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M416" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N416" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O416" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P416" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q416" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R416" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S416" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T416" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U416" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V416" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W416" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X416" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y416" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z416" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA416" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB416" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC416" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD416" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="417" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A417" s="7">
+        <v>45572.073743796296</v>
+      </c>
+      <c r="B417" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C417" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D417" s="8">
+        <v>20242575</v>
+      </c>
+      <c r="E417" s="8" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F417" s="8">
+        <v>3</v>
+      </c>
+      <c r="G417" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H417" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I417" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J417" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K417" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L417" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M417" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N417" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O417" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P417" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q417" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R417" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S417" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T417" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U417" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V417" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W417" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X417" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y417" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z417" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA417" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB417" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC417" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD417" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="418" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A418" s="4">
+        <v>45572.493165995373</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D418" s="5">
+        <v>20246631</v>
+      </c>
+      <c r="E418" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F418" s="5">
+        <v>4</v>
+      </c>
+      <c r="G418" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H418" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I418" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J418" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K418" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L418" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M418" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N418" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O418" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P418" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q418" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R418" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S418" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T418" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U418" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V418" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W418" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X418" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y418" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z418" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA418" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB418" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC418" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD418" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="419" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A419" s="7">
+        <v>45572.497889849532</v>
+      </c>
+      <c r="B419" s="8" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C419" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D419" s="8">
+        <v>20212551</v>
+      </c>
+      <c r="E419" s="8" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F419" s="8">
+        <v>3</v>
+      </c>
+      <c r="G419" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H419" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I419" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J419" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K419" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L419" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M419" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N419" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O419" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P419" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q419" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R419" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S419" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T419" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U419" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V419" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W419" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X419" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y419" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z419" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA419" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB419" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC419" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD419" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="420" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A420" s="4">
+        <v>45572.502738506941</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D420" s="5">
+        <v>20242624</v>
+      </c>
+      <c r="E420" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F420" s="5">
+        <v>3</v>
+      </c>
+      <c r="G420" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H420" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I420" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J420" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K420" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L420" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M420" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N420" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O420" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P420" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q420" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R420" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S420" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T420" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U420" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V420" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W420" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X420" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y420" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z420" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA420" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB420" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC420" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD420" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="421" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A421" s="7">
+        <v>45572.559076898149</v>
+      </c>
+      <c r="B421" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C421" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D421" s="8">
+        <v>20241234</v>
+      </c>
+      <c r="E421" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F421" s="8">
+        <v>3</v>
+      </c>
+      <c r="G421" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H421" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I421" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J421" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K421" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L421" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M421" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N421" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O421" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P421" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q421" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R421" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S421" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T421" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U421" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V421" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W421" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X421" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y421" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z421" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA421" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB421" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC421" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD421" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="422" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A422" s="4">
+        <v>45572.57163619213</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D422" s="5">
+        <v>20222715</v>
+      </c>
+      <c r="E422" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F422" s="5">
+        <v>3</v>
+      </c>
+      <c r="G422" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H422" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I422" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J422" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K422" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L422" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M422" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N422" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O422" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P422" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q422" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R422" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S422" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T422" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U422" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V422" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W422" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X422" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y422" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z422" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA422" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB422" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC422" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD422" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="423" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A423" s="7">
+        <v>45572.651167152777</v>
+      </c>
+      <c r="B423" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C423" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D423" s="8">
+        <v>20241709</v>
+      </c>
+      <c r="E423" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F423" s="8">
+        <v>3</v>
+      </c>
+      <c r="G423" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H423" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I423" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J423" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K423" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L423" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M423" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N423" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O423" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P423" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q423" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R423" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S423" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T423" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U423" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V423" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W423" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X423" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y423" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z423" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA423" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB423" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC423" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD423" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="424" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A424" s="4">
+        <v>45572.670817650462</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D424" s="5">
+        <v>20223226</v>
+      </c>
+      <c r="E424" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F424" s="5">
+        <v>3</v>
+      </c>
+      <c r="G424" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H424" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I424" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J424" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K424" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L424" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M424" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N424" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O424" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P424" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q424" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R424" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S424" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T424" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U424" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V424" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W424" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X424" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y424" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z424" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA424" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB424" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC424" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD424" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="425" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A425" s="7">
+        <v>45572.680135659721</v>
+      </c>
+      <c r="B425" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C425" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D425" s="8">
+        <v>20243609</v>
+      </c>
+      <c r="E425" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F425" s="8">
+        <v>3</v>
+      </c>
+      <c r="G425" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H425" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I425" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J425" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K425" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L425" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M425" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N425" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O425" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P425" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q425" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R425" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S425" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T425" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U425" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V425" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W425" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X425" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y425" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z425" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA425" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB425" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC425" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD425" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="426" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A426" s="4">
+        <v>45572.762647418982</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D426" s="5">
+        <v>20205182</v>
+      </c>
+      <c r="E426" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F426" s="5">
+        <v>3</v>
+      </c>
+      <c r="G426" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H426" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I426" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J426" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K426" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L426" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M426" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N426" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O426" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P426" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q426" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R426" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S426" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T426" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U426" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V426" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W426" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X426" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y426" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z426" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA426" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB426" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC426" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD426" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="427" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A427" s="7">
+        <v>45572.766001886572</v>
+      </c>
+      <c r="B427" s="8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C427" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D427" s="8">
+        <v>20233716</v>
+      </c>
+      <c r="E427" s="8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F427" s="8">
+        <v>3</v>
+      </c>
+      <c r="G427" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H427" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I427" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J427" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K427" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L427" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M427" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N427" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O427" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P427" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q427" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R427" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S427" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T427" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U427" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V427" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W427" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X427" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y427" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z427" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA427" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB427" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC427" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD427" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="428" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A428" s="4">
+        <v>45572.76958310185</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D428" s="5">
+        <v>20242363</v>
+      </c>
+      <c r="E428" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F428" s="5">
+        <v>3</v>
+      </c>
+      <c r="G428" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H428" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I428" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J428" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K428" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L428" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M428" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N428" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O428" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P428" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q428" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R428" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S428" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T428" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U428" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V428" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W428" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X428" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y428" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z428" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA428" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB428" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC428" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD428" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="429" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A429" s="7">
+        <v>45572.908936168984</v>
+      </c>
+      <c r="B429" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C429" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D429" s="8">
+        <v>20242737</v>
+      </c>
+      <c r="E429" s="8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F429" s="8">
+        <v>3</v>
+      </c>
+      <c r="G429" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H429" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I429" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J429" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K429" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L429" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M429" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N429" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O429" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P429" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q429" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R429" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S429" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T429" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U429" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V429" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W429" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X429" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y429" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z429" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA429" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB429" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC429" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD429" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="430" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A430" s="4">
+        <v>45572.911429259257</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D430" s="5">
+        <v>20227155</v>
+      </c>
+      <c r="E430" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F430" s="5">
+        <v>3</v>
+      </c>
+      <c r="G430" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H430" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I430" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J430" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K430" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L430" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M430" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N430" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O430" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P430" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q430" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R430" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S430" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T430" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U430" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V430" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W430" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="X430" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y430" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z430" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA430" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB430" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC430" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD430" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="431" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A431" s="7">
+        <v>45572.938972905089</v>
+      </c>
+      <c r="B431" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C431" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D431" s="8">
+        <v>20246264</v>
+      </c>
+      <c r="E431" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F431" s="8">
+        <v>3</v>
+      </c>
+      <c r="G431" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H431" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I431" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J431" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K431" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L431" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M431" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N431" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O431" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P431" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q431" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R431" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S431" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T431" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U431" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V431" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W431" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X431" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y431" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z431" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA431" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB431" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC431" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD431" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="432" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A432" s="16">
+        <v>45572.974925856484</v>
+      </c>
+      <c r="B432" s="17" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C432" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D432" s="17">
+        <v>20231602</v>
+      </c>
+      <c r="E432" s="17" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F432" s="17">
+        <v>3</v>
+      </c>
+      <c r="G432" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H432" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I432" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J432" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K432" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="L432" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M432" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N432" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O432" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P432" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q432" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R432" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S432" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="T432" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U432" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="V432" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="W432" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="X432" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y432" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z432" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA432" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB432" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC432" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD432" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF44368-50CF-6B40-848C-313A4401AC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A120D51-B364-E146-A6EE-7FB300315749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11667" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11991" uniqueCount="1086">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3200,6 +3200,84 @@
   </si>
   <si>
     <t>김명은</t>
+  </si>
+  <si>
+    <t>dhpark25678@naver.com</t>
+  </si>
+  <si>
+    <t>박도현</t>
+  </si>
+  <si>
+    <t>imhyeongu00@gmail.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어전공</t>
+  </si>
+  <si>
+    <t>임현구</t>
+  </si>
+  <si>
+    <t>alsco92001@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+  </si>
+  <si>
+    <t>오민채</t>
+  </si>
+  <si>
+    <t>aks186@naver.com</t>
+  </si>
+  <si>
+    <t>안준선</t>
+  </si>
+  <si>
+    <t>bread0808@naver.com</t>
+  </si>
+  <si>
+    <t>김수민</t>
+  </si>
+  <si>
+    <t>gee30901@naver.com</t>
+  </si>
+  <si>
+    <t>박예원</t>
+  </si>
+  <si>
+    <t>kmc20051114@gmail.com</t>
+  </si>
+  <si>
+    <t>김민찬</t>
+  </si>
+  <si>
+    <t>leesy470666@gmail.com</t>
+  </si>
+  <si>
+    <t>이수용</t>
+  </si>
+  <si>
+    <t>dw060419@naver.com</t>
+  </si>
+  <si>
+    <t>김도원</t>
+  </si>
+  <si>
+    <t>andy041001@naver.com</t>
+  </si>
+  <si>
+    <t>이형범</t>
+  </si>
+  <si>
+    <t>ansk999@gmail.com</t>
+  </si>
+  <si>
+    <t>위수현</t>
+  </si>
+  <si>
+    <t>guswjd052428@naver.com</t>
+  </si>
+  <si>
+    <t>전현정</t>
   </si>
 </sst>
 </file>
@@ -3614,7 +3692,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD432">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD444">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -3852,11 +3930,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD432"/>
+  <dimension ref="A1:AD444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D435" sqref="D435"/>
+      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E449" sqref="E449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -43633,6 +43711,1110 @@
         <v>106</v>
       </c>
     </row>
+    <row r="433" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A433" s="7">
+        <v>45573.451646701389</v>
+      </c>
+      <c r="B433" s="8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C433" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D433" s="8">
+        <v>20223224</v>
+      </c>
+      <c r="E433" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F433" s="8">
+        <v>3</v>
+      </c>
+      <c r="G433" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H433" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I433" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J433" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="K433" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L433" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M433" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N433" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O433" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P433" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q433" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="R433" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S433" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T433" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U433" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V433" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W433" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X433" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y433" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z433" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA433" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB433" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC433" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD433" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="434" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A434" s="4">
+        <v>45573.453268645833</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C434" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D434" s="5">
+        <v>20192575</v>
+      </c>
+      <c r="E434" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F434" s="5">
+        <v>3</v>
+      </c>
+      <c r="G434" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H434" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I434" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J434" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K434" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L434" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M434" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N434" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O434" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P434" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q434" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R434" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S434" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T434" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U434" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V434" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W434" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X434" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y434" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z434" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA434" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB434" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC434" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD434" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="435" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A435" s="7">
+        <v>45573.526982349533</v>
+      </c>
+      <c r="B435" s="8" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C435" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D435" s="8">
+        <v>20245201</v>
+      </c>
+      <c r="E435" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F435" s="8">
+        <v>2</v>
+      </c>
+      <c r="G435" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H435" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I435" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J435" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K435" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L435" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M435" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N435" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O435" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P435" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q435" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R435" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S435" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T435" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U435" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V435" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="W435" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X435" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y435" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z435" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA435" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB435" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC435" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD435" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="436" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A436" s="4">
+        <v>45573.599552893516</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C436" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D436" s="5">
+        <v>20232728</v>
+      </c>
+      <c r="E436" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F436" s="5">
+        <v>3</v>
+      </c>
+      <c r="G436" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H436" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I436" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J436" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K436" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L436" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M436" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N436" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O436" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P436" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q436" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R436" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S436" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T436" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U436" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V436" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W436" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X436" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y436" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z436" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA436" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB436" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC436" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD436" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="437" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="7">
+        <v>45573.693644189814</v>
+      </c>
+      <c r="B437" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C437" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="D437" s="8">
+        <v>20246405</v>
+      </c>
+      <c r="E437" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F437" s="8">
+        <v>3</v>
+      </c>
+      <c r="G437" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H437" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I437" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J437" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K437" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L437" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M437" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N437" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O437" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P437" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q437" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R437" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S437" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T437" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U437" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V437" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W437" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X437" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y437" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z437" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA437" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB437" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC437" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD437" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="438" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="4">
+        <v>45573.717335312496</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D438" s="5">
+        <v>20246238</v>
+      </c>
+      <c r="E438" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F438" s="5">
+        <v>3</v>
+      </c>
+      <c r="G438" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H438" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I438" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J438" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K438" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L438" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M438" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N438" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O438" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P438" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q438" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R438" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S438" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T438" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U438" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V438" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W438" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X438" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y438" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z438" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA438" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB438" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC438" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD438" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="439" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A439" s="7">
+        <v>45573.798332789353</v>
+      </c>
+      <c r="B439" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C439" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D439" s="8">
+        <v>20243905</v>
+      </c>
+      <c r="E439" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F439" s="8">
+        <v>3</v>
+      </c>
+      <c r="G439" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H439" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I439" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J439" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K439" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L439" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M439" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N439" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O439" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P439" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q439" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R439" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S439" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T439" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U439" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V439" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W439" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X439" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y439" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z439" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA439" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB439" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC439" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD439" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="440" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A440" s="4">
+        <v>45573.798378495369</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D440" s="5">
+        <v>20243938</v>
+      </c>
+      <c r="E440" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F440" s="5">
+        <v>3</v>
+      </c>
+      <c r="G440" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H440" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I440" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J440" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K440" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L440" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M440" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N440" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O440" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P440" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q440" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R440" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S440" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T440" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U440" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V440" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W440" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X440" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y440" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z440" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA440" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB440" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC440" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD440" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="441" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A441" s="7">
+        <v>45573.810603159727</v>
+      </c>
+      <c r="B441" s="8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C441" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D441" s="8">
+        <v>20241509</v>
+      </c>
+      <c r="E441" s="8" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F441" s="8">
+        <v>3</v>
+      </c>
+      <c r="G441" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H441" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I441" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J441" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K441" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L441" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M441" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N441" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O441" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P441" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q441" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R441" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S441" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T441" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U441" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V441" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W441" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X441" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y441" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z441" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA441" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB441" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC441" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD441" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="442" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A442" s="4">
+        <v>45573.81060887732</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D442" s="5">
+        <v>20231720</v>
+      </c>
+      <c r="E442" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F442" s="5">
+        <v>3</v>
+      </c>
+      <c r="G442" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H442" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I442" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J442" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K442" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L442" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M442" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N442" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O442" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P442" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q442" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R442" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S442" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T442" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U442" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V442" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W442" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X442" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y442" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z442" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA442" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB442" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC442" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD442" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="443" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A443" s="7">
+        <v>45573.826103217594</v>
+      </c>
+      <c r="B443" s="8" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C443" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D443" s="8">
+        <v>20202736</v>
+      </c>
+      <c r="E443" s="8" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F443" s="8">
+        <v>3</v>
+      </c>
+      <c r="G443" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H443" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I443" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J443" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K443" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L443" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M443" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N443" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O443" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P443" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q443" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R443" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S443" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T443" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U443" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V443" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W443" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X443" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y443" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z443" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA443" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB443" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC443" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD443" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="444" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A444" s="16">
+        <v>45573.832913078702</v>
+      </c>
+      <c r="B444" s="17" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C444" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D444" s="17">
+        <v>20243029</v>
+      </c>
+      <c r="E444" s="17" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F444" s="17">
+        <v>3</v>
+      </c>
+      <c r="G444" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H444" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I444" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J444" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K444" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L444" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M444" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N444" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O444" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P444" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q444" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R444" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S444" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T444" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U444" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V444" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="W444" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="X444" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y444" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z444" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA444" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB444" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC444" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD444" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A120D51-B364-E146-A6EE-7FB300315749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFF8EBB-3507-F445-8C90-23B94155010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11991" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12342" uniqueCount="1115">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3278,6 +3278,93 @@
   </si>
   <si>
     <t>전현정</t>
+  </si>
+  <si>
+    <t>jour0526@naver.com</t>
+  </si>
+  <si>
+    <t>정주아</t>
+  </si>
+  <si>
+    <t>smartcindyya@gmail.com</t>
+  </si>
+  <si>
+    <t>박지현</t>
+  </si>
+  <si>
+    <t>solepkinsg@gmail.com</t>
+  </si>
+  <si>
+    <t>박인성</t>
+  </si>
+  <si>
+    <t>sonsumin0304@naver.com</t>
+  </si>
+  <si>
+    <t>손수민</t>
+  </si>
+  <si>
+    <t>ahfahf12@gmail.com</t>
+  </si>
+  <si>
+    <t>김원준</t>
+  </si>
+  <si>
+    <t>cyj292513@naver.com</t>
+  </si>
+  <si>
+    <t>최영준</t>
+  </si>
+  <si>
+    <t>ksy91637@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트IOT</t>
+  </si>
+  <si>
+    <t>김성열</t>
+  </si>
+  <si>
+    <t>dlxotjq27@gmail.com</t>
+  </si>
+  <si>
+    <t>이태섭</t>
+  </si>
+  <si>
+    <t>jseonghun411@gmail.com</t>
+  </si>
+  <si>
+    <t>정성훈</t>
+  </si>
+  <si>
+    <t>fruitekomi@naver.com</t>
+  </si>
+  <si>
+    <t>김예은</t>
+  </si>
+  <si>
+    <t>ziva0726@naver.com</t>
+  </si>
+  <si>
+    <t>김소현</t>
+  </si>
+  <si>
+    <t>hg2635394@gmail.com</t>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>김현준</t>
+  </si>
+  <si>
+    <t>mjsong4130@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합학부 ai로봇융합전공</t>
+  </si>
+  <si>
+    <t>송민재</t>
   </si>
 </sst>
 </file>
@@ -3692,7 +3779,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD444">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD457">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -3930,11 +4017,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD444"/>
+  <dimension ref="A1:AD457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E449" sqref="E449"/>
+      <selection pane="bottomLeft" activeCell="E460" sqref="E460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -44815,6 +44902,1202 @@
         <v>56</v>
       </c>
     </row>
+    <row r="445" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A445" s="7">
+        <v>45573.866891168982</v>
+      </c>
+      <c r="B445" s="8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C445" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D445" s="8">
+        <v>20242576</v>
+      </c>
+      <c r="E445" s="8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F445" s="8">
+        <v>3</v>
+      </c>
+      <c r="G445" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H445" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I445" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J445" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K445" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L445" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M445" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N445" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O445" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P445" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q445" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R445" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S445" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T445" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U445" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V445" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W445" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X445" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y445" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z445" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA445" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB445" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC445" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD445" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="446" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A446" s="4">
+        <v>45573.872782997685</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D446" s="5">
+        <v>20245172</v>
+      </c>
+      <c r="E446" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F446" s="5">
+        <v>3</v>
+      </c>
+      <c r="G446" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H446" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I446" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J446" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K446" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L446" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M446" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N446" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O446" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P446" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q446" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R446" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S446" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T446" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U446" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V446" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W446" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X446" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y446" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z446" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA446" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB446" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC446" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD446" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="447" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A447" s="7">
+        <v>45573.875549583332</v>
+      </c>
+      <c r="B447" s="8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C447" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D447" s="8">
+        <v>20236615</v>
+      </c>
+      <c r="E447" s="8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F447" s="8">
+        <v>3</v>
+      </c>
+      <c r="G447" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H447" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I447" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J447" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K447" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L447" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M447" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N447" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O447" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P447" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q447" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R447" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S447" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T447" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U447" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V447" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W447" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X447" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y447" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z447" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA447" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB447" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC447" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD447" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="448" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A448" s="4">
+        <v>45573.895094548614</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C448" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D448" s="5">
+        <v>20226748</v>
+      </c>
+      <c r="E448" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F448" s="5">
+        <v>3</v>
+      </c>
+      <c r="G448" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H448" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I448" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J448" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K448" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L448" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="M448" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N448" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O448" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P448" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q448" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R448" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="S448" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T448" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U448" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V448" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W448" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X448" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y448" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z448" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA448" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB448" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC448" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD448" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="449" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A449" s="7">
+        <v>45573.911164131947</v>
+      </c>
+      <c r="B449" s="8" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C449" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D449" s="8">
+        <v>20202408</v>
+      </c>
+      <c r="E449" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F449" s="8">
+        <v>3</v>
+      </c>
+      <c r="G449" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H449" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I449" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J449" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K449" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L449" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M449" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N449" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O449" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P449" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q449" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R449" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S449" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T449" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U449" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V449" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W449" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X449" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y449" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z449" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA449" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB449" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC449" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD449" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="450" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A450" s="4">
+        <v>45573.930042395834</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D450" s="5">
+        <v>20242440</v>
+      </c>
+      <c r="E450" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F450" s="5">
+        <v>2</v>
+      </c>
+      <c r="G450" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H450" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I450" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J450" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K450" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L450" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="M450" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N450" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O450" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P450" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q450" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="R450" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S450" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T450" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U450" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V450" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W450" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="X450" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y450" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z450" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA450" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB450" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC450" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD450" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="451" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A451" s="7">
+        <v>45574.021973263894</v>
+      </c>
+      <c r="B451" s="8" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C451" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D451" s="8">
+        <v>20205139</v>
+      </c>
+      <c r="E451" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F451" s="8">
+        <v>3</v>
+      </c>
+      <c r="G451" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H451" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I451" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J451" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K451" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L451" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M451" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N451" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O451" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P451" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q451" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R451" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S451" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T451" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U451" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V451" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W451" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X451" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y451" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z451" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA451" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB451" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC451" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD451" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="452" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A452" s="4">
+        <v>45574.049641550926</v>
+      </c>
+      <c r="B452" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D452" s="5">
+        <v>20213023</v>
+      </c>
+      <c r="E452" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F452" s="5">
+        <v>3</v>
+      </c>
+      <c r="G452" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H452" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I452" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J452" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K452" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L452" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M452" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N452" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O452" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P452" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q452" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R452" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S452" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T452" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U452" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V452" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W452" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X452" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y452" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z452" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA452" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB452" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC452" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD452" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="453" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A453" s="7">
+        <v>45574.138297905098</v>
+      </c>
+      <c r="B453" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C453" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D453" s="8">
+        <v>20243031</v>
+      </c>
+      <c r="E453" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F453" s="8">
+        <v>3</v>
+      </c>
+      <c r="G453" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H453" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I453" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J453" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K453" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L453" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M453" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N453" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O453" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P453" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q453" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R453" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S453" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T453" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U453" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="V453" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W453" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X453" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y453" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z453" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA453" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB453" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC453" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD453" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="454" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A454" s="4">
+        <v>45574.181740127315</v>
+      </c>
+      <c r="B454" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C454" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D454" s="5">
+        <v>20233710</v>
+      </c>
+      <c r="E454" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F454" s="5">
+        <v>3</v>
+      </c>
+      <c r="G454" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H454" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I454" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J454" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K454" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L454" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M454" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N454" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O454" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P454" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q454" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R454" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S454" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T454" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U454" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V454" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W454" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X454" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y454" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z454" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA454" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB454" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC454" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD454" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="455" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A455" s="7">
+        <v>45574.28508037037</v>
+      </c>
+      <c r="B455" s="8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C455" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D455" s="8">
+        <v>20212104</v>
+      </c>
+      <c r="E455" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F455" s="8">
+        <v>3</v>
+      </c>
+      <c r="G455" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H455" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I455" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J455" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K455" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L455" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M455" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N455" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O455" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P455" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q455" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R455" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S455" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T455" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U455" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V455" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W455" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X455" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y455" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z455" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA455" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB455" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC455" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD455" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="456" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A456" s="4">
+        <v>45574.470003622686</v>
+      </c>
+      <c r="B456" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D456" s="5">
+        <v>20231033</v>
+      </c>
+      <c r="E456" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F456" s="5">
+        <v>3</v>
+      </c>
+      <c r="G456" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H456" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I456" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J456" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K456" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L456" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M456" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N456" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O456" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P456" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q456" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="R456" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S456" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T456" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U456" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="V456" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W456" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="X456" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y456" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z456" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA456" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB456" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC456" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD456" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="457" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A457" s="13">
+        <v>45574.488359374998</v>
+      </c>
+      <c r="B457" s="14" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C457" s="14" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D457" s="14">
+        <v>20236736</v>
+      </c>
+      <c r="E457" s="14" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F457" s="14">
+        <v>3</v>
+      </c>
+      <c r="G457" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H457" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I457" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J457" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K457" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L457" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M457" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="N457" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O457" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P457" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q457" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R457" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S457" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="T457" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U457" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V457" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="W457" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="X457" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y457" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z457" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA457" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB457" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC457" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD457" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFF8EBB-3507-F445-8C90-23B94155010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91338A20-B76B-414D-8AAF-23F2220F5C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12342" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12909" uniqueCount="1158">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3365,6 +3365,135 @@
   </si>
   <si>
     <t>송민재</t>
+  </si>
+  <si>
+    <t>kgh1321@gmail.com</t>
+  </si>
+  <si>
+    <t>pjobin0821@naver.com</t>
+  </si>
+  <si>
+    <t>조유빈</t>
+  </si>
+  <si>
+    <t>ian5791@naver.com</t>
+  </si>
+  <si>
+    <t>박수현</t>
+  </si>
+  <si>
+    <t>fred0203@naver.com</t>
+  </si>
+  <si>
+    <t>언어청각학부 청각학전공</t>
+  </si>
+  <si>
+    <t>이강준</t>
+  </si>
+  <si>
+    <t>whdudgus1013@gmail.com</t>
+  </si>
+  <si>
+    <t>조영현</t>
+  </si>
+  <si>
+    <t>jym85362@naver.com</t>
+  </si>
+  <si>
+    <t>유수현</t>
+  </si>
+  <si>
+    <t>leyy2k@naver.com</t>
+  </si>
+  <si>
+    <t>김대현</t>
+  </si>
+  <si>
+    <t>050624alex@gmail.com</t>
+  </si>
+  <si>
+    <t>이승현</t>
+  </si>
+  <si>
+    <t>asdigydus@gmail.com</t>
+  </si>
+  <si>
+    <t>김지윤</t>
+  </si>
+  <si>
+    <t>nwjcq14@naver.com</t>
+  </si>
+  <si>
+    <t>임미정</t>
+  </si>
+  <si>
+    <t>marlboroe53@naver.com</t>
+  </si>
+  <si>
+    <t>반디스쿨</t>
+  </si>
+  <si>
+    <t>happyrovot88@gmail.com</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>tlsh1282@naver.com</t>
+  </si>
+  <si>
+    <t>융합관광경영</t>
+  </si>
+  <si>
+    <t>원세한</t>
+  </si>
+  <si>
+    <t>tqwquqqi@naver.com</t>
+  </si>
+  <si>
+    <t>강하늘</t>
+  </si>
+  <si>
+    <t>goeunsue@naver.com</t>
+  </si>
+  <si>
+    <t>고은수</t>
+  </si>
+  <si>
+    <t>20217096@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>sky0219msh@naver.com</t>
+  </si>
+  <si>
+    <t>최하늘</t>
+  </si>
+  <si>
+    <t>creeper_a@naver.com</t>
+  </si>
+  <si>
+    <t>최대현</t>
+  </si>
+  <si>
+    <t>chhs337@naver.com</t>
+  </si>
+  <si>
+    <t>최홍서</t>
+  </si>
+  <si>
+    <t>taehwankim05@gmail.com</t>
+  </si>
+  <si>
+    <t>김태환</t>
+  </si>
+  <si>
+    <t>bluelion-gbn9981@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">화학과 </t>
+  </si>
+  <si>
+    <t>구보늬</t>
   </si>
 </sst>
 </file>
@@ -3779,7 +3908,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD457">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD478">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -4017,11 +4146,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD457"/>
+  <dimension ref="A1:AD478"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E460" sqref="E460"/>
+      <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E488" sqref="E488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -46098,6 +46227,1938 @@
         <v>56</v>
       </c>
     </row>
+    <row r="458" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A458" s="4">
+        <v>45574.552087465279</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D458" s="5">
+        <v>20242914</v>
+      </c>
+      <c r="E458" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="F458" s="5">
+        <v>3</v>
+      </c>
+      <c r="G458" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H458" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I458" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J458" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K458" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L458" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M458" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N458" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O458" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P458" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q458" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R458" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S458" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T458" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U458" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V458" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W458" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X458" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y458" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z458" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA458" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB458" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC458" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD458" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="459" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A459" s="7">
+        <v>45574.589485555553</v>
+      </c>
+      <c r="B459" s="8" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C459" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D459" s="8">
+        <v>20241730</v>
+      </c>
+      <c r="E459" s="8" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F459" s="8">
+        <v>3</v>
+      </c>
+      <c r="G459" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H459" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I459" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J459" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K459" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L459" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M459" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N459" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O459" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P459" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q459" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="R459" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S459" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T459" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U459" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="V459" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W459" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X459" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y459" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z459" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA459" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB459" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC459" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD459" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="460" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A460" s="4">
+        <v>45574.618342314818</v>
+      </c>
+      <c r="B460" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D460" s="5">
+        <v>20241520</v>
+      </c>
+      <c r="E460" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F460" s="5">
+        <v>3</v>
+      </c>
+      <c r="G460" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H460" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I460" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J460" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K460" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L460" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M460" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N460" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O460" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P460" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q460" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R460" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S460" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T460" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U460" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="V460" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W460" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X460" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y460" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z460" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA460" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB460" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC460" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD460" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="461" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A461" s="7">
+        <v>45574.62264386574</v>
+      </c>
+      <c r="B461" s="8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C461" s="8" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D461" s="8">
+        <v>20227091</v>
+      </c>
+      <c r="E461" s="8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F461" s="8">
+        <v>3</v>
+      </c>
+      <c r="G461" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H461" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I461" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J461" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K461" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L461" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M461" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N461" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O461" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P461" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q461" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R461" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S461" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T461" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U461" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V461" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W461" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X461" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y461" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z461" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA461" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB461" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC461" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD461" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="462" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A462" s="4">
+        <v>45574.641092465274</v>
+      </c>
+      <c r="B462" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C462" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D462" s="5">
+        <v>20243253</v>
+      </c>
+      <c r="E462" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F462" s="5">
+        <v>3</v>
+      </c>
+      <c r="G462" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H462" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I462" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J462" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K462" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L462" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M462" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N462" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O462" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P462" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q462" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R462" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S462" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T462" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U462" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V462" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W462" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X462" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y462" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z462" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA462" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB462" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC462" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD462" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="463" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A463" s="7">
+        <v>45574.679259421297</v>
+      </c>
+      <c r="B463" s="8" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C463" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D463" s="8">
+        <v>20243234</v>
+      </c>
+      <c r="E463" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F463" s="8">
+        <v>3</v>
+      </c>
+      <c r="G463" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H463" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I463" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J463" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K463" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L463" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M463" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N463" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O463" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P463" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q463" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R463" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S463" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T463" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U463" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="V463" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W463" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X463" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y463" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z463" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA463" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB463" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC463" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD463" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="464" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A464" s="4">
+        <v>45574.699991747686</v>
+      </c>
+      <c r="B464" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C464" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D464" s="5">
+        <v>20215115</v>
+      </c>
+      <c r="E464" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F464" s="5">
+        <v>3</v>
+      </c>
+      <c r="G464" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H464" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I464" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J464" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K464" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L464" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M464" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N464" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O464" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P464" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q464" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R464" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="S464" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T464" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U464" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V464" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W464" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X464" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y464" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z464" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA464" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB464" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC464" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD464" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="465" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A465" s="7">
+        <v>45574.70604020833</v>
+      </c>
+      <c r="B465" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C465" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D465" s="8">
+        <v>20245224</v>
+      </c>
+      <c r="E465" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F465" s="8">
+        <v>3</v>
+      </c>
+      <c r="G465" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H465" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I465" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J465" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K465" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L465" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M465" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N465" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O465" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P465" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q465" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R465" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S465" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T465" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U465" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V465" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W465" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X465" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y465" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z465" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA465" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB465" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC465" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD465" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="466" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A466" s="16">
+        <v>45574.711660277782</v>
+      </c>
+      <c r="B466" s="17" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C466" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D466" s="17">
+        <v>20243912</v>
+      </c>
+      <c r="E466" s="17" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F466" s="17">
+        <v>3</v>
+      </c>
+      <c r="G466" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H466" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I466" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J466" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K466" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L466" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M466" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="N466" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O466" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P466" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q466" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R466" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S466" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T466" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U466" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V466" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="W466" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="X466" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y466" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z466" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA466" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB466" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC466" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD466" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="467" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A467" s="7">
+        <v>45574.752481261574</v>
+      </c>
+      <c r="B467" s="8" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C467" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D467" s="8">
+        <v>20216631</v>
+      </c>
+      <c r="E467" s="8" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F467" s="8">
+        <v>3</v>
+      </c>
+      <c r="G467" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H467" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I467" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J467" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K467" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L467" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M467" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N467" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O467" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P467" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q467" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R467" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S467" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T467" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U467" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V467" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W467" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X467" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y467" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z467" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA467" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB467" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC467" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD467" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="468" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A468" s="4">
+        <v>45574.757909143518</v>
+      </c>
+      <c r="B468" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C468" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D468" s="5">
+        <v>20203302</v>
+      </c>
+      <c r="E468" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="F468" s="5">
+        <v>3</v>
+      </c>
+      <c r="G468" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H468" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I468" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J468" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K468" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L468" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M468" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N468" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O468" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="P468" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q468" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R468" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="S468" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T468" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U468" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V468" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W468" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="X468" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y468" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z468" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA468" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB468" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC468" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD468" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="469" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A469" s="7">
+        <v>45574.777222881945</v>
+      </c>
+      <c r="B469" s="8" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C469" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D469" s="8">
+        <v>20242919</v>
+      </c>
+      <c r="E469" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F469" s="8">
+        <v>3</v>
+      </c>
+      <c r="G469" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H469" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I469" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J469" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K469" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L469" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M469" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N469" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O469" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P469" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q469" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R469" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S469" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T469" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U469" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V469" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W469" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X469" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y469" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z469" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA469" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB469" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC469" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD469" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="470" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A470" s="4">
+        <v>45574.793566261578</v>
+      </c>
+      <c r="B470" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C470" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D470" s="5">
+        <v>20206623</v>
+      </c>
+      <c r="E470" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F470" s="5">
+        <v>3</v>
+      </c>
+      <c r="G470" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H470" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I470" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J470" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K470" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L470" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M470" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N470" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O470" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P470" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q470" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R470" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S470" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T470" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U470" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V470" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W470" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X470" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y470" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z470" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA470" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB470" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC470" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD470" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="471" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A471" s="7">
+        <v>45574.800136550926</v>
+      </c>
+      <c r="B471" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C471" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D471" s="8">
+        <v>20222905</v>
+      </c>
+      <c r="E471" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F471" s="8">
+        <v>3</v>
+      </c>
+      <c r="G471" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H471" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I471" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J471" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K471" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L471" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M471" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N471" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O471" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P471" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q471" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R471" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S471" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T471" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U471" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V471" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W471" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X471" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y471" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z471" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA471" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB471" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC471" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD471" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="472" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A472" s="4">
+        <v>45574.821344687502</v>
+      </c>
+      <c r="B472" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D472" s="5">
+        <v>20242907</v>
+      </c>
+      <c r="E472" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F472" s="5">
+        <v>3</v>
+      </c>
+      <c r="G472" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H472" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I472" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J472" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K472" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L472" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M472" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N472" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O472" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P472" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q472" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R472" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S472" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T472" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U472" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V472" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W472" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X472" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y472" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z472" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA472" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB472" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC472" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD472" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="473" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A473" s="7">
+        <v>45574.821912233798</v>
+      </c>
+      <c r="B473" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C473" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D473" s="8">
+        <v>20217096</v>
+      </c>
+      <c r="E473" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="F473" s="8">
+        <v>3</v>
+      </c>
+      <c r="G473" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H473" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I473" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J473" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K473" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L473" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M473" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N473" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O473" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P473" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q473" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="R473" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="S473" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T473" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U473" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="V473" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W473" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X473" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y473" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z473" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA473" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB473" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC473" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD473" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="474" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A474" s="4">
+        <v>45574.844324166668</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C474" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D474" s="5">
+        <v>20201108</v>
+      </c>
+      <c r="E474" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F474" s="5">
+        <v>3</v>
+      </c>
+      <c r="G474" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H474" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I474" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J474" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K474" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L474" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M474" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N474" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O474" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P474" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q474" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R474" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S474" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T474" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U474" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V474" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W474" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X474" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y474" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z474" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA474" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB474" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC474" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD474" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="475" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A475" s="7">
+        <v>45574.854636874996</v>
+      </c>
+      <c r="B475" s="8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C475" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D475" s="8">
+        <v>20194153</v>
+      </c>
+      <c r="E475" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F475" s="8">
+        <v>3</v>
+      </c>
+      <c r="G475" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H475" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I475" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J475" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K475" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L475" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M475" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N475" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O475" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P475" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q475" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R475" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S475" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T475" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U475" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V475" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W475" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X475" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y475" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z475" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA475" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB475" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC475" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD475" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="476" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A476" s="4">
+        <v>45574.860762349534</v>
+      </c>
+      <c r="B476" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C476" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D476" s="5">
+        <v>20183006</v>
+      </c>
+      <c r="E476" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F476" s="5">
+        <v>3</v>
+      </c>
+      <c r="G476" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H476" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I476" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J476" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K476" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L476" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M476" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N476" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O476" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P476" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q476" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R476" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S476" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T476" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U476" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V476" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W476" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X476" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y476" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z476" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA476" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB476" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC476" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD476" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="477" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A477" s="7">
+        <v>45574.8710775</v>
+      </c>
+      <c r="B477" s="8" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C477" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D477" s="8">
+        <v>20242411</v>
+      </c>
+      <c r="E477" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F477" s="8">
+        <v>3</v>
+      </c>
+      <c r="G477" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H477" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I477" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J477" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K477" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L477" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M477" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N477" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O477" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P477" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q477" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R477" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="S477" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T477" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U477" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V477" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W477" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X477" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y477" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z477" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA477" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB477" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC477" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD477" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="478" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A478" s="16">
+        <v>45574.891109976852</v>
+      </c>
+      <c r="B478" s="17" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C478" s="17" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D478" s="17">
+        <v>20243403</v>
+      </c>
+      <c r="E478" s="17" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F478" s="17">
+        <v>3</v>
+      </c>
+      <c r="G478" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H478" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I478" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J478" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K478" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L478" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M478" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N478" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O478" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P478" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q478" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R478" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S478" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T478" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U478" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V478" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="W478" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="X478" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y478" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z478" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA478" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB478" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC478" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD478" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91338A20-B76B-414D-8AAF-23F2220F5C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414AE403-A01C-E94E-B835-6ACE7502861D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12909" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13125" uniqueCount="1173">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3494,6 +3494,51 @@
   </si>
   <si>
     <t>구보늬</t>
+  </si>
+  <si>
+    <t>tjwjddn1130@naver.com</t>
+  </si>
+  <si>
+    <t>서정우</t>
+  </si>
+  <si>
+    <t>kwonseoyoung0923@gmail.com</t>
+  </si>
+  <si>
+    <t>권서영</t>
+  </si>
+  <si>
+    <t>jkmy2516@naver.com</t>
+  </si>
+  <si>
+    <t>장석빈</t>
+  </si>
+  <si>
+    <t>rladud30601@naver.com</t>
+  </si>
+  <si>
+    <t>김영</t>
+  </si>
+  <si>
+    <t>ydy7495@naver.com</t>
+  </si>
+  <si>
+    <t>윤다연</t>
+  </si>
+  <si>
+    <t>hmg4898@naver.com</t>
+  </si>
+  <si>
+    <t>한민교</t>
+  </si>
+  <si>
+    <t>mongsik5@naver.com</t>
+  </si>
+  <si>
+    <t>jinhee1082@naver.com</t>
+  </si>
+  <si>
+    <t>박진희</t>
   </si>
 </sst>
 </file>
@@ -3908,7 +3953,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD478">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD486">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -4146,11 +4191,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD478"/>
+  <dimension ref="A1:AD486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E488" sqref="E488"/>
+      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B493" sqref="B493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -48159,6 +48204,742 @@
         <v>56</v>
       </c>
     </row>
+    <row r="479" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A479" s="7">
+        <v>45574.921053101847</v>
+      </c>
+      <c r="B479" s="8" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C479" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D479" s="8">
+        <v>20213064</v>
+      </c>
+      <c r="E479" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F479" s="8">
+        <v>3</v>
+      </c>
+      <c r="G479" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H479" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I479" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J479" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K479" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L479" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M479" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N479" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O479" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P479" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q479" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R479" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S479" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T479" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U479" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V479" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W479" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X479" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y479" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z479" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA479" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB479" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC479" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD479" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="480" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A480" s="4">
+        <v>45574.922871527779</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D480" s="5">
+        <v>20243606</v>
+      </c>
+      <c r="E480" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F480" s="5">
+        <v>3</v>
+      </c>
+      <c r="G480" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H480" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I480" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J480" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K480" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L480" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M480" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N480" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O480" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P480" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q480" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R480" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S480" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T480" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U480" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V480" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W480" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X480" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y480" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z480" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA480" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB480" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC480" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD480" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="481" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A481" s="7">
+        <v>45574.984532233793</v>
+      </c>
+      <c r="B481" s="8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C481" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D481" s="8">
+        <v>20191084</v>
+      </c>
+      <c r="E481" s="8" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F481" s="8">
+        <v>3</v>
+      </c>
+      <c r="G481" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H481" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I481" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J481" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K481" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L481" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M481" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N481" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O481" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P481" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q481" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R481" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S481" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T481" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U481" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V481" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W481" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X481" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y481" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z481" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA481" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB481" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC481" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD481" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="482" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A482" s="4">
+        <v>45575.046768888889</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C482" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D482" s="5">
+        <v>20202925</v>
+      </c>
+      <c r="E482" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F482" s="5">
+        <v>3</v>
+      </c>
+      <c r="G482" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H482" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I482" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J482" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K482" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L482" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M482" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N482" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O482" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P482" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q482" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R482" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S482" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T482" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U482" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V482" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W482" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X482" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y482" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z482" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA482" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB482" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC482" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD482" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="483" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A483" s="7">
+        <v>45575.081515428239</v>
+      </c>
+      <c r="B483" s="8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C483" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D483" s="8">
+        <v>20242423</v>
+      </c>
+      <c r="E483" s="8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F483" s="8">
+        <v>3</v>
+      </c>
+      <c r="G483" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H483" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I483" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J483" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K483" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L483" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M483" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N483" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O483" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P483" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q483" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R483" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S483" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T483" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U483" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V483" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W483" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X483" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y483" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z483" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA483" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB483" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC483" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD483" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="484" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A484" s="4">
+        <v>45575.086302534721</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C484" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="D484" s="5">
+        <v>20191106</v>
+      </c>
+      <c r="E484" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F484" s="5">
+        <v>3</v>
+      </c>
+      <c r="G484" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H484" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I484" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J484" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K484" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L484" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M484" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N484" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O484" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P484" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q484" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R484" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S484" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T484" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U484" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V484" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W484" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X484" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y484" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z484" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA484" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB484" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC484" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD484" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="485" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A485" s="7">
+        <v>45575.103457627316</v>
+      </c>
+      <c r="B485" s="8" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C485" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D485" s="8">
+        <v>20202809</v>
+      </c>
+      <c r="E485" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F485" s="8">
+        <v>3</v>
+      </c>
+      <c r="G485" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H485" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I485" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J485" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K485" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L485" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M485" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N485" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O485" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P485" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q485" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R485" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S485" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T485" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U485" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V485" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W485" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X485" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y485" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z485" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA485" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB485" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC485" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD485" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="486" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A486" s="16">
+        <v>45575.468998229167</v>
+      </c>
+      <c r="B486" s="17" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C486" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D486" s="17">
+        <v>20222530</v>
+      </c>
+      <c r="E486" s="17" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F486" s="17">
+        <v>3</v>
+      </c>
+      <c r="G486" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H486" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I486" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J486" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K486" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="L486" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M486" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N486" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O486" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P486" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q486" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="R486" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S486" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T486" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="U486" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V486" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="W486" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="X486" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y486" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z486" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA486" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB486" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC486" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD486" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414AE403-A01C-E94E-B835-6ACE7502861D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4650A17-D825-CD49-8BAD-0B96B5A1AA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13125" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13935" uniqueCount="1235">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3539,6 +3539,192 @@
   </si>
   <si>
     <t>박진희</t>
+  </si>
+  <si>
+    <t>wjdalsrb303@naver.com</t>
+  </si>
+  <si>
+    <t>정민규</t>
+  </si>
+  <si>
+    <t>chaecjb@naver.com</t>
+  </si>
+  <si>
+    <t>채희수</t>
+  </si>
+  <si>
+    <t>kimdongx0813@gmail.com</t>
+  </si>
+  <si>
+    <t>phc5120@naver.com</t>
+  </si>
+  <si>
+    <t>박희철</t>
+  </si>
+  <si>
+    <t>httv08@naver.com</t>
+  </si>
+  <si>
+    <t>전현태</t>
+  </si>
+  <si>
+    <t>lgc01040089921@gmail.com</t>
+  </si>
+  <si>
+    <t>이감찬</t>
+  </si>
+  <si>
+    <t>kimhemi05@gmail.com</t>
+  </si>
+  <si>
+    <t>김혜미</t>
+  </si>
+  <si>
+    <t>jangsinhyeog6@gmail.com</t>
+  </si>
+  <si>
+    <t>장신혁</t>
+  </si>
+  <si>
+    <t>hyeonse0@naver.com</t>
+  </si>
+  <si>
+    <t>황현서</t>
+  </si>
+  <si>
+    <t>eunjin6604__@naver.com</t>
+  </si>
+  <si>
+    <t>남은진</t>
+  </si>
+  <si>
+    <t>krdevmon@gmail.com</t>
+  </si>
+  <si>
+    <t>안봉근</t>
+  </si>
+  <si>
+    <t>solar08230@naver.com</t>
+  </si>
+  <si>
+    <t>안다빈</t>
+  </si>
+  <si>
+    <t>misunhong0707@gmail.com</t>
+  </si>
+  <si>
+    <t>홍미선</t>
+  </si>
+  <si>
+    <t>hyj13223@naver.com</t>
+  </si>
+  <si>
+    <t>이현진</t>
+  </si>
+  <si>
+    <t>mmin121420@naver.com</t>
+  </si>
+  <si>
+    <t>김승민</t>
+  </si>
+  <si>
+    <t>tidlswjddms@naver.com</t>
+  </si>
+  <si>
+    <t>임정은</t>
+  </si>
+  <si>
+    <t>alwo990@naver.com</t>
+  </si>
+  <si>
+    <t>서정웅</t>
+  </si>
+  <si>
+    <t>gmldbs0812@gmail.com</t>
+  </si>
+  <si>
+    <t>식품영양</t>
+  </si>
+  <si>
+    <t>강희윤</t>
+  </si>
+  <si>
+    <t>bamddol2@gmail.com</t>
+  </si>
+  <si>
+    <t>조찬영</t>
+  </si>
+  <si>
+    <t>ade1125@naver.com</t>
+  </si>
+  <si>
+    <t>안다은</t>
+  </si>
+  <si>
+    <t>dlalstmd03@gmail.com</t>
+  </si>
+  <si>
+    <t>이민승</t>
+  </si>
+  <si>
+    <t>silpy2000@icloud.com</t>
+  </si>
+  <si>
+    <t>이윤건</t>
+  </si>
+  <si>
+    <t>joon020978@gmail.com</t>
+  </si>
+  <si>
+    <t>이준</t>
+  </si>
+  <si>
+    <t>jhry0903@naver.com</t>
+  </si>
+  <si>
+    <t>조하령</t>
+  </si>
+  <si>
+    <t>yeonju455@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">미래융합스쿨 </t>
+  </si>
+  <si>
+    <t>정연주</t>
+  </si>
+  <si>
+    <t>thdl6767@naver.com</t>
+  </si>
+  <si>
+    <t>임소이</t>
+  </si>
+  <si>
+    <t>saeul05@gmail.com</t>
+  </si>
+  <si>
+    <t>문새울</t>
+  </si>
+  <si>
+    <t>sjw9802@naver.com</t>
+  </si>
+  <si>
+    <t>선지우</t>
+  </si>
+  <si>
+    <t>choikang2010@naver.com</t>
+  </si>
+  <si>
+    <t>최연희</t>
+  </si>
+  <si>
+    <t>빅데이터전공</t>
+  </si>
+  <si>
+    <t>wooyoomilk@naver.com</t>
+  </si>
+  <si>
+    <t>우연준</t>
   </si>
 </sst>
 </file>
@@ -3953,7 +4139,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD486">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD516">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -4191,11 +4377,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD486"/>
+  <dimension ref="A1:AD516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B493" sqref="B493"/>
+      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E523" sqref="E523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -48940,6 +49126,2766 @@
         <v>56</v>
       </c>
     </row>
+    <row r="487" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A487" s="7">
+        <v>45575.529590624996</v>
+      </c>
+      <c r="B487" s="8" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C487" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D487" s="8">
+        <v>20202431</v>
+      </c>
+      <c r="E487" s="8" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F487" s="8">
+        <v>1</v>
+      </c>
+      <c r="G487" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H487" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I487" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J487" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K487" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L487" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M487" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N487" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O487" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P487" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q487" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R487" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S487" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="T487" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U487" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="V487" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W487" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X487" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y487" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z487" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA487" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB487" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC487" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD487" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="488" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A488" s="4">
+        <v>45575.549348842593</v>
+      </c>
+      <c r="B488" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D488" s="5">
+        <v>20203046</v>
+      </c>
+      <c r="E488" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F488" s="5">
+        <v>3</v>
+      </c>
+      <c r="G488" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H488" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I488" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J488" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K488" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L488" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M488" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N488" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O488" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P488" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q488" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R488" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S488" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T488" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U488" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V488" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W488" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X488" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y488" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z488" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA488" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB488" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC488" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD488" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="489" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A489" s="7">
+        <v>45575.605630740742</v>
+      </c>
+      <c r="B489" s="8" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C489" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D489" s="8">
+        <v>20182308</v>
+      </c>
+      <c r="E489" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F489" s="8">
+        <v>3</v>
+      </c>
+      <c r="G489" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H489" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I489" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J489" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K489" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L489" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M489" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N489" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O489" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P489" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q489" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R489" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S489" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T489" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U489" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V489" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W489" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X489" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y489" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z489" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA489" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB489" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC489" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD489" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="490" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A490" s="4">
+        <v>45575.642438831019</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D490" s="5">
+        <v>20183824</v>
+      </c>
+      <c r="E490" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F490" s="5">
+        <v>3</v>
+      </c>
+      <c r="G490" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H490" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I490" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J490" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K490" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L490" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M490" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N490" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O490" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P490" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q490" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R490" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S490" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T490" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U490" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V490" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W490" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X490" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y490" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z490" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA490" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB490" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC490" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD490" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="491" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A491" s="7">
+        <v>45575.644963541665</v>
+      </c>
+      <c r="B491" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C491" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D491" s="8">
+        <v>20212566</v>
+      </c>
+      <c r="E491" s="8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F491" s="8">
+        <v>3</v>
+      </c>
+      <c r="G491" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H491" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I491" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J491" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K491" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L491" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M491" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N491" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O491" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P491" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q491" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R491" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S491" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T491" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U491" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V491" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W491" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X491" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y491" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z491" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA491" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB491" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC491" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD491" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="492" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A492" s="4">
+        <v>45575.658296875001</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="D492" s="5">
+        <v>20242995</v>
+      </c>
+      <c r="E492" s="5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F492" s="5">
+        <v>3</v>
+      </c>
+      <c r="G492" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H492" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I492" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J492" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K492" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L492" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M492" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N492" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O492" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P492" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q492" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R492" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S492" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T492" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U492" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V492" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W492" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X492" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y492" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z492" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA492" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB492" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC492" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD492" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="493" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A493" s="7">
+        <v>45575.691100532407</v>
+      </c>
+      <c r="B493" s="8" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C493" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D493" s="8">
+        <v>20242112</v>
+      </c>
+      <c r="E493" s="8" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F493" s="8">
+        <v>3</v>
+      </c>
+      <c r="G493" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H493" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I493" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J493" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K493" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L493" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M493" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N493" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O493" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P493" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q493" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R493" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S493" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T493" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U493" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V493" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W493" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X493" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y493" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z493" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA493" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB493" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC493" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD493" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="494" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A494" s="4">
+        <v>45575.691527627314</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D494" s="5">
+        <v>20246768</v>
+      </c>
+      <c r="E494" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F494" s="5">
+        <v>3</v>
+      </c>
+      <c r="G494" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H494" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I494" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J494" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K494" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L494" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M494" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N494" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O494" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P494" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q494" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R494" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="S494" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T494" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U494" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V494" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W494" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X494" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y494" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z494" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA494" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB494" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC494" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD494" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="495" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A495" s="7">
+        <v>45575.70766237269</v>
+      </c>
+      <c r="B495" s="8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C495" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D495" s="8">
+        <v>20202761</v>
+      </c>
+      <c r="E495" s="8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F495" s="8">
+        <v>3</v>
+      </c>
+      <c r="G495" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H495" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I495" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J495" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K495" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L495" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M495" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N495" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O495" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P495" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q495" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R495" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S495" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T495" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U495" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V495" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W495" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X495" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y495" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z495" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA495" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB495" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC495" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD495" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="496" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A496" s="16">
+        <v>45575.72797206018</v>
+      </c>
+      <c r="B496" s="17" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C496" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="D496" s="17">
+        <v>20233408</v>
+      </c>
+      <c r="E496" s="17" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F496" s="17">
+        <v>3</v>
+      </c>
+      <c r="G496" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H496" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I496" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="J496" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="K496" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="L496" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M496" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="N496" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O496" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="P496" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q496" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R496" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S496" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T496" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="U496" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="V496" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="W496" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="X496" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y496" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z496" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA496" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB496" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC496" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD496" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="497" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A497" s="7">
+        <v>45575.808615601854</v>
+      </c>
+      <c r="B497" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C497" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D497" s="8">
+        <v>20227143</v>
+      </c>
+      <c r="E497" s="8" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F497" s="8">
+        <v>3</v>
+      </c>
+      <c r="G497" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H497" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I497" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J497" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K497" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L497" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M497" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N497" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O497" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P497" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q497" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R497" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S497" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T497" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U497" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V497" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W497" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X497" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y497" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z497" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA497" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB497" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC497" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD497" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="498" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A498" s="4">
+        <v>45575.84103038194</v>
+      </c>
+      <c r="B498" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C498" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D498" s="5">
+        <v>20216628</v>
+      </c>
+      <c r="E498" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F498" s="5">
+        <v>3</v>
+      </c>
+      <c r="G498" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H498" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I498" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J498" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K498" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L498" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M498" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N498" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O498" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P498" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q498" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R498" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S498" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T498" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U498" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V498" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W498" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X498" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y498" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z498" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA498" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB498" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC498" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD498" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="499" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A499" s="7">
+        <v>45575.938725636574</v>
+      </c>
+      <c r="B499" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C499" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D499" s="8">
+        <v>20242230</v>
+      </c>
+      <c r="E499" s="8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F499" s="8">
+        <v>3</v>
+      </c>
+      <c r="G499" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H499" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I499" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J499" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K499" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L499" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M499" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N499" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O499" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P499" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q499" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R499" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S499" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T499" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U499" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V499" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W499" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X499" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y499" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z499" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA499" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB499" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC499" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD499" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="500" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A500" s="4">
+        <v>45575.975387175931</v>
+      </c>
+      <c r="B500" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C500" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D500" s="5">
+        <v>20241097</v>
+      </c>
+      <c r="E500" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F500" s="5">
+        <v>3</v>
+      </c>
+      <c r="G500" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H500" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I500" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J500" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K500" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L500" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M500" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N500" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O500" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P500" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q500" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R500" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S500" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T500" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U500" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V500" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W500" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="X500" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y500" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z500" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA500" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB500" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC500" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD500" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="501" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A501" s="7">
+        <v>45576.432896215279</v>
+      </c>
+      <c r="B501" s="8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C501" s="8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D501" s="8">
+        <v>20226638</v>
+      </c>
+      <c r="E501" s="8" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F501" s="8">
+        <v>3</v>
+      </c>
+      <c r="G501" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H501" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I501" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J501" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K501" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L501" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M501" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N501" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O501" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P501" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q501" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R501" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S501" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T501" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U501" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V501" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W501" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X501" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y501" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z501" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA501" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB501" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC501" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD501" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="502" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A502" s="4">
+        <v>45576.454694259257</v>
+      </c>
+      <c r="B502" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C502" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D502" s="5">
+        <v>20232745</v>
+      </c>
+      <c r="E502" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F502" s="5">
+        <v>3</v>
+      </c>
+      <c r="G502" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H502" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I502" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J502" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K502" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L502" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M502" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N502" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O502" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P502" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q502" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R502" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S502" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T502" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U502" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="V502" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W502" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X502" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y502" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z502" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA502" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB502" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC502" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD502" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="503" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A503" s="7">
+        <v>45576.479221631947</v>
+      </c>
+      <c r="B503" s="8" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C503" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D503" s="8">
+        <v>20246621</v>
+      </c>
+      <c r="E503" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F503" s="8">
+        <v>4</v>
+      </c>
+      <c r="G503" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H503" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I503" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J503" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K503" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L503" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="M503" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N503" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O503" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P503" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q503" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="R503" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S503" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T503" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U503" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="V503" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W503" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X503" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y503" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z503" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA503" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB503" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC503" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD503" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="504" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A504" s="4">
+        <v>45576.506851979168</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D504" s="5">
+        <v>20243622</v>
+      </c>
+      <c r="E504" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F504" s="5">
+        <v>3</v>
+      </c>
+      <c r="G504" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H504" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I504" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J504" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K504" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L504" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M504" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N504" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O504" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P504" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q504" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R504" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S504" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="T504" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U504" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V504" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W504" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X504" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y504" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z504" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA504" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB504" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC504" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD504" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="505" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A505" s="7">
+        <v>45576.510242615739</v>
+      </c>
+      <c r="B505" s="8" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C505" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D505" s="8">
+        <v>20222238</v>
+      </c>
+      <c r="E505" s="8" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F505" s="8">
+        <v>3</v>
+      </c>
+      <c r="G505" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H505" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I505" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J505" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K505" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L505" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M505" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N505" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O505" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P505" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q505" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R505" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S505" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T505" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U505" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V505" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W505" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X505" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y505" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z505" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA505" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB505" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC505" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD505" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="506" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A506" s="4">
+        <v>45576.562904363425</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C506" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D506" s="5">
+        <v>20246940</v>
+      </c>
+      <c r="E506" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F506" s="5">
+        <v>3</v>
+      </c>
+      <c r="G506" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H506" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I506" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J506" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K506" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L506" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M506" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N506" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O506" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P506" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q506" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R506" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S506" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T506" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U506" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V506" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W506" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X506" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y506" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z506" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA506" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB506" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC506" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD506" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="507" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A507" s="7">
+        <v>45576.569485300926</v>
+      </c>
+      <c r="B507" s="8" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C507" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D507" s="8">
+        <v>20221717</v>
+      </c>
+      <c r="E507" s="8" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F507" s="8">
+        <v>3</v>
+      </c>
+      <c r="G507" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H507" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I507" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J507" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K507" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L507" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M507" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N507" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O507" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P507" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q507" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R507" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S507" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T507" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U507" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V507" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W507" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X507" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y507" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z507" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA507" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB507" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC507" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD507" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="508" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A508" s="4">
+        <v>45576.609954421292</v>
+      </c>
+      <c r="B508" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C508" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D508" s="5">
+        <v>20212432</v>
+      </c>
+      <c r="E508" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F508" s="5">
+        <v>3</v>
+      </c>
+      <c r="G508" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H508" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I508" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J508" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K508" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L508" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M508" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N508" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O508" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P508" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q508" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R508" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S508" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T508" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U508" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V508" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W508" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X508" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y508" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z508" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA508" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB508" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC508" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD508" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="509" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A509" s="7">
+        <v>45576.642497604167</v>
+      </c>
+      <c r="B509" s="8" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C509" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D509" s="8">
+        <v>20244110</v>
+      </c>
+      <c r="E509" s="8" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F509" s="8">
+        <v>3</v>
+      </c>
+      <c r="G509" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H509" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I509" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J509" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K509" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L509" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M509" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N509" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O509" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P509" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q509" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R509" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S509" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T509" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U509" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="V509" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="W509" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X509" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y509" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z509" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA509" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB509" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC509" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD509" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="510" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A510" s="4">
+        <v>45576.669556550929</v>
+      </c>
+      <c r="B510" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C510" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D510" s="5">
+        <v>20205198</v>
+      </c>
+      <c r="E510" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F510" s="5">
+        <v>3</v>
+      </c>
+      <c r="G510" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H510" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I510" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J510" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K510" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L510" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M510" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N510" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O510" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P510" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q510" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R510" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S510" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T510" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U510" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V510" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W510" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X510" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y510" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z510" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA510" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB510" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC510" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD510" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="511" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A511" s="7">
+        <v>45576.680508078702</v>
+      </c>
+      <c r="B511" s="8" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C511" s="8" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D511" s="8">
+        <v>20205240</v>
+      </c>
+      <c r="E511" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F511" s="8">
+        <v>3</v>
+      </c>
+      <c r="G511" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H511" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I511" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J511" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K511" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L511" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M511" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N511" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O511" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P511" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q511" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R511" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S511" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T511" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U511" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V511" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W511" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X511" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y511" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z511" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA511" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB511" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC511" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD511" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="512" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A512" s="4">
+        <v>45576.682775046298</v>
+      </c>
+      <c r="B512" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C512" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D512" s="5">
+        <v>20207133</v>
+      </c>
+      <c r="E512" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F512" s="5">
+        <v>3</v>
+      </c>
+      <c r="G512" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H512" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I512" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J512" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K512" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L512" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="M512" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N512" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O512" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P512" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q512" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R512" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S512" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="T512" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U512" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="V512" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W512" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="X512" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y512" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z512" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA512" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB512" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC512" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD512" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="513" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A513" s="7">
+        <v>45576.732832291666</v>
+      </c>
+      <c r="B513" s="8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C513" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D513" s="8">
+        <v>20161632</v>
+      </c>
+      <c r="E513" s="8" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F513" s="8">
+        <v>3</v>
+      </c>
+      <c r="G513" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H513" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I513" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J513" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K513" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L513" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M513" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N513" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O513" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P513" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q513" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R513" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S513" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T513" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U513" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V513" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W513" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X513" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y513" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z513" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA513" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB513" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC513" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD513" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="514" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A514" s="4">
+        <v>45576.735766180558</v>
+      </c>
+      <c r="B514" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C514" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D514" s="5">
+        <v>20223801</v>
+      </c>
+      <c r="E514" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F514" s="5">
+        <v>3</v>
+      </c>
+      <c r="G514" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H514" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I514" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J514" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K514" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L514" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M514" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N514" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O514" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P514" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q514" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R514" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S514" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T514" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U514" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V514" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W514" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X514" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y514" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z514" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA514" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB514" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC514" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD514" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="515" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A515" s="7">
+        <v>45576.762286851852</v>
+      </c>
+      <c r="B515" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C515" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D515" s="8">
+        <v>20232548</v>
+      </c>
+      <c r="E515" s="8" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F515" s="8">
+        <v>3</v>
+      </c>
+      <c r="G515" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H515" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I515" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J515" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K515" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L515" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M515" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N515" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O515" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P515" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q515" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R515" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S515" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T515" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U515" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V515" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W515" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X515" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y515" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z515" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA515" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB515" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC515" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD515" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="516" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A516" s="16">
+        <v>45576.779388240742</v>
+      </c>
+      <c r="B516" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C516" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D516" s="17">
+        <v>20242988</v>
+      </c>
+      <c r="E516" s="17" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F516" s="17">
+        <v>3</v>
+      </c>
+      <c r="G516" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H516" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I516" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J516" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K516" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L516" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M516" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N516" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O516" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P516" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q516" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R516" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S516" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T516" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U516" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V516" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="W516" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="X516" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y516" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z516" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA516" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB516" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC516" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD516" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4650A17-D825-CD49-8BAD-0B96B5A1AA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA25317-3D75-CC4F-A4F5-C7FCB32E4C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13935" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14367" uniqueCount="1269">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3725,6 +3725,109 @@
   </si>
   <si>
     <t>우연준</t>
+  </si>
+  <si>
+    <t>akeb110@naver.com</t>
+  </si>
+  <si>
+    <t>김은빈</t>
+  </si>
+  <si>
+    <t>ahry60006@naver.com</t>
+  </si>
+  <si>
+    <t>김성진</t>
+  </si>
+  <si>
+    <t>pa0833@naver.com</t>
+  </si>
+  <si>
+    <t>반도체</t>
+  </si>
+  <si>
+    <t>박상준</t>
+  </si>
+  <si>
+    <t>hyu05145@naver.com</t>
+  </si>
+  <si>
+    <t>정서진</t>
+  </si>
+  <si>
+    <t>thddnjs1030@naver.com</t>
+  </si>
+  <si>
+    <t>박송원</t>
+  </si>
+  <si>
+    <t>jerryterryharry@gmail.com</t>
+  </si>
+  <si>
+    <t>문진영</t>
+  </si>
+  <si>
+    <t>xormr1505@naver.com</t>
+  </si>
+  <si>
+    <t>박찬원</t>
+  </si>
+  <si>
+    <t>ywj0423@gmail.com</t>
+  </si>
+  <si>
+    <t>장예원</t>
+  </si>
+  <si>
+    <t>sujdiamond@gmail.com</t>
+  </si>
+  <si>
+    <t>심유진</t>
+  </si>
+  <si>
+    <t>jhkm7400@gmail.com</t>
+  </si>
+  <si>
+    <t>김유건</t>
+  </si>
+  <si>
+    <t>ysuyes@gmail.com</t>
+  </si>
+  <si>
+    <t>hanyeong09@naver.com</t>
+  </si>
+  <si>
+    <t>이한영</t>
+  </si>
+  <si>
+    <t>junseok5310@naver.com</t>
+  </si>
+  <si>
+    <t>오준석</t>
+  </si>
+  <si>
+    <t>ksol902@naver.com</t>
+  </si>
+  <si>
+    <t>데이터 사이언스 학부</t>
+  </si>
+  <si>
+    <t>김은솔</t>
+  </si>
+  <si>
+    <t>pugagi77@gmail.com</t>
+  </si>
+  <si>
+    <t>홍성화</t>
+  </si>
+  <si>
+    <t>njhouuu05@naver.com</t>
+  </si>
+  <si>
+    <t>남진호</t>
+  </si>
+  <si>
+    <t>윤승욱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3734,7 +3837,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3754,6 +3857,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4034,7 +4144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4090,6 +4200,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4139,7 +4252,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD516">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD532">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -4377,11 +4490,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD516"/>
+  <dimension ref="A1:AD532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E523" sqref="E523"/>
+      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F527" sqref="F527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -51886,6 +51999,1478 @@
         <v>56</v>
       </c>
     </row>
+    <row r="517" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A517" s="7">
+        <v>45576.813729409725</v>
+      </c>
+      <c r="B517" s="8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C517" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D517" s="8">
+        <v>20231708</v>
+      </c>
+      <c r="E517" s="8" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F517" s="8">
+        <v>3</v>
+      </c>
+      <c r="G517" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H517" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I517" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J517" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K517" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L517" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M517" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N517" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O517" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P517" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q517" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R517" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S517" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T517" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U517" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V517" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W517" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X517" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y517" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z517" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA517" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB517" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC517" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD517" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="518" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A518" s="4">
+        <v>45576.834145127315</v>
+      </c>
+      <c r="B518" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C518" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D518" s="5">
+        <v>20202708</v>
+      </c>
+      <c r="E518" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F518" s="5">
+        <v>3</v>
+      </c>
+      <c r="G518" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H518" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I518" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J518" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K518" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L518" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M518" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N518" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O518" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P518" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q518" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R518" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S518" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T518" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U518" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V518" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W518" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X518" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y518" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z518" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA518" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB518" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC518" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD518" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="519" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A519" s="7">
+        <v>45576.846100787036</v>
+      </c>
+      <c r="B519" s="8" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C519" s="8" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D519" s="8">
+        <v>20203322</v>
+      </c>
+      <c r="E519" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F519" s="8">
+        <v>3</v>
+      </c>
+      <c r="G519" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H519" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I519" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J519" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K519" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L519" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M519" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N519" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O519" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P519" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q519" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R519" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S519" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T519" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U519" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V519" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W519" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X519" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y519" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z519" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA519" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB519" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC519" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD519" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="520" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A520" s="4">
+        <v>45576.875445127313</v>
+      </c>
+      <c r="B520" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C520" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D520" s="5">
+        <v>20172433</v>
+      </c>
+      <c r="E520" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F520" s="5">
+        <v>3</v>
+      </c>
+      <c r="G520" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H520" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I520" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J520" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K520" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L520" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M520" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N520" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O520" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="P520" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q520" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="R520" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S520" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T520" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U520" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V520" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W520" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X520" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y520" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z520" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA520" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB520" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC520" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD520" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="521" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A521" s="7">
+        <v>45576.878201377316</v>
+      </c>
+      <c r="B521" s="8" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C521" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D521" s="8">
+        <v>20171035</v>
+      </c>
+      <c r="E521" s="8" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F521" s="8">
+        <v>3</v>
+      </c>
+      <c r="G521" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H521" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I521" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J521" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K521" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L521" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M521" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N521" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O521" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P521" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q521" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R521" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S521" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T521" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U521" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V521" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W521" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X521" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y521" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z521" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA521" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB521" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC521" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD521" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="522" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A522" s="4">
+        <v>45576.906916388893</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C522" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D522" s="5">
+        <v>20205162</v>
+      </c>
+      <c r="E522" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F522" s="5">
+        <v>3</v>
+      </c>
+      <c r="G522" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H522" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I522" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J522" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K522" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L522" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M522" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N522" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O522" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P522" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q522" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R522" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S522" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T522" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U522" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V522" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W522" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X522" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y522" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z522" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA522" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB522" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC522" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD522" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="523" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A523" s="7">
+        <v>45576.948380081019</v>
+      </c>
+      <c r="B523" s="8" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C523" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D523" s="8">
+        <v>20205176</v>
+      </c>
+      <c r="E523" s="8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F523" s="8">
+        <v>3</v>
+      </c>
+      <c r="G523" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H523" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I523" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J523" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K523" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L523" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M523" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N523" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O523" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P523" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q523" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R523" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S523" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T523" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U523" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V523" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W523" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X523" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y523" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z523" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA523" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB523" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC523" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD523" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="524" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A524" s="4">
+        <v>45576.976867337959</v>
+      </c>
+      <c r="B524" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C524" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D524" s="5">
+        <v>20241082</v>
+      </c>
+      <c r="E524" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F524" s="5">
+        <v>3</v>
+      </c>
+      <c r="G524" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H524" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I524" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J524" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K524" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L524" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M524" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N524" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O524" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P524" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q524" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R524" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S524" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T524" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U524" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V524" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W524" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X524" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y524" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z524" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA524" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB524" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC524" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD524" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="525" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A525" s="7">
+        <v>45577.025582256945</v>
+      </c>
+      <c r="B525" s="8" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C525" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D525" s="8">
+        <v>20243627</v>
+      </c>
+      <c r="E525" s="8" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F525" s="8">
+        <v>3</v>
+      </c>
+      <c r="G525" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H525" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I525" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J525" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K525" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L525" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M525" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N525" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O525" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P525" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q525" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R525" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S525" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T525" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U525" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V525" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W525" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X525" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y525" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z525" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA525" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB525" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC525" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD525" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="526" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A526" s="4">
+        <v>45577.028401770833</v>
+      </c>
+      <c r="B526" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C526" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D526" s="5">
+        <v>20242932</v>
+      </c>
+      <c r="E526" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F526" s="5">
+        <v>3</v>
+      </c>
+      <c r="G526" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H526" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I526" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J526" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K526" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L526" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M526" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N526" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O526" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P526" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q526" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R526" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S526" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T526" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U526" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V526" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W526" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X526" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y526" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z526" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA526" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB526" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC526" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD526" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="527" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A527" s="7">
+        <v>45577.034809363424</v>
+      </c>
+      <c r="B527" s="8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C527" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D527" s="8">
+        <v>20242992</v>
+      </c>
+      <c r="E527" s="19" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F527" s="8">
+        <v>3</v>
+      </c>
+      <c r="G527" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H527" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I527" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J527" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K527" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L527" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M527" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N527" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O527" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P527" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q527" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R527" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S527" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T527" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U527" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V527" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W527" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X527" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y527" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z527" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA527" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB527" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC527" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD527" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="528" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A528" s="4">
+        <v>45577.044160648147</v>
+      </c>
+      <c r="B528" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C528" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D528" s="5">
+        <v>20203423</v>
+      </c>
+      <c r="E528" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F528" s="5">
+        <v>3</v>
+      </c>
+      <c r="G528" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H528" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I528" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J528" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K528" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L528" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M528" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N528" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O528" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P528" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q528" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R528" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S528" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T528" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U528" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V528" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W528" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X528" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y528" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z528" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA528" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB528" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC528" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD528" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="529" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A529" s="7">
+        <v>45577.084246967592</v>
+      </c>
+      <c r="B529" s="8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C529" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D529" s="8">
+        <v>20193626</v>
+      </c>
+      <c r="E529" s="8" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F529" s="8">
+        <v>3</v>
+      </c>
+      <c r="G529" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H529" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I529" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J529" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K529" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L529" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M529" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N529" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O529" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P529" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q529" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R529" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S529" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T529" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U529" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V529" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W529" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X529" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y529" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z529" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA529" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB529" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC529" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD529" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="530" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A530" s="4">
+        <v>45577.100789976852</v>
+      </c>
+      <c r="B530" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C530" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D530" s="5">
+        <v>20243215</v>
+      </c>
+      <c r="E530" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F530" s="5">
+        <v>3</v>
+      </c>
+      <c r="G530" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H530" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I530" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J530" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K530" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L530" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M530" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N530" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O530" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P530" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q530" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R530" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S530" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T530" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U530" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V530" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W530" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X530" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y530" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z530" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA530" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB530" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC530" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD530" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="531" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A531" s="7">
+        <v>45577.169179502314</v>
+      </c>
+      <c r="B531" s="8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C531" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D531" s="8">
+        <v>20223739</v>
+      </c>
+      <c r="E531" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F531" s="8">
+        <v>3</v>
+      </c>
+      <c r="G531" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H531" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I531" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J531" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K531" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L531" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M531" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N531" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O531" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P531" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q531" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R531" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S531" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T531" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U531" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V531" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W531" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X531" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y531" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z531" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA531" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB531" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC531" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD531" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="532" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A532" s="16">
+        <v>45577.191939537035</v>
+      </c>
+      <c r="B532" s="17" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C532" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D532" s="17">
+        <v>20245156</v>
+      </c>
+      <c r="E532" s="17" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F532" s="17">
+        <v>3</v>
+      </c>
+      <c r="G532" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H532" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I532" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J532" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K532" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L532" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M532" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N532" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O532" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P532" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q532" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R532" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S532" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T532" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U532" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V532" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="W532" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="X532" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y532" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z532" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA532" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB532" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC532" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD532" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA25317-3D75-CC4F-A4F5-C7FCB32E4C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C6A51C-EC48-1146-81A2-C204D5B5D7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14367" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15015" uniqueCount="1317">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3828,6 +3828,150 @@
   <si>
     <t>윤승욱</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kate7633@naver.com</t>
+  </si>
+  <si>
+    <t>이지수</t>
+  </si>
+  <si>
+    <t>haeyaxx@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경제학과 </t>
+  </si>
+  <si>
+    <t>차지혜</t>
+  </si>
+  <si>
+    <t>rhoy3156@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>노원철</t>
+  </si>
+  <si>
+    <t>yhh323@naver.com</t>
+  </si>
+  <si>
+    <t>유형호</t>
+  </si>
+  <si>
+    <t>kje9714@gmail.com</t>
+  </si>
+  <si>
+    <t>김재은</t>
+  </si>
+  <si>
+    <t>cbh3trust4@naver.com</t>
+  </si>
+  <si>
+    <t>조정현</t>
+  </si>
+  <si>
+    <t>sihyune1104@gmail.com</t>
+  </si>
+  <si>
+    <t>안시현</t>
+  </si>
+  <si>
+    <t>hcheon27@gmail.com</t>
+  </si>
+  <si>
+    <t>천하윤</t>
+  </si>
+  <si>
+    <t>yeon4262@naver.com</t>
+  </si>
+  <si>
+    <t>신수연</t>
+  </si>
+  <si>
+    <t>umsoobin5820@gmail.com</t>
+  </si>
+  <si>
+    <t>엄수빈</t>
+  </si>
+  <si>
+    <t>vldzmgha0609@gmail.com</t>
+  </si>
+  <si>
+    <t>김지수</t>
+  </si>
+  <si>
+    <t>bigeyejimmy1@naver.com</t>
+  </si>
+  <si>
+    <t>lapter1122@naver.com</t>
+  </si>
+  <si>
+    <t>진유진</t>
+  </si>
+  <si>
+    <t>lovearamis3@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터 테크</t>
+  </si>
+  <si>
+    <t>정현우</t>
+  </si>
+  <si>
+    <t>dydwndus1115@naver.com</t>
+  </si>
+  <si>
+    <t>용주연</t>
+  </si>
+  <si>
+    <t>chaseoyeon0103@naver.com</t>
+  </si>
+  <si>
+    <t>차서연</t>
+  </si>
+  <si>
+    <t>dltlgus1119@naver.com</t>
+  </si>
+  <si>
+    <t>이시현</t>
+  </si>
+  <si>
+    <t>dkddkd8480@gmail.com</t>
+  </si>
+  <si>
+    <t>유용재</t>
+  </si>
+  <si>
+    <t>osmokroyal1@gmail.com</t>
+  </si>
+  <si>
+    <t>오성민</t>
+  </si>
+  <si>
+    <t>sunkeun.han@gmail.com</t>
+  </si>
+  <si>
+    <t>한선근</t>
+  </si>
+  <si>
+    <t>wnsgud9624@naver.com</t>
+  </si>
+  <si>
+    <t>임준형</t>
+  </si>
+  <si>
+    <t>dbwjdgus03@naver.com</t>
+  </si>
+  <si>
+    <t>유정현</t>
+  </si>
+  <si>
+    <t>nye3796@gmail.com</t>
+  </si>
+  <si>
+    <t>노예은</t>
+  </si>
+  <si>
+    <t>soyeon2025@naver.com</t>
   </si>
 </sst>
 </file>
@@ -4252,7 +4396,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD532">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD556">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -4490,11 +4634,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD532"/>
+  <dimension ref="A1:AD556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F527" sqref="F527"/>
+      <pane ySplit="1" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E561" sqref="E561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -53471,6 +53615,2214 @@
         <v>56</v>
       </c>
     </row>
+    <row r="533" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A533" s="7">
+        <v>45577.484352106483</v>
+      </c>
+      <c r="B533" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C533" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D533" s="8">
+        <v>20242632</v>
+      </c>
+      <c r="E533" s="8" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F533" s="8">
+        <v>3</v>
+      </c>
+      <c r="G533" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H533" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I533" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J533" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K533" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L533" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M533" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N533" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O533" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P533" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q533" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R533" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S533" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T533" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U533" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V533" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W533" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X533" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y533" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z533" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA533" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB533" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC533" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD533" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="534" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A534" s="4">
+        <v>45577.495512754627</v>
+      </c>
+      <c r="B534" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C534" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D534" s="5">
+        <v>20212846</v>
+      </c>
+      <c r="E534" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F534" s="5">
+        <v>3</v>
+      </c>
+      <c r="G534" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H534" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I534" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J534" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K534" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L534" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M534" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N534" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O534" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P534" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q534" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R534" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S534" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T534" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U534" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V534" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W534" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X534" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y534" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z534" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA534" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB534" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC534" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD534" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="535" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A535" s="7">
+        <v>45577.504242395837</v>
+      </c>
+      <c r="B535" s="8" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C535" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D535" s="8">
+        <v>20202719</v>
+      </c>
+      <c r="E535" s="8" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F535" s="8">
+        <v>3</v>
+      </c>
+      <c r="G535" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H535" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I535" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J535" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K535" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L535" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M535" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N535" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O535" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P535" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q535" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R535" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S535" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T535" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U535" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V535" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W535" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X535" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y535" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z535" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA535" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB535" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC535" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD535" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="536" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A536" s="4">
+        <v>45577.531896840279</v>
+      </c>
+      <c r="B536" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C536" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D536" s="5">
+        <v>20184132</v>
+      </c>
+      <c r="E536" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F536" s="5">
+        <v>3</v>
+      </c>
+      <c r="G536" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H536" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I536" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J536" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K536" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L536" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M536" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N536" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O536" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P536" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q536" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R536" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S536" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T536" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U536" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V536" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W536" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X536" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y536" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z536" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA536" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB536" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC536" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD536" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="537" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A537" s="7">
+        <v>45577.535344097225</v>
+      </c>
+      <c r="B537" s="8" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C537" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D537" s="8">
+        <v>20233509</v>
+      </c>
+      <c r="E537" s="8" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F537" s="8">
+        <v>3</v>
+      </c>
+      <c r="G537" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H537" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I537" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J537" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K537" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L537" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M537" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N537" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O537" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P537" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q537" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R537" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S537" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T537" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U537" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V537" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W537" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X537" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y537" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z537" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA537" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB537" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC537" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD537" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="538" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A538" s="4">
+        <v>45577.548904374999</v>
+      </c>
+      <c r="B538" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C538" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D538" s="5">
+        <v>20242749</v>
+      </c>
+      <c r="E538" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F538" s="5">
+        <v>3</v>
+      </c>
+      <c r="G538" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H538" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I538" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J538" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K538" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L538" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M538" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N538" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O538" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P538" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q538" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R538" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S538" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T538" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U538" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V538" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W538" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X538" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y538" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z538" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA538" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB538" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC538" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD538" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="539" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A539" s="7">
+        <v>45577.553551689816</v>
+      </c>
+      <c r="B539" s="8" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C539" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D539" s="8">
+        <v>20232726</v>
+      </c>
+      <c r="E539" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F539" s="8">
+        <v>3</v>
+      </c>
+      <c r="G539" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H539" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I539" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J539" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K539" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L539" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M539" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N539" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O539" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P539" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q539" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R539" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S539" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T539" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U539" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V539" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W539" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X539" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y539" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z539" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA539" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB539" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC539" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD539" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="540" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A540" s="4">
+        <v>45577.569121134264</v>
+      </c>
+      <c r="B540" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C540" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D540" s="5">
+        <v>20246293</v>
+      </c>
+      <c r="E540" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F540" s="5">
+        <v>3</v>
+      </c>
+      <c r="G540" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H540" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I540" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J540" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K540" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L540" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M540" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N540" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O540" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P540" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q540" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R540" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S540" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T540" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U540" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V540" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W540" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X540" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y540" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z540" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA540" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB540" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC540" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD540" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="541" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A541" s="7">
+        <v>45577.571567129635</v>
+      </c>
+      <c r="B541" s="8" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C541" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D541" s="8">
+        <v>20223325</v>
+      </c>
+      <c r="E541" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F541" s="8">
+        <v>3</v>
+      </c>
+      <c r="G541" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H541" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I541" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J541" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K541" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L541" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M541" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N541" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O541" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P541" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q541" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R541" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S541" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T541" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U541" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V541" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W541" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X541" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y541" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z541" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA541" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB541" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC541" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD541" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="542" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A542" s="4">
+        <v>45577.589470324077</v>
+      </c>
+      <c r="B542" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C542" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D542" s="5">
+        <v>20242986</v>
+      </c>
+      <c r="E542" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F542" s="5">
+        <v>3</v>
+      </c>
+      <c r="G542" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H542" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I542" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J542" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K542" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L542" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M542" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N542" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O542" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P542" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q542" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R542" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S542" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T542" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U542" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V542" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W542" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X542" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y542" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z542" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA542" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB542" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC542" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD542" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="543" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A543" s="7">
+        <v>45577.591031944445</v>
+      </c>
+      <c r="B543" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C543" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D543" s="8">
+        <v>20227039</v>
+      </c>
+      <c r="E543" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F543" s="8">
+        <v>3</v>
+      </c>
+      <c r="G543" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H543" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I543" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J543" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K543" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L543" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M543" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N543" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O543" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P543" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q543" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R543" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S543" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T543" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U543" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V543" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W543" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X543" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y543" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z543" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA543" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB543" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC543" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD543" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="544" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A544" s="4">
+        <v>45577.596663194447</v>
+      </c>
+      <c r="B544" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C544" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D544" s="5">
+        <v>20182850</v>
+      </c>
+      <c r="E544" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F544" s="5">
+        <v>3</v>
+      </c>
+      <c r="G544" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H544" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I544" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J544" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K544" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L544" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M544" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N544" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O544" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P544" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q544" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R544" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S544" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T544" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U544" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V544" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W544" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X544" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y544" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z544" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA544" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB544" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC544" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD544" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="545" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A545" s="7">
+        <v>45577.620558078706</v>
+      </c>
+      <c r="B545" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C545" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D545" s="8">
+        <v>20232635</v>
+      </c>
+      <c r="E545" s="8" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F545" s="8">
+        <v>3</v>
+      </c>
+      <c r="G545" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H545" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I545" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J545" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K545" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L545" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M545" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N545" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O545" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P545" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q545" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R545" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S545" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T545" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U545" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V545" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W545" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X545" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y545" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z545" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA545" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB545" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC545" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD545" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="546" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A546" s="4">
+        <v>45577.631514953704</v>
+      </c>
+      <c r="B546" s="5" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C546" s="5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D546" s="5">
+        <v>20203251</v>
+      </c>
+      <c r="E546" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F546" s="5">
+        <v>3</v>
+      </c>
+      <c r="G546" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H546" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I546" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J546" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K546" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L546" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M546" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N546" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O546" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P546" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q546" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R546" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S546" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T546" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U546" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V546" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W546" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X546" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y546" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z546" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA546" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB546" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC546" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD546" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="547" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A547" s="7">
+        <v>45577.654752291666</v>
+      </c>
+      <c r="B547" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C547" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D547" s="8">
+        <v>20243723</v>
+      </c>
+      <c r="E547" s="8" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F547" s="8">
+        <v>3</v>
+      </c>
+      <c r="G547" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H547" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I547" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J547" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K547" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L547" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M547" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N547" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O547" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P547" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q547" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R547" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S547" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T547" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U547" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="V547" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W547" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X547" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y547" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z547" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA547" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB547" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC547" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD547" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="548" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A548" s="4">
+        <v>45577.670565034721</v>
+      </c>
+      <c r="B548" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C548" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D548" s="5">
+        <v>20241537</v>
+      </c>
+      <c r="E548" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F548" s="5">
+        <v>3</v>
+      </c>
+      <c r="G548" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H548" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I548" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J548" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K548" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L548" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M548" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N548" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O548" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P548" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q548" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R548" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S548" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T548" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U548" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V548" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W548" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X548" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y548" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z548" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA548" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB548" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC548" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD548" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="549" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A549" s="7">
+        <v>45577.705752847221</v>
+      </c>
+      <c r="B549" s="8" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C549" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D549" s="8">
+        <v>20205226</v>
+      </c>
+      <c r="E549" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F549" s="8">
+        <v>3</v>
+      </c>
+      <c r="G549" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H549" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I549" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J549" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K549" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L549" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M549" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N549" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O549" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P549" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q549" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R549" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S549" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T549" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U549" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V549" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W549" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X549" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y549" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z549" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA549" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB549" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC549" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD549" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="550" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A550" s="4">
+        <v>45577.714483275464</v>
+      </c>
+      <c r="B550" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C550" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D550" s="5">
+        <v>20243235</v>
+      </c>
+      <c r="E550" s="5" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F550" s="5">
+        <v>3</v>
+      </c>
+      <c r="G550" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H550" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I550" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J550" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K550" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L550" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M550" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N550" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O550" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P550" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q550" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R550" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S550" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T550" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U550" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V550" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W550" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X550" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y550" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z550" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA550" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB550" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC550" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD550" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="551" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A551" s="7">
+        <v>45577.780797893516</v>
+      </c>
+      <c r="B551" s="8" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C551" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D551" s="8">
+        <v>20241526</v>
+      </c>
+      <c r="E551" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F551" s="8">
+        <v>3</v>
+      </c>
+      <c r="G551" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H551" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I551" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J551" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K551" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L551" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M551" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N551" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O551" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P551" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q551" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R551" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S551" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T551" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U551" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V551" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W551" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X551" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y551" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z551" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA551" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB551" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC551" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD551" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="552" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A552" s="4">
+        <v>45577.783460543986</v>
+      </c>
+      <c r="B552" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C552" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D552" s="5">
+        <v>20213644</v>
+      </c>
+      <c r="E552" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F552" s="5">
+        <v>1</v>
+      </c>
+      <c r="G552" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H552" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I552" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="J552" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K552" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L552" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="M552" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N552" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O552" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P552" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q552" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R552" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S552" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T552" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U552" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V552" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W552" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="X552" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y552" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z552" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA552" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB552" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC552" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD552" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="553" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A553" s="7">
+        <v>45577.797273715274</v>
+      </c>
+      <c r="B553" s="8" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C553" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D553" s="8">
+        <v>20181090</v>
+      </c>
+      <c r="E553" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F553" s="8">
+        <v>3</v>
+      </c>
+      <c r="G553" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H553" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I553" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J553" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K553" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L553" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M553" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N553" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O553" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P553" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q553" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R553" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S553" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T553" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U553" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V553" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W553" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X553" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y553" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z553" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA553" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB553" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC553" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD553" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="554" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A554" s="4">
+        <v>45577.843742569443</v>
+      </c>
+      <c r="B554" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C554" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D554" s="5">
+        <v>20223523</v>
+      </c>
+      <c r="E554" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F554" s="5">
+        <v>3</v>
+      </c>
+      <c r="G554" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H554" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I554" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J554" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K554" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L554" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M554" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N554" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O554" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P554" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q554" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R554" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S554" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T554" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U554" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V554" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W554" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X554" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y554" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z554" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA554" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB554" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC554" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD554" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="555" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A555" s="7">
+        <v>45577.849421354171</v>
+      </c>
+      <c r="B555" s="8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C555" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D555" s="8">
+        <v>20233717</v>
+      </c>
+      <c r="E555" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F555" s="8">
+        <v>3</v>
+      </c>
+      <c r="G555" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H555" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I555" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J555" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K555" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L555" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M555" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N555" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O555" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P555" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q555" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R555" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S555" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T555" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U555" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V555" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W555" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X555" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y555" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z555" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA555" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB555" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC555" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD555" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="556" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A556" s="16">
+        <v>45577.859359884256</v>
+      </c>
+      <c r="B556" s="17" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C556" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D556" s="17">
+        <v>20246221</v>
+      </c>
+      <c r="E556" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="F556" s="17">
+        <v>3</v>
+      </c>
+      <c r="G556" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H556" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I556" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J556" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K556" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L556" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M556" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N556" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O556" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P556" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q556" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R556" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="S556" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T556" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="U556" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V556" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="W556" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="X556" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y556" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z556" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA556" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB556" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC556" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD556" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C6A51C-EC48-1146-81A2-C204D5B5D7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B5B92D-DEC6-134F-8584-33582438BF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15015" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15960" uniqueCount="1387">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3972,6 +3972,216 @@
   </si>
   <si>
     <t>soyeon2025@naver.com</t>
+  </si>
+  <si>
+    <t>ran8410@naver.com</t>
+  </si>
+  <si>
+    <t>언어병리학과</t>
+  </si>
+  <si>
+    <t>박경란</t>
+  </si>
+  <si>
+    <t>mi3107359@gmail.com</t>
+  </si>
+  <si>
+    <t>이미진</t>
+  </si>
+  <si>
+    <t>hyerim0v0@gmail.com</t>
+  </si>
+  <si>
+    <t>전혜림</t>
+  </si>
+  <si>
+    <t>sjhaa303028@naver.com</t>
+  </si>
+  <si>
+    <t>신중현</t>
+  </si>
+  <si>
+    <t>tlsdmsco1130@naver.com</t>
+  </si>
+  <si>
+    <t>신은채</t>
+  </si>
+  <si>
+    <t>crown7308@naver.com</t>
+  </si>
+  <si>
+    <t>박재환</t>
+  </si>
+  <si>
+    <t>u2fjfjrjdjjr2@naver.com</t>
+  </si>
+  <si>
+    <t>기소연</t>
+  </si>
+  <si>
+    <t>saycom816@gmail.com</t>
+  </si>
+  <si>
+    <t>김영빈</t>
+  </si>
+  <si>
+    <t>dltmdwo0301@naver.com</t>
+  </si>
+  <si>
+    <t>이승재</t>
+  </si>
+  <si>
+    <t>hhy062700@naver.com</t>
+  </si>
+  <si>
+    <t>황희영</t>
+  </si>
+  <si>
+    <t>rlaalstjd051003@naver.com</t>
+  </si>
+  <si>
+    <t>ataraxia050508@naver.com</t>
+  </si>
+  <si>
+    <t>박정호</t>
+  </si>
+  <si>
+    <t>1202kge@naver.com</t>
+  </si>
+  <si>
+    <t>김가은</t>
+  </si>
+  <si>
+    <t>kymex0308@naver.com</t>
+  </si>
+  <si>
+    <t>김영민</t>
+  </si>
+  <si>
+    <t>rlatldbs124@naver.com</t>
+  </si>
+  <si>
+    <t>김시윤</t>
+  </si>
+  <si>
+    <t>jign1106@naver.com</t>
+  </si>
+  <si>
+    <t>지은총</t>
+  </si>
+  <si>
+    <t>psh020509@naver.com</t>
+  </si>
+  <si>
+    <t>박시환</t>
+  </si>
+  <si>
+    <t>ehdus1113kim@naver.com</t>
+  </si>
+  <si>
+    <t>scjscj913@naver.com</t>
+  </si>
+  <si>
+    <t>최수정</t>
+  </si>
+  <si>
+    <t>kdk3265@naver.com</t>
+  </si>
+  <si>
+    <t>강은비</t>
+  </si>
+  <si>
+    <t>leedongyoung797@gmail.com</t>
+  </si>
+  <si>
+    <t>이동영</t>
+  </si>
+  <si>
+    <t>kt433@naver.com</t>
+  </si>
+  <si>
+    <t>주혜린</t>
+  </si>
+  <si>
+    <t>jmmj99@naver.com</t>
+  </si>
+  <si>
+    <t>이지헌</t>
+  </si>
+  <si>
+    <t>jyl06070@naver.com</t>
+  </si>
+  <si>
+    <t>미디어스쿨 언론방송융합학과</t>
+  </si>
+  <si>
+    <t>장유림</t>
+  </si>
+  <si>
+    <t>seokhoo1@naver.com</t>
+  </si>
+  <si>
+    <t>박석호</t>
+  </si>
+  <si>
+    <t>jeongeun20050618@gmail.com</t>
+  </si>
+  <si>
+    <t>권정은</t>
+  </si>
+  <si>
+    <t>min010417@gmail.com</t>
+  </si>
+  <si>
+    <t>강채민</t>
+  </si>
+  <si>
+    <t>leeleeya1013@gmail.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>kesha11@naver.com</t>
+  </si>
+  <si>
+    <t>윤주호</t>
+  </si>
+  <si>
+    <t>jmju0711@naver.com</t>
+  </si>
+  <si>
+    <t>정민주</t>
+  </si>
+  <si>
+    <t>chanwoo0807@gmail.com</t>
+  </si>
+  <si>
+    <t>김찬우</t>
+  </si>
+  <si>
+    <t>20182346@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이용재</t>
+  </si>
+  <si>
+    <t>soeunjeong0816@naver.com</t>
+  </si>
+  <si>
+    <t>정소은</t>
+  </si>
+  <si>
+    <t>wpghks1145@gmail.com</t>
+  </si>
+  <si>
+    <t>박제환</t>
+  </si>
+  <si>
+    <t>lendjo@naver.com</t>
+  </si>
+  <si>
+    <t>오한별</t>
   </si>
 </sst>
 </file>
@@ -4396,7 +4606,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD556">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD591">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -4634,11 +4844,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD556"/>
+  <dimension ref="A1:AD591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E561" sqref="E561"/>
+      <pane ySplit="1" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D596" sqref="D596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -55823,6 +56033,3226 @@
         <v>56</v>
       </c>
     </row>
+    <row r="557" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A557" s="7">
+        <v>45577.873302453707</v>
+      </c>
+      <c r="B557" s="8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C557" s="8" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D557" s="8">
+        <v>20203918</v>
+      </c>
+      <c r="E557" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F557" s="8">
+        <v>3</v>
+      </c>
+      <c r="G557" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H557" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I557" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J557" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K557" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L557" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M557" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N557" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O557" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P557" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q557" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="R557" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S557" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T557" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U557" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="V557" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W557" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X557" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y557" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z557" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA557" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB557" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC557" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD557" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="558" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A558" s="4">
+        <v>45577.881930416668</v>
+      </c>
+      <c r="B558" s="5" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C558" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D558" s="5">
+        <v>20241220</v>
+      </c>
+      <c r="E558" s="5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F558" s="5">
+        <v>3</v>
+      </c>
+      <c r="G558" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H558" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I558" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J558" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K558" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L558" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M558" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N558" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O558" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P558" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q558" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R558" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S558" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T558" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U558" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V558" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W558" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X558" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y558" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z558" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA558" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB558" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC558" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD558" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="559" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A559" s="7">
+        <v>45577.88830288194</v>
+      </c>
+      <c r="B559" s="8" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C559" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D559" s="8">
+        <v>20231630</v>
+      </c>
+      <c r="E559" s="8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F559" s="8">
+        <v>3</v>
+      </c>
+      <c r="G559" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H559" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I559" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J559" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K559" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L559" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M559" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N559" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O559" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P559" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q559" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R559" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S559" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T559" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U559" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V559" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W559" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X559" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y559" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z559" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA559" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB559" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC559" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD559" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="560" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A560" s="4">
+        <v>45577.897413657411</v>
+      </c>
+      <c r="B560" s="5" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C560" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D560" s="5">
+        <v>20246741</v>
+      </c>
+      <c r="E560" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F560" s="5">
+        <v>3</v>
+      </c>
+      <c r="G560" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H560" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I560" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J560" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K560" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L560" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="M560" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N560" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O560" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P560" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q560" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R560" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S560" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="T560" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U560" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="V560" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W560" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="X560" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y560" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z560" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA560" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB560" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC560" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD560" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="561" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A561" s="7">
+        <v>45577.904225347222</v>
+      </c>
+      <c r="B561" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C561" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D561" s="8">
+        <v>20242532</v>
+      </c>
+      <c r="E561" s="8" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F561" s="8">
+        <v>3</v>
+      </c>
+      <c r="G561" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H561" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I561" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J561" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K561" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L561" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M561" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N561" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O561" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P561" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q561" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R561" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S561" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T561" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U561" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V561" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W561" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X561" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y561" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z561" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA561" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB561" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC561" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD561" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="562" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A562" s="4">
+        <v>45577.90661701389</v>
+      </c>
+      <c r="B562" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C562" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="D562" s="5">
+        <v>20205173</v>
+      </c>
+      <c r="E562" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F562" s="5">
+        <v>3</v>
+      </c>
+      <c r="G562" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H562" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I562" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J562" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K562" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L562" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M562" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N562" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O562" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P562" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q562" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R562" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S562" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T562" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U562" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V562" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W562" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X562" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y562" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z562" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA562" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB562" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC562" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD562" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="563" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A563" s="7">
+        <v>45577.920991076389</v>
+      </c>
+      <c r="B563" s="8" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C563" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D563" s="8">
+        <v>20232502</v>
+      </c>
+      <c r="E563" s="8" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F563" s="8">
+        <v>3</v>
+      </c>
+      <c r="G563" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H563" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I563" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J563" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K563" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L563" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M563" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N563" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O563" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P563" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q563" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R563" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S563" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T563" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U563" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V563" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W563" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X563" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y563" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z563" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA563" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB563" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC563" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD563" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="564" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A564" s="4">
+        <v>45577.927656145832</v>
+      </c>
+      <c r="B564" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C564" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D564" s="5">
+        <v>20242930</v>
+      </c>
+      <c r="E564" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F564" s="5">
+        <v>3</v>
+      </c>
+      <c r="G564" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H564" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I564" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J564" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K564" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L564" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M564" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N564" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O564" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P564" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q564" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R564" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S564" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T564" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U564" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V564" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W564" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X564" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y564" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z564" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA564" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB564" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC564" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD564" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="565" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A565" s="7">
+        <v>45577.930175821763</v>
+      </c>
+      <c r="B565" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C565" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D565" s="8">
+        <v>20222830</v>
+      </c>
+      <c r="E565" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F565" s="8">
+        <v>3</v>
+      </c>
+      <c r="G565" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H565" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I565" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J565" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K565" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L565" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M565" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N565" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O565" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P565" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q565" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R565" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S565" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T565" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U565" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V565" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W565" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X565" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y565" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z565" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA565" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB565" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC565" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD565" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="566" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A566" s="4">
+        <v>45577.94640148148</v>
+      </c>
+      <c r="B566" s="5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C566" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D566" s="5">
+        <v>20243971</v>
+      </c>
+      <c r="E566" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F566" s="5">
+        <v>3</v>
+      </c>
+      <c r="G566" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H566" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I566" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J566" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K566" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L566" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M566" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N566" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O566" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P566" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q566" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R566" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S566" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T566" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U566" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V566" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W566" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X566" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y566" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z566" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA566" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB566" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC566" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD566" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="567" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A567" s="7">
+        <v>45577.959108078707</v>
+      </c>
+      <c r="B567" s="8" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C567" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D567" s="8">
+        <v>20241010</v>
+      </c>
+      <c r="E567" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F567" s="8">
+        <v>3</v>
+      </c>
+      <c r="G567" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H567" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I567" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J567" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="K567" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L567" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M567" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N567" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O567" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P567" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q567" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="R567" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="S567" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="T567" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U567" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="V567" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W567" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X567" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y567" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z567" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA567" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB567" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC567" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD567" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="568" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A568" s="4">
+        <v>45577.969190428237</v>
+      </c>
+      <c r="B568" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C568" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D568" s="5">
+        <v>20242118</v>
+      </c>
+      <c r="E568" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F568" s="5">
+        <v>3</v>
+      </c>
+      <c r="G568" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H568" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I568" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J568" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K568" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L568" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M568" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N568" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O568" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P568" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q568" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R568" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S568" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T568" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U568" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V568" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W568" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X568" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y568" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z568" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA568" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB568" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC568" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD568" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="569" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A569" s="7">
+        <v>45577.97271047454</v>
+      </c>
+      <c r="B569" s="8" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C569" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D569" s="8">
+        <v>20242205</v>
+      </c>
+      <c r="E569" s="8" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F569" s="8">
+        <v>3</v>
+      </c>
+      <c r="G569" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H569" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I569" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J569" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K569" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L569" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M569" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N569" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O569" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P569" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q569" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R569" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S569" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T569" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U569" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V569" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W569" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X569" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y569" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z569" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA569" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB569" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC569" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD569" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="570" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A570" s="4">
+        <v>45577.977159120375</v>
+      </c>
+      <c r="B570" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C570" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D570" s="5">
+        <v>20243214</v>
+      </c>
+      <c r="E570" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F570" s="5">
+        <v>3</v>
+      </c>
+      <c r="G570" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H570" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I570" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J570" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K570" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L570" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M570" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N570" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O570" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P570" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q570" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R570" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S570" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T570" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U570" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V570" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W570" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X570" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y570" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z570" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA570" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB570" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC570" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD570" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="571" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A571" s="7">
+        <v>45577.999613032407</v>
+      </c>
+      <c r="B571" s="8" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C571" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D571" s="8">
+        <v>20203807</v>
+      </c>
+      <c r="E571" s="8" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F571" s="8">
+        <v>3</v>
+      </c>
+      <c r="G571" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H571" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I571" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J571" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K571" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L571" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M571" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N571" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O571" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P571" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q571" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R571" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S571" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T571" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U571" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V571" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W571" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X571" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y571" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z571" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA571" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB571" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC571" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD571" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="572" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A572" s="4">
+        <v>45578.000290995369</v>
+      </c>
+      <c r="B572" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C572" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D572" s="5">
+        <v>20246289</v>
+      </c>
+      <c r="E572" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F572" s="5">
+        <v>3</v>
+      </c>
+      <c r="G572" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H572" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I572" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J572" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K572" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L572" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M572" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N572" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O572" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P572" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q572" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R572" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S572" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T572" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U572" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V572" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W572" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X572" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y572" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z572" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA572" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB572" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC572" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD572" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="573" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A573" s="7">
+        <v>45578.002274826387</v>
+      </c>
+      <c r="B573" s="8" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C573" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D573" s="8">
+        <v>20212820</v>
+      </c>
+      <c r="E573" s="8" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F573" s="8">
+        <v>3</v>
+      </c>
+      <c r="G573" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H573" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I573" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J573" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K573" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L573" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="M573" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N573" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O573" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P573" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q573" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R573" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="S573" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="T573" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U573" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V573" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W573" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X573" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y573" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z573" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA573" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB573" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC573" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD573" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="574" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A574" s="4">
+        <v>45578.004064374996</v>
+      </c>
+      <c r="B574" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C574" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D574" s="5">
+        <v>20232705</v>
+      </c>
+      <c r="E574" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F574" s="5">
+        <v>3</v>
+      </c>
+      <c r="G574" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H574" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I574" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J574" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K574" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L574" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M574" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N574" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O574" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P574" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q574" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R574" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S574" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T574" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U574" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V574" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W574" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X574" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y574" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z574" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA574" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB574" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC574" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD574" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="575" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A575" s="7">
+        <v>45578.012914178238</v>
+      </c>
+      <c r="B575" s="8" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C575" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D575" s="8">
+        <v>20217180</v>
+      </c>
+      <c r="E575" s="8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F575" s="8">
+        <v>3</v>
+      </c>
+      <c r="G575" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H575" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I575" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J575" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K575" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L575" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M575" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N575" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O575" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P575" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q575" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R575" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S575" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T575" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U575" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V575" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W575" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X575" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y575" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z575" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA575" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB575" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC575" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD575" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="576" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A576" s="4">
+        <v>45578.018406296294</v>
+      </c>
+      <c r="B576" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C576" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D576" s="5">
+        <v>20201002</v>
+      </c>
+      <c r="E576" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F576" s="5">
+        <v>3</v>
+      </c>
+      <c r="G576" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H576" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I576" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J576" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K576" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L576" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M576" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N576" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O576" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P576" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q576" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R576" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S576" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T576" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U576" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V576" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W576" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X576" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y576" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z576" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA576" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB576" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC576" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD576" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="577" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A577" s="7">
+        <v>45578.024371400461</v>
+      </c>
+      <c r="B577" s="8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C577" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D577" s="8">
+        <v>20243934</v>
+      </c>
+      <c r="E577" s="8" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F577" s="8">
+        <v>3</v>
+      </c>
+      <c r="G577" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H577" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I577" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J577" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K577" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L577" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="M577" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N577" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O577" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P577" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q577" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R577" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="S577" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="T577" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U577" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="V577" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W577" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X577" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y577" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z577" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA577" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB577" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC577" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD577" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="578" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A578" s="4">
+        <v>45578.024884861108</v>
+      </c>
+      <c r="B578" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C578" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D578" s="5">
+        <v>20222361</v>
+      </c>
+      <c r="E578" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F578" s="5">
+        <v>3</v>
+      </c>
+      <c r="G578" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H578" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I578" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J578" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K578" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L578" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M578" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N578" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O578" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P578" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q578" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R578" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S578" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T578" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U578" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V578" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W578" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X578" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y578" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z578" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA578" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB578" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC578" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD578" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="579" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A579" s="7">
+        <v>45578.025769965279</v>
+      </c>
+      <c r="B579" s="8" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C579" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D579" s="8">
+        <v>20246930</v>
+      </c>
+      <c r="E579" s="8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F579" s="8">
+        <v>3</v>
+      </c>
+      <c r="G579" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H579" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I579" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J579" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K579" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L579" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M579" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N579" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O579" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P579" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q579" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R579" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S579" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T579" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U579" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V579" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W579" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X579" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y579" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z579" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA579" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB579" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC579" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD579" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="580" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A580" s="4">
+        <v>45578.027937025465</v>
+      </c>
+      <c r="B580" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C580" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D580" s="5">
+        <v>20212749</v>
+      </c>
+      <c r="E580" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F580" s="5">
+        <v>3</v>
+      </c>
+      <c r="G580" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H580" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I580" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J580" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K580" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L580" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M580" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N580" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O580" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P580" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q580" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R580" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S580" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T580" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U580" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V580" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W580" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X580" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y580" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z580" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA580" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB580" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC580" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD580" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="581" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A581" s="7">
+        <v>45578.035632199069</v>
+      </c>
+      <c r="B581" s="8" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C581" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D581" s="8">
+        <v>20241038</v>
+      </c>
+      <c r="E581" s="8" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F581" s="8">
+        <v>3</v>
+      </c>
+      <c r="G581" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H581" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I581" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J581" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K581" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L581" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M581" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N581" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O581" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P581" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q581" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="R581" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S581" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="T581" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U581" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="V581" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="W581" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X581" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y581" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z581" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA581" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB581" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC581" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD581" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="582" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A582" s="4">
+        <v>45578.04641574074</v>
+      </c>
+      <c r="B582" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C582" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D582" s="5">
+        <v>20243703</v>
+      </c>
+      <c r="E582" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F582" s="5">
+        <v>3</v>
+      </c>
+      <c r="G582" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H582" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I582" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J582" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K582" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L582" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M582" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N582" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O582" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P582" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q582" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R582" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S582" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T582" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U582" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V582" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W582" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X582" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y582" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z582" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA582" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB582" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC582" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD582" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="583" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A583" s="7">
+        <v>45578.048034861116</v>
+      </c>
+      <c r="B583" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C583" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D583" s="8">
+        <v>202023702</v>
+      </c>
+      <c r="E583" s="8" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F583" s="8">
+        <v>3</v>
+      </c>
+      <c r="G583" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H583" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I583" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J583" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K583" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L583" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M583" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N583" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O583" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P583" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q583" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R583" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S583" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T583" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U583" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V583" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W583" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X583" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y583" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z583" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA583" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB583" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC583" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD583" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="584" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A584" s="4">
+        <v>45578.063800231481</v>
+      </c>
+      <c r="B584" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C584" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D584" s="5">
+        <v>20246610</v>
+      </c>
+      <c r="E584" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F584" s="5">
+        <v>3</v>
+      </c>
+      <c r="G584" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H584" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I584" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J584" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K584" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L584" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M584" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N584" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O584" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P584" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q584" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R584" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S584" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T584" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U584" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V584" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="W584" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X584" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y584" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z584" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA584" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB584" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC584" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD584" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="585" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A585" s="7">
+        <v>45578.070141365737</v>
+      </c>
+      <c r="B585" s="8" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C585" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D585" s="8">
+        <v>20211059</v>
+      </c>
+      <c r="E585" s="8" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F585" s="8">
+        <v>3</v>
+      </c>
+      <c r="G585" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H585" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I585" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J585" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K585" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L585" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M585" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N585" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O585" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P585" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q585" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R585" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S585" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T585" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U585" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V585" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W585" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X585" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y585" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z585" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA585" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB585" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC585" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD585" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="586" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A586" s="4">
+        <v>45578.084921006943</v>
+      </c>
+      <c r="B586" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C586" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D586" s="5">
+        <v>20241088</v>
+      </c>
+      <c r="E586" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F586" s="5">
+        <v>3</v>
+      </c>
+      <c r="G586" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H586" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I586" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J586" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K586" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L586" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M586" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N586" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O586" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P586" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q586" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R586" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S586" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T586" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U586" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V586" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W586" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X586" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y586" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z586" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA586" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB586" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC586" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD586" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="587" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A587" s="7">
+        <v>45578.08835849537</v>
+      </c>
+      <c r="B587" s="8" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C587" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="D587" s="8">
+        <v>20223316</v>
+      </c>
+      <c r="E587" s="8" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F587" s="8">
+        <v>3</v>
+      </c>
+      <c r="G587" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H587" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I587" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J587" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K587" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L587" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M587" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N587" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O587" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P587" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q587" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R587" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S587" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T587" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U587" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V587" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W587" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X587" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y587" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z587" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA587" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB587" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC587" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD587" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="588" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A588" s="4">
+        <v>45578.090577650466</v>
+      </c>
+      <c r="B588" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C588" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D588" s="5">
+        <v>20182346</v>
+      </c>
+      <c r="E588" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F588" s="5">
+        <v>3</v>
+      </c>
+      <c r="G588" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H588" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I588" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J588" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K588" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L588" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M588" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N588" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O588" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P588" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q588" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R588" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S588" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T588" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U588" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V588" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W588" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X588" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y588" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z588" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA588" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB588" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC588" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD588" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="589" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A589" s="7">
+        <v>45578.092004409722</v>
+      </c>
+      <c r="B589" s="8" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C589" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D589" s="8">
+        <v>20243648</v>
+      </c>
+      <c r="E589" s="8" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F589" s="8">
+        <v>3</v>
+      </c>
+      <c r="G589" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="H589" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I589" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J589" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K589" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L589" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M589" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N589" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="O589" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P589" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q589" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="R589" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S589" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T589" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U589" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V589" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="W589" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X589" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y589" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z589" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA589" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB589" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC589" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD589" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="590" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A590" s="4">
+        <v>45578.1104600463</v>
+      </c>
+      <c r="B590" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C590" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D590" s="5">
+        <v>20201046</v>
+      </c>
+      <c r="E590" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F590" s="5">
+        <v>3</v>
+      </c>
+      <c r="G590" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H590" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I590" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J590" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K590" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L590" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M590" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N590" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O590" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P590" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q590" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R590" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S590" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T590" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U590" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V590" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W590" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X590" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y590" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z590" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA590" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB590" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC590" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD590" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="591" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A591" s="13">
+        <v>45578.217414027778</v>
+      </c>
+      <c r="B591" s="14" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C591" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="D591" s="14">
+        <v>20242625</v>
+      </c>
+      <c r="E591" s="14" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F591" s="14">
+        <v>3</v>
+      </c>
+      <c r="G591" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H591" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I591" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J591" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K591" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L591" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M591" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="N591" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O591" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P591" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q591" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R591" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S591" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="T591" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U591" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V591" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="W591" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="X591" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y591" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z591" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA591" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB591" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC591" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD591" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_240930.xlsx
+++ b/R/data/literacy_240930.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Dropbox/내 Mac (Kee-Won의 MacBook Air)/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B5B92D-DEC6-134F-8584-33582438BF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E243D1-20DC-C247-A9B8-EFADB7750221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50400" yWindow="1360" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15960" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16824" uniqueCount="1455">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4182,6 +4182,210 @@
   </si>
   <si>
     <t>오한별</t>
+  </si>
+  <si>
+    <t>dbsduwls691@naver.com</t>
+  </si>
+  <si>
+    <t>윤여진</t>
+  </si>
+  <si>
+    <t>hanseoyun392@gmail.com</t>
+  </si>
+  <si>
+    <t>한서윤</t>
+  </si>
+  <si>
+    <t>sowon051125@naver.com</t>
+  </si>
+  <si>
+    <t>이소원</t>
+  </si>
+  <si>
+    <t>you72460601@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털인문예술</t>
+  </si>
+  <si>
+    <t>유지원</t>
+  </si>
+  <si>
+    <t>lcw1309@gmail.com</t>
+  </si>
+  <si>
+    <t>이채원</t>
+  </si>
+  <si>
+    <t>mjjb1102@gmail.com</t>
+  </si>
+  <si>
+    <t>ㅣ민재</t>
+  </si>
+  <si>
+    <t>이민재</t>
+  </si>
+  <si>
+    <t>hanyejun339@gmail.com</t>
+  </si>
+  <si>
+    <t>한예준</t>
+  </si>
+  <si>
+    <t>wjdtn2445@naver.com</t>
+  </si>
+  <si>
+    <t>이정수</t>
+  </si>
+  <si>
+    <t>soonbeom1130@naver.com</t>
+  </si>
+  <si>
+    <t>권순범</t>
+  </si>
+  <si>
+    <t>sejun4@naver.com</t>
+  </si>
+  <si>
+    <t>경영/청각</t>
+  </si>
+  <si>
+    <t>박세준</t>
+  </si>
+  <si>
+    <t>hiday_516@naver.com</t>
+  </si>
+  <si>
+    <t>양희지</t>
+  </si>
+  <si>
+    <t>jiurim0316@naver.com</t>
+  </si>
+  <si>
+    <t>지우림</t>
+  </si>
+  <si>
+    <t>heesung4321@gmail.com</t>
+  </si>
+  <si>
+    <t>전희성</t>
+  </si>
+  <si>
+    <t>csqwe2@naver.com</t>
+  </si>
+  <si>
+    <t>장재호</t>
+  </si>
+  <si>
+    <t>wlgus4770752@naver.com</t>
+  </si>
+  <si>
+    <t>의예과</t>
+  </si>
+  <si>
+    <t>김지현</t>
+  </si>
+  <si>
+    <t>yerimyerim11@naver.com</t>
+  </si>
+  <si>
+    <t>ghskfen1215@naver.com</t>
+  </si>
+  <si>
+    <t>기정윤</t>
+  </si>
+  <si>
+    <t>marcy0628@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌비즈니스</t>
+  </si>
+  <si>
+    <t>송지우</t>
+  </si>
+  <si>
+    <t>dmsdn6462@naver.com</t>
+  </si>
+  <si>
+    <t>김은우</t>
+  </si>
+  <si>
+    <t>ndd1016@gmail.com</t>
+  </si>
+  <si>
+    <t>최형렬</t>
+  </si>
+  <si>
+    <t>azxsk0187@gmail.com</t>
+  </si>
+  <si>
+    <t>한윤서</t>
+  </si>
+  <si>
+    <t>cth041103@naver.com</t>
+  </si>
+  <si>
+    <t>최태희</t>
+  </si>
+  <si>
+    <t>hshkjh1234@naver.com</t>
+  </si>
+  <si>
+    <t>황소현</t>
+  </si>
+  <si>
+    <t>a01075976680@gmail.com</t>
+  </si>
+  <si>
+    <t>김우진</t>
+  </si>
+  <si>
+    <t>jb9517asd@naver.com</t>
+  </si>
+  <si>
+    <t>곽우주</t>
+  </si>
+  <si>
+    <t>nickjjang7@naver.com</t>
+  </si>
+  <si>
+    <t>옥석현</t>
+  </si>
+  <si>
+    <t>rkdwndms112@naver.com</t>
+  </si>
+  <si>
+    <t>강주은</t>
+  </si>
+  <si>
+    <t>bhyejin420@gmail.com</t>
+  </si>
+  <si>
+    <t>박혜진</t>
+  </si>
+  <si>
+    <t>seoeunwkd@gmail.com</t>
+  </si>
+  <si>
+    <t>정서은</t>
+  </si>
+  <si>
+    <t>uj5343@gmail.com</t>
+  </si>
+  <si>
+    <t>장우찬</t>
+  </si>
+  <si>
+    <t>emf1811@naver.com</t>
+  </si>
+  <si>
+    <t>김들</t>
+  </si>
+  <si>
+    <t>sehyun1901@gmail.com</t>
+  </si>
+  <si>
+    <t>임세현</t>
   </si>
 </sst>
 </file>
@@ -4606,7 +4810,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD591">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:AD623">
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="타임스탬프"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이메일 주소"/>
@@ -4844,11 +5048,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD591"/>
+  <dimension ref="A1:AD623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D596" sqref="D596"/>
+      <pane ySplit="1" topLeftCell="A590" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C627" sqref="C627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -59253,6 +59457,2950 @@
         <v>56</v>
       </c>
     </row>
+    <row r="592" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A592" s="4">
+        <v>45578.314592812501</v>
+      </c>
+      <c r="B592" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C592" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D592" s="5">
+        <v>20191623</v>
+      </c>
+      <c r="E592" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F592" s="5">
+        <v>3</v>
+      </c>
+      <c r="G592" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H592" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I592" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J592" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K592" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L592" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M592" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N592" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O592" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P592" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q592" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R592" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S592" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T592" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U592" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V592" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W592" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X592" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y592" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z592" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA592" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB592" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC592" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD592" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="593" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A593" s="7">
+        <v>45578.320512280094</v>
+      </c>
+      <c r="B593" s="8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C593" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D593" s="8">
+        <v>20243964</v>
+      </c>
+      <c r="E593" s="8" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F593" s="8">
+        <v>3</v>
+      </c>
+      <c r="G593" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H593" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I593" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J593" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K593" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L593" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M593" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N593" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O593" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P593" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q593" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R593" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S593" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T593" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U593" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V593" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W593" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X593" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y593" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z593" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA593" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB593" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC593" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD593" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="594" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A594" s="4">
+        <v>45578.346333877314</v>
+      </c>
+      <c r="B594" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C594" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D594" s="5">
+        <v>20243238</v>
+      </c>
+      <c r="E594" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F594" s="5">
+        <v>3</v>
+      </c>
+      <c r="G594" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H594" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I594" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J594" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K594" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L594" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M594" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N594" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O594" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P594" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q594" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R594" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S594" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T594" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U594" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V594" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W594" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X594" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y594" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z594" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA594" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB594" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC594" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD594" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="595" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A595" s="7">
+        <v>45578.360429363427</v>
+      </c>
+      <c r="B595" s="8" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C595" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D595" s="8">
+        <v>20201721</v>
+      </c>
+      <c r="E595" s="8" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F595" s="8">
+        <v>3</v>
+      </c>
+      <c r="G595" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H595" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I595" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J595" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K595" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L595" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M595" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N595" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O595" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P595" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q595" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R595" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S595" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T595" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U595" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V595" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="W595" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X595" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y595" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z595" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA595" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB595" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC595" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD595" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="596" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A596" s="4">
+        <v>45578.365994594904</v>
+      </c>
+      <c r="B596" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C596" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D596" s="5">
+        <v>20243423</v>
+      </c>
+      <c r="E596" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F596" s="5">
+        <v>3</v>
+      </c>
+      <c r="G596" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H596" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I596" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J596" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K596" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L596" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M596" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N596" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O596" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P596" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q596" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R596" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S596" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T596" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U596" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V596" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W596" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X596" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y596" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z596" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA596" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB596" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC596" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD596" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="597" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A597" s="7">
+        <v>45578.381595474537</v>
+      </c>
+      <c r="B597" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C597" s="8" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D597" s="8">
+        <v>20206628</v>
+      </c>
+      <c r="E597" s="8" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F597" s="8">
+        <v>3</v>
+      </c>
+      <c r="G597" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H597" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I597" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J597" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K597" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L597" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M597" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N597" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O597" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P597" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q597" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R597" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S597" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T597" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U597" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V597" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W597" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X597" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y597" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z597" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA597" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB597" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC597" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD597" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="598" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A598" s="4">
+        <v>45578.399864780091</v>
+      </c>
+      <c r="B598" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C598" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D598" s="5">
+        <v>20246649</v>
+      </c>
+      <c r="E598" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F598" s="5">
+        <v>3</v>
+      </c>
+      <c r="G598" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H598" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I598" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J598" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K598" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L598" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M598" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N598" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O598" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P598" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q598" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R598" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S598" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T598" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U598" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V598" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W598" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X598" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y598" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z598" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA598" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB598" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC598" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD598" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="599" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A599" s="7">
+        <v>45578.402133043986</v>
+      </c>
+      <c r="B599" s="8" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C599" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D599" s="8">
+        <v>20227103</v>
+      </c>
+      <c r="E599" s="8" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F599" s="8">
+        <v>3</v>
+      </c>
+      <c r="G599" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H599" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I599" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J599" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K599" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L599" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M599" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N599" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O599" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P599" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q599" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R599" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S599" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T599" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U599" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V599" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W599" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X599" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y599" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z599" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA599" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB599" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC599" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD599" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="600" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A600" s="4">
+        <v>45578.408690682874</v>
+      </c>
+      <c r="B600" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C600" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="D600" s="5">
+        <v>20235112</v>
+      </c>
+      <c r="E600" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F600" s="5">
+        <v>3</v>
+      </c>
+      <c r="G600" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H600" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I600" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J600" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K600" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L600" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M600" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N600" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O600" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P600" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q600" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R600" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S600" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T600" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U600" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V600" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W600" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X600" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y600" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z600" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA600" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB600" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC600" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD600" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="601" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A601" s="7">
+        <v>45578.44819549768</v>
+      </c>
+      <c r="B601" s="8" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C601" s="8" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D601" s="8">
+        <v>20193968</v>
+      </c>
+      <c r="E601" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F601" s="8">
+        <v>3</v>
+      </c>
+      <c r="G601" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H601" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I601" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J601" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K601" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L601" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M601" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N601" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O601" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P601" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q601" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R601" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S601" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T601" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U601" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V601" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W601" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X601" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y601" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z601" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA601" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB601" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC601" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD601" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="602" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A602" s="4">
+        <v>45578.45418291667</v>
+      </c>
+      <c r="B602" s="5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C602" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D602" s="5">
+        <v>20203523</v>
+      </c>
+      <c r="E602" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F602" s="5">
+        <v>3</v>
+      </c>
+      <c r="G602" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H602" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I602" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J602" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K602" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L602" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M602" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N602" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O602" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P602" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q602" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R602" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S602" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T602" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U602" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V602" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W602" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X602" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y602" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z602" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA602" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB602" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC602" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD602" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="603" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A603" s="7">
+        <v>45578.455206481478</v>
+      </c>
+      <c r="B603" s="8" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C603" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D603" s="8">
+        <v>20202849</v>
+      </c>
+      <c r="E603" s="8" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F603" s="8">
+        <v>3</v>
+      </c>
+      <c r="G603" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H603" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I603" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J603" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K603" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L603" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M603" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N603" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O603" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P603" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q603" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R603" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S603" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T603" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U603" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V603" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W603" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X603" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y603" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z603" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA603" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB603" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC603" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD603" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="604" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A604" s="4">
+        <v>45578.4694431713</v>
+      </c>
+      <c r="B604" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C604" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D604" s="5">
+        <v>20246770</v>
+      </c>
+      <c r="E604" s="5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F604" s="5">
+        <v>3</v>
+      </c>
+      <c r="G604" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H604" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I604" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J604" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K604" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L604" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M604" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N604" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O604" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="P604" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q604" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R604" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S604" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T604" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U604" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V604" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W604" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="X604" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y604" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z604" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA604" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB604" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC604" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD604" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="605" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A605" s="7">
+        <v>45578.471956331021</v>
+      </c>
+      <c r="B605" s="8" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C605" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D605" s="8">
+        <v>20196638</v>
+      </c>
+      <c r="E605" s="8" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F605" s="8">
+        <v>3</v>
+      </c>
+      <c r="G605" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H605" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I605" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J605" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K605" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L605" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M605" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N605" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O605" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P605" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q605" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R605" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S605" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T605" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U605" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V605" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W605" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X605" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y605" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z605" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA605" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB605" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC605" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD605" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="606" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A606" s="4">
+        <v>45578.482748750001</v>
+      </c>
+      <c r="B606" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C606" s="5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D606" s="5">
+        <v>20236121</v>
+      </c>
+      <c r="E606" s="5" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F606" s="5">
+        <v>3</v>
+      </c>
+      <c r="G606" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H606" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I606" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J606" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K606" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L606" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M606" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N606" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O606" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P606" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q606" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R606" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S606" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T606" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U606" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V606" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W606" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X606" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y606" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z606" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA606" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB606" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC606" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD606" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="607" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A607" s="7">
+        <v>45578.488254444441</v>
+      </c>
+      <c r="B607" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C607" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D607" s="8">
+        <v>20231532</v>
+      </c>
+      <c r="E607" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="F607" s="8">
+        <v>3</v>
+      </c>
+      <c r="G607" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H607" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I607" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J607" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K607" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L607" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M607" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N607" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O607" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P607" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q607" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R607" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="S607" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T607" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U607" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V607" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W607" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X607" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y607" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z607" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA607" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB607" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC607" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD607" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="608" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A608" s="4">
+        <v>45578.506725347223</v>
+      </c>
+      <c r="B608" s="5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C608" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D608" s="5">
+        <v>20236705</v>
+      </c>
+      <c r="E608" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F608" s="5">
+        <v>3</v>
+      </c>
+      <c r="G608" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H608" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I608" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J608" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K608" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L608" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M608" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N608" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O608" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P608" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q608" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R608" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S608" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T608" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U608" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V608" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W608" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X608" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y608" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z608" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA608" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB608" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC608" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD608" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="609" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A609" s="7">
+        <v>45578.509711365739</v>
+      </c>
+      <c r="B609" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C609" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D609" s="8">
+        <v>20216514</v>
+      </c>
+      <c r="E609" s="8" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F609" s="8">
+        <v>3</v>
+      </c>
+      <c r="G609" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H609" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I609" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J609" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K609" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L609" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M609" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N609" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O609" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P609" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q609" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R609" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S609" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T609" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="U609" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V609" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W609" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X609" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y609" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z609" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA609" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB609" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC609" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD609" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="610" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A610" s="4">
+        <v>45578.515170983796</v>
+      </c>
+      <c r="B610" s="5" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C610" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D610" s="5">
+        <v>20202106</v>
+      </c>
+      <c r="E610" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F610" s="5">
+        <v>3</v>
+      </c>
+      <c r="G610" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H610" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I610" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J610" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K610" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L610" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M610" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N610" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O610" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P610" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q610" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R610" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S610" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T610" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U610" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V610" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W610" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X610" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y610" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z610" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA610" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB610" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC610" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD610" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="611" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A611" s="7">
+        <v>45578.517287326387</v>
+      </c>
+      <c r="B611" s="8" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C611" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D611" s="8">
+        <v>20213737</v>
+      </c>
+      <c r="E611" s="8" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F611" s="8">
+        <v>3</v>
+      </c>
+      <c r="G611" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H611" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I611" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J611" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K611" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L611" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M611" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N611" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O611" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P611" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q611" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R611" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S611" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T611" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U611" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V611" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W611" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X611" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y611" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z611" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA611" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB611" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC611" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD611" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="612" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A612" s="4">
+        <v>45578.522581099533</v>
+      </c>
+      <c r="B612" s="5" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C612" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D612" s="5">
+        <v>20246301</v>
+      </c>
+      <c r="E612" s="5" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F612" s="5">
+        <v>3</v>
+      </c>
+      <c r="G612" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H612" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I612" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J612" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K612" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L612" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M612" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N612" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O612" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P612" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q612" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R612" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S612" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T612" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U612" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V612" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W612" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X612" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y612" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z612" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA612" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB612" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC612" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD612" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="613" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A613" s="7">
+        <v>45578.53599074074</v>
+      </c>
+      <c r="B613" s="8" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C613" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D613" s="8">
+        <v>20233544</v>
+      </c>
+      <c r="E613" s="8" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F613" s="8">
+        <v>3</v>
+      </c>
+      <c r="G613" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H613" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I613" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J613" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K613" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L613" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M613" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N613" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O613" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P613" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q613" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R613" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S613" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T613" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U613" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V613" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W613" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X613" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y613" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z613" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA613" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB613" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC613" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD613" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="614" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A614" s="4">
+        <v>45578.537154363425</v>
+      </c>
+      <c r="B614" s="5" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C614" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D614" s="5">
+        <v>20243063</v>
+      </c>
+      <c r="E614" s="5" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F614" s="5">
+        <v>3</v>
+      </c>
+      <c r="G614" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H614" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I614" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J614" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K614" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L614" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M614" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N614" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O614" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P614" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q614" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R614" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S614" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T614" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U614" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="V614" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W614" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X614" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y614" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z614" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA614" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB614" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC614" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD614" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="615" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A615" s="7">
+        <v>45578.564451620376</v>
+      </c>
+      <c r="B615" s="8" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C615" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D615" s="8">
+        <v>20243309</v>
+      </c>
+      <c r="E615" s="8" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F615" s="8">
+        <v>3</v>
+      </c>
+      <c r="G615" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H615" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I615" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J615" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K615" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L615" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M615" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N615" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O615" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P615" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q615" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R615" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S615" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T615" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U615" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V615" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W615" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X615" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y615" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z615" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA615" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB615" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC615" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD615" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="616" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A616" s="4">
+        <v>45578.568759178241</v>
+      </c>
+      <c r="B616" s="5" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C616" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D616" s="5">
+        <v>20245109</v>
+      </c>
+      <c r="E616" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F616" s="5">
+        <v>3</v>
+      </c>
+      <c r="G616" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H616" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I616" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J616" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K616" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L616" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M616" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N616" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O616" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P616" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q616" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R616" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S616" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T616" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="U616" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V616" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W616" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X616" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y616" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z616" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA616" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB616" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC616" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD616" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="617" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A617" s="7">
+        <v>45578.571786018518</v>
+      </c>
+      <c r="B617" s="8" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C617" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D617" s="8">
+        <v>20213235</v>
+      </c>
+      <c r="E617" s="8" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F617" s="8">
+        <v>3</v>
+      </c>
+      <c r="G617" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H617" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I617" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J617" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K617" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L617" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M617" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N617" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O617" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P617" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q617" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R617" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S617" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T617" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U617" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V617" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W617" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X617" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y617" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z617" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA617" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB617" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC617" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD617" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="618" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A618" s="4">
+        <v>45578.57535230324</v>
+      </c>
+      <c r="B618" s="5" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C618" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D618" s="5">
+        <v>20202501</v>
+      </c>
+      <c r="E618" s="5" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F618" s="5">
+        <v>3</v>
+      </c>
+      <c r="G618" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H618" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I618" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J618" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K618" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L618" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M618" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N618" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O618" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P618" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q618" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R618" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="S618" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T618" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="U618" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V618" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W618" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="X618" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y618" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z618" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA618" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB618" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC618" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD618" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="619" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A619" s="7">
+        <v>45578.575478287035</v>
+      </c>
+      <c r="B619" s="8" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C619" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D619" s="8">
+        <v>20245176</v>
+      </c>
+      <c r="E619" s="8" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F619" s="8">
+        <v>3</v>
+      </c>
+      <c r="G619" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H619" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I619" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J619" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K619" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L619" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M619" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N619" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O619" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P619" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q619" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R619" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S619" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T619" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U619" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V619" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W619" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X619" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y619" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z619" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA619" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB619" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC619" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD619" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="620" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A620" s="4">
+        <v>45578.581786550931</v>
+      </c>
+      <c r="B620" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C620" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D620" s="5">
+        <v>20243426</v>
+      </c>
+      <c r="E620" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F620" s="5">
+        <v>3</v>
+      </c>
+      <c r="G620" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H620" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I620" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J620" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="K620" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L620" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M620" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N620" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O620" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P620" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q620" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R620" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S620" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="T620" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U620" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V620" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W620" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="X620" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y620" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z620" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA620" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB620" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC620" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD620" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="621" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A621" s="7">
+        <v>45578.586893194442</v>
+      </c>
+      <c r="B621" s="8" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C621" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D621" s="8">
+        <v>20243973</v>
+      </c>
+      <c r="E621" s="8" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F621" s="8">
+        <v>3</v>
+      </c>
+      <c r="G621" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H621" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I621" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J621" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K621" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L621" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M621" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N621" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O621" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P621" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q621" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R621" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S621" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T621" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U621" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V621" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W621" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X621" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y621" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z621" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA621" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB621" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC621" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD621" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="622" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A622" s="4">
+        <v>45578.596702511575</v>
+      </c>
+      <c r="B622" s="5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C622" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D622" s="5">
+        <v>20233605</v>
+      </c>
+      <c r="E622" s="5" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F622" s="5">
+        <v>3</v>
+      </c>
+      <c r="G622" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H622" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I622" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J622" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K622" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L622" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M622" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N622" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O622" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P622" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q622" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R622" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S622" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T622" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="U622" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="V622" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="W622" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="X622" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y622" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z622" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA622" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB622" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC622" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD622" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="623" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A623" s="13">
+        <v>45578.596885659717</v>
+      </c>
+      <c r="B623" s="14" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C623" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D623" s="14">
+        <v>20243020</v>
+      </c>
+      <c r="E623" s="14" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F623" s="14">
+        <v>3</v>
+      </c>
+      <c r="G623" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H623" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I623" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J623" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K623" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L623" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M623" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N623" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="O623" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P623" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q623" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R623" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="S623" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="T623" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U623" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="V623" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="W623" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="X623" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y623" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z623" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA623" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB623" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC623" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD623" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
